--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -493,7 +493,7 @@
         <v>87.07061004638672</v>
       </c>
       <c r="F2" t="n">
-        <v>80.06063842773438</v>
+        <v>80.06063079833984</v>
       </c>
       <c r="G2" t="n">
         <v>18865886</v>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.81495666503906</v>
+        <v>79.81496429443359</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -562,7 +562,7 @@
         <v>82.04198455810547</v>
       </c>
       <c r="F5" t="n">
-        <v>75.43685150146484</v>
+        <v>75.43686676025391</v>
       </c>
       <c r="G5" t="n">
         <v>45975656</v>
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.96308135986328</v>
+        <v>74.96307373046875</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -631,7 +631,7 @@
         <v>78.864501953125</v>
       </c>
       <c r="F8" t="n">
-        <v>72.51520538330078</v>
+        <v>72.51519012451172</v>
       </c>
       <c r="G8" t="n">
         <v>68606796</v>
@@ -654,7 +654,7 @@
         <v>78.56870269775391</v>
       </c>
       <c r="F9" t="n">
-        <v>72.24321746826172</v>
+        <v>72.24320220947266</v>
       </c>
       <c r="G9" t="n">
         <v>41994828</v>
@@ -677,7 +677,7 @@
         <v>73.05343627929688</v>
       </c>
       <c r="F10" t="n">
-        <v>67.17198181152344</v>
+        <v>67.17198944091797</v>
       </c>
       <c r="G10" t="n">
         <v>83826481</v>
@@ -700,7 +700,7 @@
         <v>78.43511199951172</v>
       </c>
       <c r="F11" t="n">
-        <v>72.12037658691406</v>
+        <v>72.12036895751953</v>
       </c>
       <c r="G11" t="n">
         <v>85685737</v>
@@ -723,7 +723,7 @@
         <v>73.23473358154297</v>
       </c>
       <c r="F12" t="n">
-        <v>67.33867645263672</v>
+        <v>67.33866882324219</v>
       </c>
       <c r="G12" t="n">
         <v>99266351</v>
@@ -757,7 +757,7 @@
         <v>68.09160614013672</v>
       </c>
       <c r="F14" t="n">
-        <v>63.12685012817383</v>
+        <v>63.12684631347656</v>
       </c>
       <c r="G14" t="n">
         <v>106457307</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>63.45414733886719</v>
+        <v>63.45416259765625</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -849,7 +849,7 @@
         <v>79.63740539550781</v>
       </c>
       <c r="F18" t="n">
-        <v>73.83080291748047</v>
+        <v>73.83078765869141</v>
       </c>
       <c r="G18" t="n">
         <v>55249303</v>
@@ -872,7 +872,7 @@
         <v>77.70037841796875</v>
       </c>
       <c r="F19" t="n">
-        <v>72.03501129150391</v>
+        <v>72.03500366210938</v>
       </c>
       <c r="G19" t="n">
         <v>57325180</v>
@@ -987,7 +987,7 @@
         <v>77.02290344238281</v>
       </c>
       <c r="F24" t="n">
-        <v>71.40692901611328</v>
+        <v>71.40693664550781</v>
       </c>
       <c r="G24" t="n">
         <v>58673014</v>
@@ -1033,7 +1033,7 @@
         <v>72.80534362792969</v>
       </c>
       <c r="F26" t="n">
-        <v>67.49689483642578</v>
+        <v>67.49688720703125</v>
       </c>
       <c r="G26" t="n">
         <v>59188420</v>
@@ -1067,7 +1067,7 @@
         <v>74.33206176757812</v>
       </c>
       <c r="F28" t="n">
-        <v>69.46006011962891</v>
+        <v>69.46007537841797</v>
       </c>
       <c r="G28" t="n">
         <v>78546553</v>
@@ -1090,7 +1090,7 @@
         <v>71.74618530273438</v>
       </c>
       <c r="F29" t="n">
-        <v>67.04367828369141</v>
+        <v>67.04366302490234</v>
       </c>
       <c r="G29" t="n">
         <v>46899992</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>71.21662902832031</v>
+        <v>71.21663665771484</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1182,7 +1182,7 @@
         <v>73.56870269775391</v>
       </c>
       <c r="F33" t="n">
-        <v>68.74674224853516</v>
+        <v>68.74673461914062</v>
       </c>
       <c r="G33" t="n">
         <v>47391502</v>
@@ -1228,7 +1228,7 @@
         <v>77.30915832519531</v>
       </c>
       <c r="F35" t="n">
-        <v>72.24202728271484</v>
+        <v>72.24203491210938</v>
       </c>
       <c r="G35" t="n">
         <v>38546803</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>74.43551635742188</v>
+        <v>74.43550872802734</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1274,7 +1274,7 @@
         <v>81.08778381347656</v>
       </c>
       <c r="F37" t="n">
-        <v>75.77299499511719</v>
+        <v>75.77300262451172</v>
       </c>
       <c r="G37" t="n">
         <v>35482870</v>
@@ -1343,7 +1343,7 @@
         <v>80.61068725585938</v>
       </c>
       <c r="F40" t="n">
-        <v>75.32716369628906</v>
+        <v>75.32717132568359</v>
       </c>
       <c r="G40" t="n">
         <v>32036731</v>
@@ -1366,7 +1366,7 @@
         <v>81.87976837158203</v>
       </c>
       <c r="F41" t="n">
-        <v>76.51305389404297</v>
+        <v>76.51306915283203</v>
       </c>
       <c r="G41" t="n">
         <v>50181803</v>
@@ -1412,7 +1412,7 @@
         <v>77.09923553466797</v>
       </c>
       <c r="F43" t="n">
-        <v>72.56985473632812</v>
+        <v>72.56986236572266</v>
       </c>
       <c r="G43" t="n">
         <v>38125403</v>
@@ -1458,7 +1458,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F45" t="n">
-        <v>71.69867706298828</v>
+        <v>71.69866180419922</v>
       </c>
       <c r="G45" t="n">
         <v>43623732</v>
@@ -1481,7 +1481,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F46" t="n">
-        <v>71.69867706298828</v>
+        <v>71.69866180419922</v>
       </c>
       <c r="G46" t="n">
         <v>42834380</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.54925537109375</v>
+        <v>67.54924774169922</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1573,7 +1573,7 @@
         <v>76.76526641845703</v>
       </c>
       <c r="F50" t="n">
-        <v>72.25552368164062</v>
+        <v>72.25551605224609</v>
       </c>
       <c r="G50" t="n">
         <v>43143331</v>
@@ -1596,7 +1596,7 @@
         <v>76.20229339599609</v>
       </c>
       <c r="F51" t="n">
-        <v>71.72561645507812</v>
+        <v>71.72562408447266</v>
       </c>
       <c r="G51" t="n">
         <v>33957506</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.59375</v>
+        <v>73.59374237060547</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1642,7 +1642,7 @@
         <v>79.16030120849609</v>
       </c>
       <c r="F53" t="n">
-        <v>74.50984954833984</v>
+        <v>74.50985717773438</v>
       </c>
       <c r="G53" t="n">
         <v>39990842</v>
@@ -1688,7 +1688,7 @@
         <v>76.46946716308594</v>
       </c>
       <c r="F55" t="n">
-        <v>72.54550170898438</v>
+        <v>72.54549407958984</v>
       </c>
       <c r="G55" t="n">
         <v>29206712</v>
@@ -1780,7 +1780,7 @@
         <v>77.27098846435547</v>
       </c>
       <c r="F59" t="n">
-        <v>73.30589294433594</v>
+        <v>73.30588531494141</v>
       </c>
       <c r="G59" t="n">
         <v>38045859</v>
@@ -1803,7 +1803,7 @@
         <v>73.54007720947266</v>
       </c>
       <c r="F60" t="n">
-        <v>69.76643371582031</v>
+        <v>69.76641845703125</v>
       </c>
       <c r="G60" t="n">
         <v>57579845</v>
@@ -1826,7 +1826,7 @@
         <v>72.3282470703125</v>
       </c>
       <c r="F61" t="n">
-        <v>68.61678314208984</v>
+        <v>68.61677551269531</v>
       </c>
       <c r="G61" t="n">
         <v>60895507</v>
@@ -1849,7 +1849,7 @@
         <v>71.56488800048828</v>
       </c>
       <c r="F62" t="n">
-        <v>67.89260101318359</v>
+        <v>67.89258575439453</v>
       </c>
       <c r="G62" t="n">
         <v>57443814</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>67.26796722412109</v>
+        <v>67.26797485351562</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1895,7 +1895,7 @@
         <v>69.29389190673828</v>
       </c>
       <c r="F64" t="n">
-        <v>65.73812866210938</v>
+        <v>65.73812103271484</v>
       </c>
       <c r="G64" t="n">
         <v>57903573</v>
@@ -1918,7 +1918,7 @@
         <v>69.78053283691406</v>
       </c>
       <c r="F65" t="n">
-        <v>66.19980621337891</v>
+        <v>66.19979858398438</v>
       </c>
       <c r="G65" t="n">
         <v>70798478</v>
@@ -1998,7 +1998,7 @@
         <v>73.84542083740234</v>
       </c>
       <c r="F69" t="n">
-        <v>70.67162322998047</v>
+        <v>70.67161560058594</v>
       </c>
       <c r="G69" t="n">
         <v>53230225</v>
@@ -2021,7 +2021,7 @@
         <v>73.55915832519531</v>
       </c>
       <c r="F70" t="n">
-        <v>70.39767456054688</v>
+        <v>70.39766693115234</v>
       </c>
       <c r="G70" t="n">
         <v>44291520</v>
@@ -2044,7 +2044,7 @@
         <v>72.81488800048828</v>
       </c>
       <c r="F71" t="n">
-        <v>69.68538665771484</v>
+        <v>69.68537902832031</v>
       </c>
       <c r="G71" t="n">
         <v>52378831</v>
@@ -2067,7 +2067,7 @@
         <v>73.9217529296875</v>
       </c>
       <c r="F72" t="n">
-        <v>70.74467468261719</v>
+        <v>70.74466705322266</v>
       </c>
       <c r="G72" t="n">
         <v>54068103</v>
@@ -2136,7 +2136,7 @@
         <v>74.81870269775391</v>
       </c>
       <c r="F75" t="n">
-        <v>71.60308074951172</v>
+        <v>71.60307312011719</v>
       </c>
       <c r="G75" t="n">
         <v>64866169</v>
@@ -2159,7 +2159,7 @@
         <v>74.70420074462891</v>
       </c>
       <c r="F76" t="n">
-        <v>71.49349212646484</v>
+        <v>71.49349975585938</v>
       </c>
       <c r="G76" t="n">
         <v>55571144</v>
@@ -2205,7 +2205,7 @@
         <v>72.41412353515625</v>
       </c>
       <c r="F78" t="n">
-        <v>69.30183410644531</v>
+        <v>69.30184936523438</v>
       </c>
       <c r="G78" t="n">
         <v>64400962</v>
@@ -2262,7 +2262,7 @@
         <v>76.26999664306641</v>
       </c>
       <c r="F81" t="n">
-        <v>72.99199676513672</v>
+        <v>72.99200439453125</v>
       </c>
       <c r="G81" t="n">
         <v>73875900</v>
@@ -2285,7 +2285,7 @@
         <v>76.61000061035156</v>
       </c>
       <c r="F82" t="n">
-        <v>73.31739044189453</v>
+        <v>73.3173828125</v>
       </c>
       <c r="G82" t="n">
         <v>73189100</v>
@@ -2331,7 +2331,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>75.86843872070312</v>
+        <v>75.86843109130859</v>
       </c>
       <c r="G84" t="n">
         <v>47184700</v>
@@ -2584,7 +2584,7 @@
         <v>71.68000030517578</v>
       </c>
       <c r="F95" t="n">
-        <v>69.18892669677734</v>
+        <v>69.18891906738281</v>
       </c>
       <c r="G95" t="n">
         <v>97229400</v>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.81497955322266</v>
+        <v>79.81497192382812</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -562,7 +562,7 @@
         <v>82.04198455810547</v>
       </c>
       <c r="F5" t="n">
-        <v>75.43685913085938</v>
+        <v>75.43687438964844</v>
       </c>
       <c r="G5" t="n">
         <v>45975656</v>
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.96307373046875</v>
+        <v>74.96308135986328</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -608,7 +608,7 @@
         <v>81.18320465087891</v>
       </c>
       <c r="F7" t="n">
-        <v>74.64723205566406</v>
+        <v>74.647216796875</v>
       </c>
       <c r="G7" t="n">
         <v>81640353</v>
@@ -631,7 +631,7 @@
         <v>78.864501953125</v>
       </c>
       <c r="F8" t="n">
-        <v>72.51519775390625</v>
+        <v>72.51519012451172</v>
       </c>
       <c r="G8" t="n">
         <v>68606796</v>
@@ -700,7 +700,7 @@
         <v>78.43511199951172</v>
       </c>
       <c r="F11" t="n">
-        <v>72.12036895751953</v>
+        <v>72.12037658691406</v>
       </c>
       <c r="G11" t="n">
         <v>85685737</v>
@@ -723,7 +723,7 @@
         <v>73.23473358154297</v>
       </c>
       <c r="F12" t="n">
-        <v>67.33866882324219</v>
+        <v>67.33868408203125</v>
       </c>
       <c r="G12" t="n">
         <v>99266351</v>
@@ -757,7 +757,7 @@
         <v>68.09160614013672</v>
       </c>
       <c r="F14" t="n">
-        <v>63.12685012817383</v>
+        <v>63.1268424987793</v>
       </c>
       <c r="G14" t="n">
         <v>106457307</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>63.45415496826172</v>
+        <v>63.45415115356445</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -803,7 +803,7 @@
         <v>72.75763702392578</v>
       </c>
       <c r="F16" t="n">
-        <v>67.45264434814453</v>
+        <v>67.45265960693359</v>
       </c>
       <c r="G16" t="n">
         <v>65430832</v>
@@ -826,7 +826,7 @@
         <v>78.71183013916016</v>
       </c>
       <c r="F17" t="n">
-        <v>72.97272491455078</v>
+        <v>72.97271728515625</v>
       </c>
       <c r="G17" t="n">
         <v>50330514</v>
@@ -849,7 +849,7 @@
         <v>79.63740539550781</v>
       </c>
       <c r="F18" t="n">
-        <v>73.83079528808594</v>
+        <v>73.830810546875</v>
       </c>
       <c r="G18" t="n">
         <v>55249303</v>
@@ -872,7 +872,7 @@
         <v>77.70037841796875</v>
       </c>
       <c r="F19" t="n">
-        <v>72.03500366210938</v>
+        <v>72.03501892089844</v>
       </c>
       <c r="G19" t="n">
         <v>57325180</v>
@@ -918,7 +918,7 @@
         <v>72.90076446533203</v>
       </c>
       <c r="F21" t="n">
-        <v>67.58534240722656</v>
+        <v>67.58535003662109</v>
       </c>
       <c r="G21" t="n">
         <v>50060654</v>
@@ -964,7 +964,7 @@
         <v>72.87213897705078</v>
       </c>
       <c r="F23" t="n">
-        <v>67.55882263183594</v>
+        <v>67.55881500244141</v>
       </c>
       <c r="G23" t="n">
         <v>49529948</v>
@@ -1010,7 +1010,7 @@
         <v>78.49236297607422</v>
       </c>
       <c r="F25" t="n">
-        <v>72.76925659179688</v>
+        <v>72.76924896240234</v>
       </c>
       <c r="G25" t="n">
         <v>51003959</v>
@@ -1033,7 +1033,7 @@
         <v>72.80534362792969</v>
       </c>
       <c r="F26" t="n">
-        <v>67.49687957763672</v>
+        <v>67.49688720703125</v>
       </c>
       <c r="G26" t="n">
         <v>59188420</v>
@@ -1090,7 +1090,7 @@
         <v>71.74618530273438</v>
       </c>
       <c r="F29" t="n">
-        <v>67.04368591308594</v>
+        <v>67.04367065429688</v>
       </c>
       <c r="G29" t="n">
         <v>46899992</v>
@@ -1136,7 +1136,7 @@
         <v>73.21565246582031</v>
       </c>
       <c r="F31" t="n">
-        <v>68.41682434082031</v>
+        <v>68.41683197021484</v>
       </c>
       <c r="G31" t="n">
         <v>36353548</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>71.21662902832031</v>
+        <v>71.21662139892578</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1182,7 +1182,7 @@
         <v>73.56870269775391</v>
       </c>
       <c r="F33" t="n">
-        <v>68.74674224853516</v>
+        <v>68.74673461914062</v>
       </c>
       <c r="G33" t="n">
         <v>47391502</v>
@@ -1205,7 +1205,7 @@
         <v>76.56488800048828</v>
       </c>
       <c r="F34" t="n">
-        <v>71.54654693603516</v>
+        <v>71.54653167724609</v>
       </c>
       <c r="G34" t="n">
         <v>45294665</v>
@@ -1228,7 +1228,7 @@
         <v>77.30915832519531</v>
       </c>
       <c r="F35" t="n">
-        <v>72.24202728271484</v>
+        <v>72.24203491210938</v>
       </c>
       <c r="G35" t="n">
         <v>38546803</v>
@@ -1297,7 +1297,7 @@
         <v>81.72709655761719</v>
       </c>
       <c r="F38" t="n">
-        <v>76.37039947509766</v>
+        <v>76.37040710449219</v>
       </c>
       <c r="G38" t="n">
         <v>38271388</v>
@@ -1343,7 +1343,7 @@
         <v>80.61068725585938</v>
       </c>
       <c r="F40" t="n">
-        <v>75.32715606689453</v>
+        <v>75.32717132568359</v>
       </c>
       <c r="G40" t="n">
         <v>32036731</v>
@@ -1366,7 +1366,7 @@
         <v>81.87976837158203</v>
       </c>
       <c r="F41" t="n">
-        <v>76.5130615234375</v>
+        <v>76.51306915283203</v>
       </c>
       <c r="G41" t="n">
         <v>50181803</v>
@@ -1389,7 +1389,7 @@
         <v>79.13167572021484</v>
       </c>
       <c r="F42" t="n">
-        <v>74.48290252685547</v>
+        <v>74.48291778564453</v>
       </c>
       <c r="G42" t="n">
         <v>40450704</v>
@@ -1458,7 +1458,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F45" t="n">
-        <v>71.69866943359375</v>
+        <v>71.69865417480469</v>
       </c>
       <c r="G45" t="n">
         <v>43623732</v>
@@ -1481,7 +1481,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F46" t="n">
-        <v>71.69866943359375</v>
+        <v>71.69865417480469</v>
       </c>
       <c r="G46" t="n">
         <v>42834380</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.54926300048828</v>
+        <v>67.54925537109375</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1573,7 +1573,7 @@
         <v>76.76526641845703</v>
       </c>
       <c r="F50" t="n">
-        <v>72.25550842285156</v>
+        <v>72.25552368164062</v>
       </c>
       <c r="G50" t="n">
         <v>43143331</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.59376525878906</v>
+        <v>73.59375</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1665,7 +1665,7 @@
         <v>75.88740539550781</v>
       </c>
       <c r="F54" t="n">
-        <v>71.42922973632812</v>
+        <v>71.42922210693359</v>
       </c>
       <c r="G54" t="n">
         <v>77586584</v>
@@ -1711,7 +1711,7 @@
         <v>78.05343627929688</v>
       </c>
       <c r="F56" t="n">
-        <v>74.04817962646484</v>
+        <v>74.04818725585938</v>
       </c>
       <c r="G56" t="n">
         <v>21956754</v>
@@ -1734,7 +1734,7 @@
         <v>79.22709655761719</v>
       </c>
       <c r="F57" t="n">
-        <v>75.16162109375</v>
+        <v>75.16162872314453</v>
       </c>
       <c r="G57" t="n">
         <v>51991595</v>
@@ -1757,7 +1757,7 @@
         <v>79.56106567382812</v>
       </c>
       <c r="F58" t="n">
-        <v>75.47845458984375</v>
+        <v>75.47846221923828</v>
       </c>
       <c r="G58" t="n">
         <v>55280533</v>
@@ -1803,7 +1803,7 @@
         <v>73.54007720947266</v>
       </c>
       <c r="F60" t="n">
-        <v>69.76642608642578</v>
+        <v>69.76641845703125</v>
       </c>
       <c r="G60" t="n">
         <v>57579845</v>
@@ -1826,7 +1826,7 @@
         <v>72.3282470703125</v>
       </c>
       <c r="F61" t="n">
-        <v>68.61678314208984</v>
+        <v>68.61677551269531</v>
       </c>
       <c r="G61" t="n">
         <v>60895507</v>
@@ -1849,7 +1849,7 @@
         <v>71.56488800048828</v>
       </c>
       <c r="F62" t="n">
-        <v>67.89259338378906</v>
+        <v>67.892578125</v>
       </c>
       <c r="G62" t="n">
         <v>57443814</v>
@@ -1918,7 +1918,7 @@
         <v>69.78053283691406</v>
       </c>
       <c r="F65" t="n">
-        <v>66.19980621337891</v>
+        <v>66.19979858398438</v>
       </c>
       <c r="G65" t="n">
         <v>70798478</v>
@@ -1941,7 +1941,7 @@
         <v>71.18320465087891</v>
       </c>
       <c r="F66" t="n">
-        <v>67.53049468994141</v>
+        <v>67.53050231933594</v>
       </c>
       <c r="G66" t="n">
         <v>67107841</v>
@@ -1975,7 +1975,7 @@
         <v>73.95992279052734</v>
       </c>
       <c r="F68" t="n">
-        <v>70.78120422363281</v>
+        <v>70.78119659423828</v>
       </c>
       <c r="G68" t="n">
         <v>123730442</v>
@@ -2021,7 +2021,7 @@
         <v>73.55915832519531</v>
       </c>
       <c r="F70" t="n">
-        <v>70.39766693115234</v>
+        <v>70.39765930175781</v>
       </c>
       <c r="G70" t="n">
         <v>44291520</v>
@@ -2113,7 +2113,7 @@
         <v>71.08778381347656</v>
       </c>
       <c r="F74" t="n">
-        <v>68.03250885009766</v>
+        <v>68.03251647949219</v>
       </c>
       <c r="G74" t="n">
         <v>77213286</v>
@@ -2136,7 +2136,7 @@
         <v>74.81870269775391</v>
       </c>
       <c r="F75" t="n">
-        <v>71.60308074951172</v>
+        <v>71.60307312011719</v>
       </c>
       <c r="G75" t="n">
         <v>64866169</v>
@@ -2159,7 +2159,7 @@
         <v>74.70420074462891</v>
       </c>
       <c r="F76" t="n">
-        <v>71.49349975585938</v>
+        <v>71.49348449707031</v>
       </c>
       <c r="G76" t="n">
         <v>55571144</v>
@@ -2182,7 +2182,7 @@
         <v>75.55343627929688</v>
       </c>
       <c r="F77" t="n">
-        <v>72.30622863769531</v>
+        <v>72.30623626708984</v>
       </c>
       <c r="G77" t="n">
         <v>47817619</v>
@@ -2228,7 +2228,7 @@
         <v>74.11000061035156</v>
       </c>
       <c r="F79" t="n">
-        <v>70.92483520507812</v>
+        <v>70.92481994628906</v>
       </c>
       <c r="G79" t="n">
         <v>56332267</v>
@@ -2262,7 +2262,7 @@
         <v>76.26999664306641</v>
       </c>
       <c r="F81" t="n">
-        <v>72.99198913574219</v>
+        <v>72.99199676513672</v>
       </c>
       <c r="G81" t="n">
         <v>73875900</v>
@@ -2308,7 +2308,7 @@
         <v>77.19999694824219</v>
       </c>
       <c r="F83" t="n">
-        <v>74.51708221435547</v>
+        <v>74.51708984375</v>
       </c>
       <c r="G83" t="n">
         <v>90264500</v>
@@ -2331,7 +2331,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>75.86843872070312</v>
+        <v>75.86843109130859</v>
       </c>
       <c r="G84" t="n">
         <v>47184700</v>
@@ -2354,7 +2354,7 @@
         <v>77.98999786376953</v>
       </c>
       <c r="F85" t="n">
-        <v>75.27963256835938</v>
+        <v>75.27962493896484</v>
       </c>
       <c r="G85" t="n">
         <v>29402500</v>
@@ -2423,7 +2423,7 @@
         <v>76.87000274658203</v>
       </c>
       <c r="F88" t="n">
-        <v>74.19855499267578</v>
+        <v>74.19856262207031</v>
       </c>
       <c r="G88" t="n">
         <v>48833200</v>
@@ -2446,7 +2446,7 @@
         <v>75.44000244140625</v>
       </c>
       <c r="F89" t="n">
-        <v>72.81825256347656</v>
+        <v>72.81824493408203</v>
       </c>
       <c r="G89" t="n">
         <v>47301500</v>
@@ -2469,7 +2469,7 @@
         <v>76.72000122070312</v>
       </c>
       <c r="F90" t="n">
-        <v>74.05377197265625</v>
+        <v>74.05376434326172</v>
       </c>
       <c r="G90" t="n">
         <v>38949800</v>
@@ -2515,7 +2515,7 @@
         <v>76.30000305175781</v>
       </c>
       <c r="F92" t="n">
-        <v>73.64836883544922</v>
+        <v>73.64837646484375</v>
       </c>
       <c r="G92" t="n">
         <v>34886900</v>
@@ -2538,7 +2538,7 @@
         <v>77.26000213623047</v>
       </c>
       <c r="F93" t="n">
-        <v>74.57500457763672</v>
+        <v>74.57499694824219</v>
       </c>
       <c r="G93" t="n">
         <v>40665600</v>
@@ -2561,7 +2561,7 @@
         <v>73.44999694824219</v>
       </c>
       <c r="F94" t="n">
-        <v>70.89740753173828</v>
+        <v>70.89739990234375</v>
       </c>
       <c r="G94" t="n">
         <v>47935700</v>
@@ -2641,7 +2641,7 @@
         <v>81.40000152587891</v>
       </c>
       <c r="F98" t="n">
-        <v>79.27526092529297</v>
+        <v>79.2752685546875</v>
       </c>
       <c r="G98" t="n">
         <v>155267200</v>
@@ -2664,7 +2664,7 @@
         <v>80.62999725341797</v>
       </c>
       <c r="F99" t="n">
-        <v>78.52536773681641</v>
+        <v>78.52536010742188</v>
       </c>
       <c r="G99" t="n">
         <v>126450700</v>
@@ -2733,7 +2733,7 @@
         <v>88.05000305175781</v>
       </c>
       <c r="F102" t="n">
-        <v>85.75169372558594</v>
+        <v>85.75168609619141</v>
       </c>
       <c r="G102" t="n">
         <v>74717100</v>
@@ -2802,7 +2802,7 @@
         <v>80.69999694824219</v>
       </c>
       <c r="F105" t="n">
-        <v>78.59352874755859</v>
+        <v>78.59353637695312</v>
       </c>
       <c r="G105" t="n">
         <v>55374400</v>
@@ -2871,7 +2871,7 @@
         <v>72.62000274658203</v>
       </c>
       <c r="F108" t="n">
-        <v>70.72444152832031</v>
+        <v>70.72444915771484</v>
       </c>
       <c r="G108" t="n">
         <v>68810100</v>
@@ -2928,7 +2928,7 @@
         <v>75.73000335693359</v>
       </c>
       <c r="F111" t="n">
-        <v>74.45297241210938</v>
+        <v>74.45298004150391</v>
       </c>
       <c r="G111" t="n">
         <v>45917500</v>
@@ -3135,7 +3135,7 @@
         <v>76.31999969482422</v>
       </c>
       <c r="F120" t="n">
-        <v>75.03302764892578</v>
+        <v>75.03302001953125</v>
       </c>
       <c r="G120" t="n">
         <v>53513100</v>
@@ -3181,7 +3181,7 @@
         <v>78.26000213623047</v>
       </c>
       <c r="F122" t="n">
-        <v>76.9403076171875</v>
+        <v>76.94031524658203</v>
       </c>
       <c r="G122" t="n">
         <v>52335200</v>
@@ -3773,6 +3773,52 @@
         <v>40732300</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B149" t="n">
+        <v>86.58000183105469</v>
+      </c>
+      <c r="C149" t="n">
+        <v>88.16999816894531</v>
+      </c>
+      <c r="D149" t="n">
+        <v>85.06999969482422</v>
+      </c>
+      <c r="E149" t="n">
+        <v>87.33999633789062</v>
+      </c>
+      <c r="F149" t="n">
+        <v>87.33999633789062</v>
+      </c>
+      <c r="G149" t="n">
+        <v>29955300</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B150" t="n">
+        <v>87.58999633789062</v>
+      </c>
+      <c r="C150" t="n">
+        <v>88.15499877929688</v>
+      </c>
+      <c r="D150" t="n">
+        <v>87.26999664306641</v>
+      </c>
+      <c r="E150" t="n">
+        <v>87.33999633789062</v>
+      </c>
+      <c r="F150" t="n">
+        <v>87.33999633789062</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7481322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.81496429443359</v>
+        <v>79.81498718261719</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.96307373046875</v>
+        <v>74.96308898925781</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -631,7 +631,7 @@
         <v>78.864501953125</v>
       </c>
       <c r="F8" t="n">
-        <v>72.51519012451172</v>
+        <v>72.51520538330078</v>
       </c>
       <c r="G8" t="n">
         <v>68606796</v>
@@ -654,7 +654,7 @@
         <v>78.56870269775391</v>
       </c>
       <c r="F9" t="n">
-        <v>72.24320220947266</v>
+        <v>72.24320983886719</v>
       </c>
       <c r="G9" t="n">
         <v>41994828</v>
@@ -677,7 +677,7 @@
         <v>73.05343627929688</v>
       </c>
       <c r="F10" t="n">
-        <v>67.17198944091797</v>
+        <v>67.17197418212891</v>
       </c>
       <c r="G10" t="n">
         <v>83826481</v>
@@ -700,7 +700,7 @@
         <v>78.43511199951172</v>
       </c>
       <c r="F11" t="n">
-        <v>72.12036895751953</v>
+        <v>72.120361328125</v>
       </c>
       <c r="G11" t="n">
         <v>85685737</v>
@@ -723,7 +723,7 @@
         <v>73.23473358154297</v>
       </c>
       <c r="F12" t="n">
-        <v>67.33866882324219</v>
+        <v>67.33867645263672</v>
       </c>
       <c r="G12" t="n">
         <v>99266351</v>
@@ -757,7 +757,7 @@
         <v>68.09160614013672</v>
       </c>
       <c r="F14" t="n">
-        <v>63.12684631347656</v>
+        <v>63.12683486938477</v>
       </c>
       <c r="G14" t="n">
         <v>106457307</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>63.45416259765625</v>
+        <v>63.45415496826172</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -826,7 +826,7 @@
         <v>78.71183013916016</v>
       </c>
       <c r="F17" t="n">
-        <v>72.97270965576172</v>
+        <v>72.97271728515625</v>
       </c>
       <c r="G17" t="n">
         <v>50330514</v>
@@ -849,7 +849,7 @@
         <v>79.63740539550781</v>
       </c>
       <c r="F18" t="n">
-        <v>73.83078765869141</v>
+        <v>73.830810546875</v>
       </c>
       <c r="G18" t="n">
         <v>55249303</v>
@@ -895,7 +895,7 @@
         <v>74.11259460449219</v>
       </c>
       <c r="F20" t="n">
-        <v>68.70882415771484</v>
+        <v>68.70881652832031</v>
       </c>
       <c r="G20" t="n">
         <v>67904950</v>
@@ -918,7 +918,7 @@
         <v>72.90076446533203</v>
       </c>
       <c r="F21" t="n">
-        <v>67.58535003662109</v>
+        <v>67.58535766601562</v>
       </c>
       <c r="G21" t="n">
         <v>50060654</v>
@@ -987,7 +987,7 @@
         <v>77.02290344238281</v>
       </c>
       <c r="F24" t="n">
-        <v>71.40693664550781</v>
+        <v>71.40692901611328</v>
       </c>
       <c r="G24" t="n">
         <v>58673014</v>
@@ -1010,7 +1010,7 @@
         <v>78.49236297607422</v>
       </c>
       <c r="F25" t="n">
-        <v>72.76924896240234</v>
+        <v>72.76924133300781</v>
       </c>
       <c r="G25" t="n">
         <v>51003959</v>
@@ -1033,7 +1033,7 @@
         <v>72.80534362792969</v>
       </c>
       <c r="F26" t="n">
-        <v>67.49688720703125</v>
+        <v>67.49687957763672</v>
       </c>
       <c r="G26" t="n">
         <v>59188420</v>
@@ -1067,7 +1067,7 @@
         <v>74.33206176757812</v>
       </c>
       <c r="F28" t="n">
-        <v>69.46007537841797</v>
+        <v>69.46006774902344</v>
       </c>
       <c r="G28" t="n">
         <v>78546553</v>
@@ -1090,7 +1090,7 @@
         <v>71.74618530273438</v>
       </c>
       <c r="F29" t="n">
-        <v>67.04366302490234</v>
+        <v>67.04367828369141</v>
       </c>
       <c r="G29" t="n">
         <v>46899992</v>
@@ -1136,7 +1136,7 @@
         <v>73.21565246582031</v>
       </c>
       <c r="F31" t="n">
-        <v>68.41683197021484</v>
+        <v>68.41683959960938</v>
       </c>
       <c r="G31" t="n">
         <v>36353548</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>71.21663665771484</v>
+        <v>71.21662139892578</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1182,7 +1182,7 @@
         <v>73.56870269775391</v>
       </c>
       <c r="F33" t="n">
-        <v>68.74673461914062</v>
+        <v>68.74674224853516</v>
       </c>
       <c r="G33" t="n">
         <v>47391502</v>
@@ -1228,7 +1228,7 @@
         <v>77.30915832519531</v>
       </c>
       <c r="F35" t="n">
-        <v>72.24203491210938</v>
+        <v>72.24204254150391</v>
       </c>
       <c r="G35" t="n">
         <v>38546803</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>74.43550872802734</v>
+        <v>74.43550109863281</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1297,7 +1297,7 @@
         <v>81.72709655761719</v>
       </c>
       <c r="F38" t="n">
-        <v>76.37039947509766</v>
+        <v>76.37041473388672</v>
       </c>
       <c r="G38" t="n">
         <v>38271388</v>
@@ -1320,7 +1320,7 @@
         <v>81.33587646484375</v>
       </c>
       <c r="F39" t="n">
-        <v>76.00482940673828</v>
+        <v>76.00482177734375</v>
       </c>
       <c r="G39" t="n">
         <v>48641663</v>
@@ -1343,7 +1343,7 @@
         <v>80.61068725585938</v>
       </c>
       <c r="F40" t="n">
-        <v>75.32717132568359</v>
+        <v>75.32716369628906</v>
       </c>
       <c r="G40" t="n">
         <v>32036731</v>
@@ -1366,7 +1366,7 @@
         <v>81.87976837158203</v>
       </c>
       <c r="F41" t="n">
-        <v>76.51306915283203</v>
+        <v>76.5130615234375</v>
       </c>
       <c r="G41" t="n">
         <v>50181803</v>
@@ -1389,7 +1389,7 @@
         <v>79.13167572021484</v>
       </c>
       <c r="F42" t="n">
-        <v>74.48291015625</v>
+        <v>74.48292541503906</v>
       </c>
       <c r="G42" t="n">
         <v>40450704</v>
@@ -1435,7 +1435,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F44" t="n">
-        <v>72.1746826171875</v>
+        <v>72.17467498779297</v>
       </c>
       <c r="G44" t="n">
         <v>44098896</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.54924774169922</v>
+        <v>67.54925537109375</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1527,7 +1527,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F48" t="n">
-        <v>72.1746826171875</v>
+        <v>72.17467498779297</v>
       </c>
       <c r="G48" t="n">
         <v>46793200</v>
@@ -1573,7 +1573,7 @@
         <v>76.76526641845703</v>
       </c>
       <c r="F50" t="n">
-        <v>72.25551605224609</v>
+        <v>72.25552368164062</v>
       </c>
       <c r="G50" t="n">
         <v>43143331</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.59374237060547</v>
+        <v>73.59375</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1642,7 +1642,7 @@
         <v>79.16030120849609</v>
       </c>
       <c r="F53" t="n">
-        <v>74.50985717773438</v>
+        <v>74.50984954833984</v>
       </c>
       <c r="G53" t="n">
         <v>39990842</v>
@@ -1734,7 +1734,7 @@
         <v>79.22709655761719</v>
       </c>
       <c r="F57" t="n">
-        <v>75.16162109375</v>
+        <v>75.16162872314453</v>
       </c>
       <c r="G57" t="n">
         <v>51991595</v>
@@ -1757,7 +1757,7 @@
         <v>79.56106567382812</v>
       </c>
       <c r="F58" t="n">
-        <v>75.47845458984375</v>
+        <v>75.47846221923828</v>
       </c>
       <c r="G58" t="n">
         <v>55280533</v>
@@ -1803,7 +1803,7 @@
         <v>73.54007720947266</v>
       </c>
       <c r="F60" t="n">
-        <v>69.76641845703125</v>
+        <v>69.76642608642578</v>
       </c>
       <c r="G60" t="n">
         <v>57579845</v>
@@ -1826,7 +1826,7 @@
         <v>72.3282470703125</v>
       </c>
       <c r="F61" t="n">
-        <v>68.61677551269531</v>
+        <v>68.61679077148438</v>
       </c>
       <c r="G61" t="n">
         <v>60895507</v>
@@ -1849,7 +1849,7 @@
         <v>71.56488800048828</v>
       </c>
       <c r="F62" t="n">
-        <v>67.89258575439453</v>
+        <v>67.89259338378906</v>
       </c>
       <c r="G62" t="n">
         <v>57443814</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>67.26797485351562</v>
+        <v>67.26798248291016</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1895,7 +1895,7 @@
         <v>69.29389190673828</v>
       </c>
       <c r="F64" t="n">
-        <v>65.73812103271484</v>
+        <v>65.73812866210938</v>
       </c>
       <c r="G64" t="n">
         <v>57903573</v>
@@ -1941,7 +1941,7 @@
         <v>71.18320465087891</v>
       </c>
       <c r="F66" t="n">
-        <v>67.53050231933594</v>
+        <v>67.53049468994141</v>
       </c>
       <c r="G66" t="n">
         <v>67107841</v>
@@ -2044,7 +2044,7 @@
         <v>72.81488800048828</v>
       </c>
       <c r="F71" t="n">
-        <v>69.68537902832031</v>
+        <v>69.68538665771484</v>
       </c>
       <c r="G71" t="n">
         <v>52378831</v>
@@ -2090,7 +2090,7 @@
         <v>74.31298065185547</v>
       </c>
       <c r="F73" t="n">
-        <v>71.11908721923828</v>
+        <v>71.11907958984375</v>
       </c>
       <c r="G73" t="n">
         <v>53292896</v>
@@ -2113,7 +2113,7 @@
         <v>71.08778381347656</v>
       </c>
       <c r="F74" t="n">
-        <v>68.03250885009766</v>
+        <v>68.03250122070312</v>
       </c>
       <c r="G74" t="n">
         <v>77213286</v>
@@ -2182,7 +2182,7 @@
         <v>75.55343627929688</v>
       </c>
       <c r="F77" t="n">
-        <v>72.30622863769531</v>
+        <v>72.30623626708984</v>
       </c>
       <c r="G77" t="n">
         <v>47817619</v>
@@ -2205,7 +2205,7 @@
         <v>72.41412353515625</v>
       </c>
       <c r="F78" t="n">
-        <v>69.30184936523438</v>
+        <v>69.30183410644531</v>
       </c>
       <c r="G78" t="n">
         <v>64400962</v>
@@ -2262,7 +2262,7 @@
         <v>76.26999664306641</v>
       </c>
       <c r="F81" t="n">
-        <v>72.99200439453125</v>
+        <v>72.99198913574219</v>
       </c>
       <c r="G81" t="n">
         <v>73875900</v>
@@ -2285,7 +2285,7 @@
         <v>76.61000061035156</v>
       </c>
       <c r="F82" t="n">
-        <v>73.3173828125</v>
+        <v>73.31739044189453</v>
       </c>
       <c r="G82" t="n">
         <v>73189100</v>
@@ -2331,7 +2331,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>75.86843109130859</v>
+        <v>75.86843872070312</v>
       </c>
       <c r="G84" t="n">
         <v>47184700</v>
@@ -2354,7 +2354,7 @@
         <v>77.98999786376953</v>
       </c>
       <c r="F85" t="n">
-        <v>75.27963256835938</v>
+        <v>75.27962493896484</v>
       </c>
       <c r="G85" t="n">
         <v>29402500</v>
@@ -2423,7 +2423,7 @@
         <v>76.87000274658203</v>
       </c>
       <c r="F88" t="n">
-        <v>74.19855499267578</v>
+        <v>74.19856262207031</v>
       </c>
       <c r="G88" t="n">
         <v>48833200</v>
@@ -2446,7 +2446,7 @@
         <v>75.44000244140625</v>
       </c>
       <c r="F89" t="n">
-        <v>72.81826019287109</v>
+        <v>72.81824493408203</v>
       </c>
       <c r="G89" t="n">
         <v>47301500</v>
@@ -2469,7 +2469,7 @@
         <v>76.72000122070312</v>
       </c>
       <c r="F90" t="n">
-        <v>74.05377197265625</v>
+        <v>74.05376434326172</v>
       </c>
       <c r="G90" t="n">
         <v>38949800</v>
@@ -2492,7 +2492,7 @@
         <v>78.68000030517578</v>
       </c>
       <c r="F91" t="n">
-        <v>75.94565582275391</v>
+        <v>75.94564819335938</v>
       </c>
       <c r="G91" t="n">
         <v>42288700</v>
@@ -2584,7 +2584,7 @@
         <v>71.68000030517578</v>
       </c>
       <c r="F95" t="n">
-        <v>69.18891906738281</v>
+        <v>69.18892669677734</v>
       </c>
       <c r="G95" t="n">
         <v>97229400</v>
@@ -2664,7 +2664,7 @@
         <v>80.62999725341797</v>
       </c>
       <c r="F99" t="n">
-        <v>78.52536773681641</v>
+        <v>78.52536010742188</v>
       </c>
       <c r="G99" t="n">
         <v>126450700</v>
@@ -2733,7 +2733,7 @@
         <v>88.05000305175781</v>
       </c>
       <c r="F102" t="n">
-        <v>85.75169372558594</v>
+        <v>85.75168609619141</v>
       </c>
       <c r="G102" t="n">
         <v>74717100</v>
@@ -2756,7 +2756,7 @@
         <v>81.61000061035156</v>
       </c>
       <c r="F103" t="n">
-        <v>79.47978210449219</v>
+        <v>79.47978973388672</v>
       </c>
       <c r="G103" t="n">
         <v>93642900</v>
@@ -2802,7 +2802,7 @@
         <v>80.69999694824219</v>
       </c>
       <c r="F105" t="n">
-        <v>78.59352874755859</v>
+        <v>78.59353637695312</v>
       </c>
       <c r="G105" t="n">
         <v>55374400</v>
@@ -2825,7 +2825,7 @@
         <v>79.16000366210938</v>
       </c>
       <c r="F106" t="n">
-        <v>77.09374237060547</v>
+        <v>77.09373474121094</v>
       </c>
       <c r="G106" t="n">
         <v>49570000</v>
@@ -2848,7 +2848,7 @@
         <v>73.33999633789062</v>
       </c>
       <c r="F107" t="n">
-        <v>71.42564392089844</v>
+        <v>71.42565155029297</v>
       </c>
       <c r="G107" t="n">
         <v>115662400</v>
@@ -2894,7 +2894,7 @@
         <v>75.69000244140625</v>
       </c>
       <c r="F109" t="n">
-        <v>73.71430969238281</v>
+        <v>73.71431732177734</v>
       </c>
       <c r="G109" t="n">
         <v>95341500</v>
@@ -3655,7 +3655,7 @@
         <v>89.33999633789062</v>
       </c>
       <c r="G143" t="n">
-        <v>48591900</v>
+        <v>48593300</v>
       </c>
     </row>
     <row r="144">
@@ -3678,7 +3678,7 @@
         <v>87.41000366210938</v>
       </c>
       <c r="G144" t="n">
-        <v>39767400</v>
+        <v>39768900</v>
       </c>
     </row>
     <row r="145">
@@ -3712,19 +3712,88 @@
         <v>90.83000183105469</v>
       </c>
       <c r="C146" t="n">
-        <v>90.90000152587891</v>
+        <v>93.01999664306641</v>
       </c>
       <c r="D146" t="n">
         <v>89.87000274658203</v>
       </c>
       <c r="E146" t="n">
-        <v>90.58999633789062</v>
+        <v>92.08000183105469</v>
       </c>
       <c r="F146" t="n">
-        <v>90.58999633789062</v>
+        <v>92.08000183105469</v>
       </c>
       <c r="G146" t="n">
-        <v>12001000</v>
+        <v>33427300</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B147" t="n">
+        <v>91.80999755859375</v>
+      </c>
+      <c r="C147" t="n">
+        <v>92.22000122070312</v>
+      </c>
+      <c r="D147" t="n">
+        <v>89.06999969482422</v>
+      </c>
+      <c r="E147" t="n">
+        <v>89.26000213623047</v>
+      </c>
+      <c r="F147" t="n">
+        <v>89.26000213623047</v>
+      </c>
+      <c r="G147" t="n">
+        <v>28993800</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B148" t="n">
+        <v>88.83000183105469</v>
+      </c>
+      <c r="C148" t="n">
+        <v>89</v>
+      </c>
+      <c r="D148" t="n">
+        <v>85.16000366210938</v>
+      </c>
+      <c r="E148" t="n">
+        <v>86.23000335693359</v>
+      </c>
+      <c r="F148" t="n">
+        <v>86.23000335693359</v>
+      </c>
+      <c r="G148" t="n">
+        <v>40732300</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B149" t="n">
+        <v>86.58000183105469</v>
+      </c>
+      <c r="C149" t="n">
+        <v>88.16999816894531</v>
+      </c>
+      <c r="D149" t="n">
+        <v>85.06999969482422</v>
+      </c>
+      <c r="E149" t="n">
+        <v>87.33999633789062</v>
+      </c>
+      <c r="F149" t="n">
+        <v>87.33999633789062</v>
+      </c>
+      <c r="G149" t="n">
+        <v>29955300</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -493,7 +493,7 @@
         <v>87.07061004638672</v>
       </c>
       <c r="F2" t="n">
-        <v>80.06063079833984</v>
+        <v>80.06063842773438</v>
       </c>
       <c r="G2" t="n">
         <v>18865886</v>
@@ -516,7 +516,7 @@
         <v>85.42938995361328</v>
       </c>
       <c r="F3" t="n">
-        <v>78.55155181884766</v>
+        <v>78.55155944824219</v>
       </c>
       <c r="G3" t="n">
         <v>49515798</v>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.81498718261719</v>
+        <v>79.81496429443359</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.96308898925781</v>
+        <v>74.96307373046875</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -608,7 +608,7 @@
         <v>81.18320465087891</v>
       </c>
       <c r="F7" t="n">
-        <v>74.64722442626953</v>
+        <v>74.64720916748047</v>
       </c>
       <c r="G7" t="n">
         <v>81640353</v>
@@ -631,7 +631,7 @@
         <v>78.864501953125</v>
       </c>
       <c r="F8" t="n">
-        <v>72.51520538330078</v>
+        <v>72.51519012451172</v>
       </c>
       <c r="G8" t="n">
         <v>68606796</v>
@@ -677,7 +677,7 @@
         <v>73.05343627929688</v>
       </c>
       <c r="F10" t="n">
-        <v>67.17197418212891</v>
+        <v>67.17198181152344</v>
       </c>
       <c r="G10" t="n">
         <v>83826481</v>
@@ -700,7 +700,7 @@
         <v>78.43511199951172</v>
       </c>
       <c r="F11" t="n">
-        <v>72.120361328125</v>
+        <v>72.12037658691406</v>
       </c>
       <c r="G11" t="n">
         <v>85685737</v>
@@ -757,7 +757,7 @@
         <v>68.09160614013672</v>
       </c>
       <c r="F14" t="n">
-        <v>63.12683486938477</v>
+        <v>63.12685012817383</v>
       </c>
       <c r="G14" t="n">
         <v>106457307</v>
@@ -803,7 +803,7 @@
         <v>72.75763702392578</v>
       </c>
       <c r="F16" t="n">
-        <v>67.45265197753906</v>
+        <v>67.45265960693359</v>
       </c>
       <c r="G16" t="n">
         <v>65430832</v>
@@ -826,7 +826,7 @@
         <v>78.71183013916016</v>
       </c>
       <c r="F17" t="n">
-        <v>72.97271728515625</v>
+        <v>72.97270965576172</v>
       </c>
       <c r="G17" t="n">
         <v>50330514</v>
@@ -849,7 +849,7 @@
         <v>79.63740539550781</v>
       </c>
       <c r="F18" t="n">
-        <v>73.830810546875</v>
+        <v>73.83080291748047</v>
       </c>
       <c r="G18" t="n">
         <v>55249303</v>
@@ -872,7 +872,7 @@
         <v>77.70037841796875</v>
       </c>
       <c r="F19" t="n">
-        <v>72.03500366210938</v>
+        <v>72.03501129150391</v>
       </c>
       <c r="G19" t="n">
         <v>57325180</v>
@@ -895,7 +895,7 @@
         <v>74.11259460449219</v>
       </c>
       <c r="F20" t="n">
-        <v>68.70881652832031</v>
+        <v>68.70882415771484</v>
       </c>
       <c r="G20" t="n">
         <v>67904950</v>
@@ -918,7 +918,7 @@
         <v>72.90076446533203</v>
       </c>
       <c r="F21" t="n">
-        <v>67.58535766601562</v>
+        <v>67.58534240722656</v>
       </c>
       <c r="G21" t="n">
         <v>50060654</v>
@@ -987,7 +987,7 @@
         <v>77.02290344238281</v>
       </c>
       <c r="F24" t="n">
-        <v>71.40692901611328</v>
+        <v>71.40693664550781</v>
       </c>
       <c r="G24" t="n">
         <v>58673014</v>
@@ -1136,7 +1136,7 @@
         <v>73.21565246582031</v>
       </c>
       <c r="F31" t="n">
-        <v>68.41683959960938</v>
+        <v>68.41683197021484</v>
       </c>
       <c r="G31" t="n">
         <v>36353548</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>71.21662139892578</v>
+        <v>71.21662902832031</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1228,7 +1228,7 @@
         <v>77.30915832519531</v>
       </c>
       <c r="F35" t="n">
-        <v>72.24204254150391</v>
+        <v>72.24203491210938</v>
       </c>
       <c r="G35" t="n">
         <v>38546803</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>74.43550109863281</v>
+        <v>74.43550872802734</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1274,7 +1274,7 @@
         <v>81.08778381347656</v>
       </c>
       <c r="F37" t="n">
-        <v>75.77300262451172</v>
+        <v>75.77299499511719</v>
       </c>
       <c r="G37" t="n">
         <v>35482870</v>
@@ -1297,7 +1297,7 @@
         <v>81.72709655761719</v>
       </c>
       <c r="F38" t="n">
-        <v>76.37041473388672</v>
+        <v>76.37040710449219</v>
       </c>
       <c r="G38" t="n">
         <v>38271388</v>
@@ -1366,7 +1366,7 @@
         <v>81.87976837158203</v>
       </c>
       <c r="F41" t="n">
-        <v>76.5130615234375</v>
+        <v>76.51306915283203</v>
       </c>
       <c r="G41" t="n">
         <v>50181803</v>
@@ -1389,7 +1389,7 @@
         <v>79.13167572021484</v>
       </c>
       <c r="F42" t="n">
-        <v>74.48292541503906</v>
+        <v>74.48291015625</v>
       </c>
       <c r="G42" t="n">
         <v>40450704</v>
@@ -1435,7 +1435,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F44" t="n">
-        <v>72.17467498779297</v>
+        <v>72.17469787597656</v>
       </c>
       <c r="G44" t="n">
         <v>44098896</v>
@@ -1458,7 +1458,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F45" t="n">
-        <v>71.69866180419922</v>
+        <v>71.69866943359375</v>
       </c>
       <c r="G45" t="n">
         <v>43623732</v>
@@ -1481,7 +1481,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F46" t="n">
-        <v>71.69866180419922</v>
+        <v>71.69866943359375</v>
       </c>
       <c r="G46" t="n">
         <v>42834380</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.54925537109375</v>
+        <v>67.54926300048828</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1527,7 +1527,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F48" t="n">
-        <v>72.17467498779297</v>
+        <v>72.17469787597656</v>
       </c>
       <c r="G48" t="n">
         <v>46793200</v>
@@ -1573,7 +1573,7 @@
         <v>76.76526641845703</v>
       </c>
       <c r="F50" t="n">
-        <v>72.25552368164062</v>
+        <v>72.25551605224609</v>
       </c>
       <c r="G50" t="n">
         <v>43143331</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.59375</v>
+        <v>73.59374237060547</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1665,7 +1665,7 @@
         <v>75.88740539550781</v>
       </c>
       <c r="F54" t="n">
-        <v>71.42922973632812</v>
+        <v>71.42923736572266</v>
       </c>
       <c r="G54" t="n">
         <v>77586584</v>
@@ -1711,7 +1711,7 @@
         <v>78.05343627929688</v>
       </c>
       <c r="F56" t="n">
-        <v>74.04818725585938</v>
+        <v>74.04817962646484</v>
       </c>
       <c r="G56" t="n">
         <v>21956754</v>
@@ -1734,7 +1734,7 @@
         <v>79.22709655761719</v>
       </c>
       <c r="F57" t="n">
-        <v>75.16162872314453</v>
+        <v>75.16162109375</v>
       </c>
       <c r="G57" t="n">
         <v>51991595</v>
@@ -1757,7 +1757,7 @@
         <v>79.56106567382812</v>
       </c>
       <c r="F58" t="n">
-        <v>75.47846221923828</v>
+        <v>75.47845458984375</v>
       </c>
       <c r="G58" t="n">
         <v>55280533</v>
@@ -1780,7 +1780,7 @@
         <v>77.27098846435547</v>
       </c>
       <c r="F59" t="n">
-        <v>73.30588531494141</v>
+        <v>73.30590057373047</v>
       </c>
       <c r="G59" t="n">
         <v>38045859</v>
@@ -1826,7 +1826,7 @@
         <v>72.3282470703125</v>
       </c>
       <c r="F61" t="n">
-        <v>68.61679077148438</v>
+        <v>68.61678314208984</v>
       </c>
       <c r="G61" t="n">
         <v>60895507</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>67.26798248291016</v>
+        <v>67.26796722412109</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1918,7 +1918,7 @@
         <v>69.78053283691406</v>
       </c>
       <c r="F65" t="n">
-        <v>66.19979858398438</v>
+        <v>66.19980621337891</v>
       </c>
       <c r="G65" t="n">
         <v>70798478</v>
@@ -1941,7 +1941,7 @@
         <v>71.18320465087891</v>
       </c>
       <c r="F66" t="n">
-        <v>67.53049468994141</v>
+        <v>67.53048706054688</v>
       </c>
       <c r="G66" t="n">
         <v>67107841</v>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>87.07061004638672</v>
       </c>
       <c r="F2" t="n">
-        <v>80.06063842773438</v>
+        <v>79.42037200927734</v>
       </c>
       <c r="G2" t="n">
         <v>18865886</v>
@@ -516,7 +516,7 @@
         <v>85.42938995361328</v>
       </c>
       <c r="F3" t="n">
-        <v>78.55155944824219</v>
+        <v>77.92335510253906</v>
       </c>
       <c r="G3" t="n">
         <v>49515798</v>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.81496429443359</v>
+        <v>79.17667388916016</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -562,7 +562,7 @@
         <v>82.04198455810547</v>
       </c>
       <c r="F5" t="n">
-        <v>75.43686676025391</v>
+        <v>74.83356475830078</v>
       </c>
       <c r="G5" t="n">
         <v>45975656</v>
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.96307373046875</v>
+        <v>74.36358642578125</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -608,7 +608,7 @@
         <v>81.18320465087891</v>
       </c>
       <c r="F7" t="n">
-        <v>74.64720916748047</v>
+        <v>74.05024719238281</v>
       </c>
       <c r="G7" t="n">
         <v>81640353</v>
@@ -631,7 +631,7 @@
         <v>78.864501953125</v>
       </c>
       <c r="F8" t="n">
-        <v>72.51519012451172</v>
+        <v>71.93527984619141</v>
       </c>
       <c r="G8" t="n">
         <v>68606796</v>
@@ -654,7 +654,7 @@
         <v>78.56870269775391</v>
       </c>
       <c r="F9" t="n">
-        <v>72.24320983886719</v>
+        <v>71.66546630859375</v>
       </c>
       <c r="G9" t="n">
         <v>41994828</v>
@@ -677,7 +677,7 @@
         <v>73.05343627929688</v>
       </c>
       <c r="F10" t="n">
-        <v>67.17198181152344</v>
+        <v>66.63479614257812</v>
       </c>
       <c r="G10" t="n">
         <v>83826481</v>
@@ -700,7 +700,7 @@
         <v>78.43511199951172</v>
       </c>
       <c r="F11" t="n">
-        <v>72.12037658691406</v>
+        <v>71.54361724853516</v>
       </c>
       <c r="G11" t="n">
         <v>85685737</v>
@@ -723,7 +723,7 @@
         <v>73.23473358154297</v>
       </c>
       <c r="F12" t="n">
-        <v>67.33867645263672</v>
+        <v>66.80014801025391</v>
       </c>
       <c r="G12" t="n">
         <v>99266351</v>
@@ -757,7 +757,7 @@
         <v>68.09160614013672</v>
       </c>
       <c r="F14" t="n">
-        <v>63.12685012817383</v>
+        <v>62.62200164794922</v>
       </c>
       <c r="G14" t="n">
         <v>106457307</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>63.45415496826172</v>
+        <v>62.94668960571289</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -803,7 +803,7 @@
         <v>72.75763702392578</v>
       </c>
       <c r="F16" t="n">
-        <v>67.45265960693359</v>
+        <v>66.91323089599609</v>
       </c>
       <c r="G16" t="n">
         <v>65430832</v>
@@ -826,7 +826,7 @@
         <v>78.71183013916016</v>
       </c>
       <c r="F17" t="n">
-        <v>72.97270965576172</v>
+        <v>72.38914489746094</v>
       </c>
       <c r="G17" t="n">
         <v>50330514</v>
@@ -849,7 +849,7 @@
         <v>79.63740539550781</v>
       </c>
       <c r="F18" t="n">
-        <v>73.83080291748047</v>
+        <v>73.24036407470703</v>
       </c>
       <c r="G18" t="n">
         <v>55249303</v>
@@ -872,7 +872,7 @@
         <v>77.70037841796875</v>
       </c>
       <c r="F19" t="n">
-        <v>72.03501129150391</v>
+        <v>71.45892333984375</v>
       </c>
       <c r="G19" t="n">
         <v>57325180</v>
@@ -895,7 +895,7 @@
         <v>74.11259460449219</v>
       </c>
       <c r="F20" t="n">
-        <v>68.70882415771484</v>
+        <v>68.15934753417969</v>
       </c>
       <c r="G20" t="n">
         <v>67904950</v>
@@ -918,7 +918,7 @@
         <v>72.90076446533203</v>
       </c>
       <c r="F21" t="n">
-        <v>67.58534240722656</v>
+        <v>67.04486846923828</v>
       </c>
       <c r="G21" t="n">
         <v>50060654</v>
@@ -941,7 +941,7 @@
         <v>76.12595367431641</v>
       </c>
       <c r="F22" t="n">
-        <v>70.57537841796875</v>
+        <v>70.01097869873047</v>
       </c>
       <c r="G22" t="n">
         <v>51877153</v>
@@ -964,7 +964,7 @@
         <v>72.87213897705078</v>
       </c>
       <c r="F23" t="n">
-        <v>67.55881500244141</v>
+        <v>67.01853179931641</v>
       </c>
       <c r="G23" t="n">
         <v>49529948</v>
@@ -987,7 +987,7 @@
         <v>77.02290344238281</v>
       </c>
       <c r="F24" t="n">
-        <v>71.40693664550781</v>
+        <v>70.83586883544922</v>
       </c>
       <c r="G24" t="n">
         <v>58673014</v>
@@ -1010,7 +1010,7 @@
         <v>78.49236297607422</v>
       </c>
       <c r="F25" t="n">
-        <v>72.76924133300781</v>
+        <v>72.18729400634766</v>
       </c>
       <c r="G25" t="n">
         <v>51003959</v>
@@ -1033,7 +1033,7 @@
         <v>72.80534362792969</v>
       </c>
       <c r="F26" t="n">
-        <v>67.49687957763672</v>
+        <v>66.95709228515625</v>
       </c>
       <c r="G26" t="n">
         <v>59188420</v>
@@ -1067,7 +1067,7 @@
         <v>74.33206176757812</v>
       </c>
       <c r="F28" t="n">
-        <v>69.46006774902344</v>
+        <v>68.90457916259766</v>
       </c>
       <c r="G28" t="n">
         <v>78546553</v>
@@ -1090,7 +1090,7 @@
         <v>71.74618530273438</v>
       </c>
       <c r="F29" t="n">
-        <v>67.04367828369141</v>
+        <v>66.50751495361328</v>
       </c>
       <c r="G29" t="n">
         <v>46899992</v>
@@ -1113,7 +1113,7 @@
         <v>75.1717529296875</v>
       </c>
       <c r="F30" t="n">
-        <v>70.24472045898438</v>
+        <v>69.68296051025391</v>
       </c>
       <c r="G30" t="n">
         <v>33948388</v>
@@ -1136,7 +1136,7 @@
         <v>73.21565246582031</v>
       </c>
       <c r="F31" t="n">
-        <v>68.41683197021484</v>
+        <v>67.86967468261719</v>
       </c>
       <c r="G31" t="n">
         <v>36353548</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>71.21662902832031</v>
+        <v>70.6470947265625</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1182,7 +1182,7 @@
         <v>73.56870269775391</v>
       </c>
       <c r="F33" t="n">
-        <v>68.74674224853516</v>
+        <v>68.19696044921875</v>
       </c>
       <c r="G33" t="n">
         <v>47391502</v>
@@ -1205,7 +1205,7 @@
         <v>76.56488800048828</v>
       </c>
       <c r="F34" t="n">
-        <v>71.54654693603516</v>
+        <v>70.97437286376953</v>
       </c>
       <c r="G34" t="n">
         <v>45294665</v>
@@ -1228,7 +1228,7 @@
         <v>77.30915832519531</v>
       </c>
       <c r="F35" t="n">
-        <v>72.24203491210938</v>
+        <v>71.664306640625</v>
       </c>
       <c r="G35" t="n">
         <v>38546803</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>74.43550872802734</v>
+        <v>73.84024047851562</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1274,7 +1274,7 @@
         <v>81.08778381347656</v>
       </c>
       <c r="F37" t="n">
-        <v>75.77299499511719</v>
+        <v>75.16700744628906</v>
       </c>
       <c r="G37" t="n">
         <v>35482870</v>
@@ -1297,7 +1297,7 @@
         <v>81.72709655761719</v>
       </c>
       <c r="F38" t="n">
-        <v>76.37040710449219</v>
+        <v>75.75965118408203</v>
       </c>
       <c r="G38" t="n">
         <v>38271388</v>
@@ -1320,7 +1320,7 @@
         <v>81.33587646484375</v>
       </c>
       <c r="F39" t="n">
-        <v>76.00482177734375</v>
+        <v>75.39700317382812</v>
       </c>
       <c r="G39" t="n">
         <v>48641663</v>
@@ -1343,7 +1343,7 @@
         <v>80.61068725585938</v>
       </c>
       <c r="F40" t="n">
-        <v>75.32716369628906</v>
+        <v>74.72475433349609</v>
       </c>
       <c r="G40" t="n">
         <v>32036731</v>
@@ -1366,7 +1366,7 @@
         <v>81.87976837158203</v>
       </c>
       <c r="F41" t="n">
-        <v>76.51306915283203</v>
+        <v>75.90118408203125</v>
       </c>
       <c r="G41" t="n">
         <v>50181803</v>
@@ -1389,7 +1389,7 @@
         <v>79.13167572021484</v>
       </c>
       <c r="F42" t="n">
-        <v>74.48291015625</v>
+        <v>73.88725280761719</v>
       </c>
       <c r="G42" t="n">
         <v>40450704</v>
@@ -1412,7 +1412,7 @@
         <v>77.09923553466797</v>
       </c>
       <c r="F43" t="n">
-        <v>72.56986236572266</v>
+        <v>71.98952484130859</v>
       </c>
       <c r="G43" t="n">
         <v>38125403</v>
@@ -1435,7 +1435,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F44" t="n">
-        <v>72.17469787597656</v>
+        <v>71.59748077392578</v>
       </c>
       <c r="G44" t="n">
         <v>44098896</v>
@@ -1458,7 +1458,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F45" t="n">
-        <v>71.69866943359375</v>
+        <v>71.12528991699219</v>
       </c>
       <c r="G45" t="n">
         <v>43623732</v>
@@ -1481,7 +1481,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F46" t="n">
-        <v>71.69866943359375</v>
+        <v>71.12528991699219</v>
       </c>
       <c r="G46" t="n">
         <v>42834380</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.54926300048828</v>
+        <v>67.00905609130859</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1527,7 +1527,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F48" t="n">
-        <v>72.17469787597656</v>
+        <v>71.59748077392578</v>
       </c>
       <c r="G48" t="n">
         <v>46793200</v>
@@ -1550,7 +1550,7 @@
         <v>77.37595367431641</v>
       </c>
       <c r="F49" t="n">
-        <v>72.83032989501953</v>
+        <v>72.24789428710938</v>
       </c>
       <c r="G49" t="n">
         <v>40678643</v>
@@ -1573,7 +1573,7 @@
         <v>76.76526641845703</v>
       </c>
       <c r="F50" t="n">
-        <v>72.25551605224609</v>
+        <v>71.67767333984375</v>
       </c>
       <c r="G50" t="n">
         <v>43143331</v>
@@ -1596,7 +1596,7 @@
         <v>76.20229339599609</v>
       </c>
       <c r="F51" t="n">
-        <v>71.72562408447266</v>
+        <v>71.15201568603516</v>
       </c>
       <c r="G51" t="n">
         <v>33957506</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.59374237060547</v>
+        <v>73.00520324707031</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1642,7 +1642,7 @@
         <v>79.16030120849609</v>
       </c>
       <c r="F53" t="n">
-        <v>74.50984954833984</v>
+        <v>73.91397857666016</v>
       </c>
       <c r="G53" t="n">
         <v>39990842</v>
@@ -1665,7 +1665,7 @@
         <v>75.88740539550781</v>
       </c>
       <c r="F54" t="n">
-        <v>71.42923736572266</v>
+        <v>70.85799407958984</v>
       </c>
       <c r="G54" t="n">
         <v>77586584</v>
@@ -1688,7 +1688,7 @@
         <v>76.46946716308594</v>
       </c>
       <c r="F55" t="n">
-        <v>72.54549407958984</v>
+        <v>71.96533203125</v>
       </c>
       <c r="G55" t="n">
         <v>29206712</v>
@@ -1711,7 +1711,7 @@
         <v>78.05343627929688</v>
       </c>
       <c r="F56" t="n">
-        <v>74.04817962646484</v>
+        <v>73.45600128173828</v>
       </c>
       <c r="G56" t="n">
         <v>21956754</v>
@@ -1734,7 +1734,7 @@
         <v>79.22709655761719</v>
       </c>
       <c r="F57" t="n">
-        <v>75.16162109375</v>
+        <v>74.56053924560547</v>
       </c>
       <c r="G57" t="n">
         <v>51991595</v>
@@ -1757,7 +1757,7 @@
         <v>79.56106567382812</v>
       </c>
       <c r="F58" t="n">
-        <v>75.47845458984375</v>
+        <v>74.87483978271484</v>
       </c>
       <c r="G58" t="n">
         <v>55280533</v>
@@ -1780,7 +1780,7 @@
         <v>77.27098846435547</v>
       </c>
       <c r="F59" t="n">
-        <v>73.30590057373047</v>
+        <v>72.71964263916016</v>
       </c>
       <c r="G59" t="n">
         <v>38045859</v>
@@ -1803,7 +1803,7 @@
         <v>73.54007720947266</v>
       </c>
       <c r="F60" t="n">
-        <v>69.76642608642578</v>
+        <v>69.20849609375</v>
       </c>
       <c r="G60" t="n">
         <v>57579845</v>
@@ -1826,7 +1826,7 @@
         <v>72.3282470703125</v>
       </c>
       <c r="F61" t="n">
-        <v>68.61678314208984</v>
+        <v>68.06803894042969</v>
       </c>
       <c r="G61" t="n">
         <v>60895507</v>
@@ -1849,7 +1849,7 @@
         <v>71.56488800048828</v>
       </c>
       <c r="F62" t="n">
-        <v>67.89259338378906</v>
+        <v>67.34963989257812</v>
       </c>
       <c r="G62" t="n">
         <v>57443814</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>67.26796722412109</v>
+        <v>66.73001098632812</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1895,7 +1895,7 @@
         <v>69.29389190673828</v>
       </c>
       <c r="F64" t="n">
-        <v>65.73812866210938</v>
+        <v>65.21240234375</v>
       </c>
       <c r="G64" t="n">
         <v>57903573</v>
@@ -1918,7 +1918,7 @@
         <v>69.78053283691406</v>
       </c>
       <c r="F65" t="n">
-        <v>66.19980621337891</v>
+        <v>65.67038726806641</v>
       </c>
       <c r="G65" t="n">
         <v>70798478</v>
@@ -1941,7 +1941,7 @@
         <v>71.18320465087891</v>
       </c>
       <c r="F66" t="n">
-        <v>67.53048706054688</v>
+        <v>66.99044036865234</v>
       </c>
       <c r="G66" t="n">
         <v>67107841</v>
@@ -1975,7 +1975,7 @@
         <v>73.95992279052734</v>
       </c>
       <c r="F68" t="n">
-        <v>70.78120422363281</v>
+        <v>70.21515655517578</v>
       </c>
       <c r="G68" t="n">
         <v>123730442</v>
@@ -1998,7 +1998,7 @@
         <v>73.84542083740234</v>
       </c>
       <c r="F69" t="n">
-        <v>70.67161560058594</v>
+        <v>70.1064453125</v>
       </c>
       <c r="G69" t="n">
         <v>53230225</v>
@@ -2021,7 +2021,7 @@
         <v>73.55915832519531</v>
       </c>
       <c r="F70" t="n">
-        <v>70.39766693115234</v>
+        <v>69.83467864990234</v>
       </c>
       <c r="G70" t="n">
         <v>44291520</v>
@@ -2044,7 +2044,7 @@
         <v>72.81488800048828</v>
       </c>
       <c r="F71" t="n">
-        <v>69.68538665771484</v>
+        <v>69.12808227539062</v>
       </c>
       <c r="G71" t="n">
         <v>52378831</v>
@@ -2067,7 +2067,7 @@
         <v>73.9217529296875</v>
       </c>
       <c r="F72" t="n">
-        <v>70.74466705322266</v>
+        <v>70.17890930175781</v>
       </c>
       <c r="G72" t="n">
         <v>54068103</v>
@@ -2090,7 +2090,7 @@
         <v>74.31298065185547</v>
       </c>
       <c r="F73" t="n">
-        <v>71.11907958984375</v>
+        <v>70.55033111572266</v>
       </c>
       <c r="G73" t="n">
         <v>53292896</v>
@@ -2113,7 +2113,7 @@
         <v>71.08778381347656</v>
       </c>
       <c r="F74" t="n">
-        <v>68.03250122070312</v>
+        <v>67.48843383789062</v>
       </c>
       <c r="G74" t="n">
         <v>77213286</v>
@@ -2136,7 +2136,7 @@
         <v>74.81870269775391</v>
       </c>
       <c r="F75" t="n">
-        <v>71.60307312011719</v>
+        <v>71.03044891357422</v>
       </c>
       <c r="G75" t="n">
         <v>64866169</v>
@@ -2159,7 +2159,7 @@
         <v>74.70420074462891</v>
       </c>
       <c r="F76" t="n">
-        <v>71.49349975585938</v>
+        <v>70.9217529296875</v>
       </c>
       <c r="G76" t="n">
         <v>55571144</v>
@@ -2182,7 +2182,7 @@
         <v>75.55343627929688</v>
       </c>
       <c r="F77" t="n">
-        <v>72.30623626708984</v>
+        <v>71.72798156738281</v>
       </c>
       <c r="G77" t="n">
         <v>47817619</v>
@@ -2205,7 +2205,7 @@
         <v>72.41412353515625</v>
       </c>
       <c r="F78" t="n">
-        <v>69.30183410644531</v>
+        <v>68.74762725830078</v>
       </c>
       <c r="G78" t="n">
         <v>64400962</v>
@@ -2228,7 +2228,7 @@
         <v>74.11000061035156</v>
       </c>
       <c r="F79" t="n">
-        <v>70.92482757568359</v>
+        <v>70.35762023925781</v>
       </c>
       <c r="G79" t="n">
         <v>56332267</v>
@@ -2262,7 +2262,7 @@
         <v>76.26999664306641</v>
       </c>
       <c r="F81" t="n">
-        <v>72.99198913574219</v>
+        <v>72.40826416015625</v>
       </c>
       <c r="G81" t="n">
         <v>73875900</v>
@@ -2285,7 +2285,7 @@
         <v>76.61000061035156</v>
       </c>
       <c r="F82" t="n">
-        <v>73.31739044189453</v>
+        <v>72.73104858398438</v>
       </c>
       <c r="G82" t="n">
         <v>73189100</v>
@@ -2308,7 +2308,7 @@
         <v>77.19999694824219</v>
       </c>
       <c r="F83" t="n">
-        <v>74.51708221435547</v>
+        <v>73.92115783691406</v>
       </c>
       <c r="G83" t="n">
         <v>90264500</v>
@@ -2331,7 +2331,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>75.86843872070312</v>
+        <v>75.26168823242188</v>
       </c>
       <c r="G84" t="n">
         <v>47184700</v>
@@ -2354,7 +2354,7 @@
         <v>77.98999786376953</v>
       </c>
       <c r="F85" t="n">
-        <v>75.27962493896484</v>
+        <v>74.67759704589844</v>
       </c>
       <c r="G85" t="n">
         <v>29402500</v>
@@ -2377,7 +2377,7 @@
         <v>78.01999664306641</v>
       </c>
       <c r="F86" t="n">
-        <v>75.30858612060547</v>
+        <v>74.70632171630859</v>
       </c>
       <c r="G86" t="n">
         <v>39396400</v>
@@ -2400,7 +2400,7 @@
         <v>77.54000091552734</v>
       </c>
       <c r="F87" t="n">
-        <v>74.84526824951172</v>
+        <v>74.24671173095703</v>
       </c>
       <c r="G87" t="n">
         <v>44157200</v>
@@ -2423,7 +2423,7 @@
         <v>76.87000274658203</v>
       </c>
       <c r="F88" t="n">
-        <v>74.19856262207031</v>
+        <v>73.60517883300781</v>
       </c>
       <c r="G88" t="n">
         <v>48833200</v>
@@ -2446,7 +2446,7 @@
         <v>75.44000244140625</v>
       </c>
       <c r="F89" t="n">
-        <v>72.81824493408203</v>
+        <v>72.23590850830078</v>
       </c>
       <c r="G89" t="n">
         <v>47301500</v>
@@ -2469,7 +2469,7 @@
         <v>76.72000122070312</v>
       </c>
       <c r="F90" t="n">
-        <v>74.05376434326172</v>
+        <v>73.4615478515625</v>
       </c>
       <c r="G90" t="n">
         <v>38949800</v>
@@ -2492,7 +2492,7 @@
         <v>78.68000030517578</v>
       </c>
       <c r="F91" t="n">
-        <v>75.94564819335938</v>
+        <v>75.33830261230469</v>
       </c>
       <c r="G91" t="n">
         <v>42288700</v>
@@ -2515,7 +2515,7 @@
         <v>76.30000305175781</v>
       </c>
       <c r="F92" t="n">
-        <v>73.64836883544922</v>
+        <v>73.05938720703125</v>
       </c>
       <c r="G92" t="n">
         <v>34886900</v>
@@ -2538,7 +2538,7 @@
         <v>77.26000213623047</v>
       </c>
       <c r="F93" t="n">
-        <v>74.57500457763672</v>
+        <v>73.97861480712891</v>
       </c>
       <c r="G93" t="n">
         <v>40665600</v>
@@ -2561,7 +2561,7 @@
         <v>73.44999694824219</v>
       </c>
       <c r="F94" t="n">
-        <v>70.89740753173828</v>
+        <v>70.33042907714844</v>
       </c>
       <c r="G94" t="n">
         <v>47935700</v>
@@ -2584,7 +2584,7 @@
         <v>71.68000030517578</v>
       </c>
       <c r="F95" t="n">
-        <v>69.18892669677734</v>
+        <v>68.63559722900391</v>
       </c>
       <c r="G95" t="n">
         <v>97229400</v>
@@ -2618,7 +2618,7 @@
         <v>73.61000061035156</v>
       </c>
       <c r="F97" t="n">
-        <v>71.6885986328125</v>
+        <v>71.11528778076172</v>
       </c>
       <c r="G97" t="n">
         <v>64542200</v>
@@ -2641,7 +2641,7 @@
         <v>81.40000152587891</v>
       </c>
       <c r="F98" t="n">
-        <v>79.27526092529297</v>
+        <v>78.64128112792969</v>
       </c>
       <c r="G98" t="n">
         <v>155267200</v>
@@ -2664,7 +2664,7 @@
         <v>80.62999725341797</v>
       </c>
       <c r="F99" t="n">
-        <v>78.52536010742188</v>
+        <v>77.89737701416016</v>
       </c>
       <c r="G99" t="n">
         <v>126450700</v>
@@ -2687,7 +2687,7 @@
         <v>78.33000183105469</v>
       </c>
       <c r="F100" t="n">
-        <v>76.285400390625</v>
+        <v>75.67533111572266</v>
       </c>
       <c r="G100" t="n">
         <v>59162000</v>
@@ -2710,7 +2710,7 @@
         <v>81.15000152587891</v>
       </c>
       <c r="F101" t="n">
-        <v>79.03179168701172</v>
+        <v>78.39975738525391</v>
       </c>
       <c r="G101" t="n">
         <v>57555300</v>
@@ -2733,7 +2733,7 @@
         <v>88.05000305175781</v>
       </c>
       <c r="F102" t="n">
-        <v>85.75168609619141</v>
+        <v>85.06591796875</v>
       </c>
       <c r="G102" t="n">
         <v>74717100</v>
@@ -2756,7 +2756,7 @@
         <v>81.61000061035156</v>
       </c>
       <c r="F103" t="n">
-        <v>79.47978973388672</v>
+        <v>78.84416961669922</v>
       </c>
       <c r="G103" t="n">
         <v>93642900</v>
@@ -2779,7 +2779,7 @@
         <v>84</v>
       </c>
       <c r="F104" t="n">
-        <v>81.80740356445312</v>
+        <v>81.15316772460938</v>
       </c>
       <c r="G104" t="n">
         <v>52991800</v>
@@ -2802,7 +2802,7 @@
         <v>80.69999694824219</v>
       </c>
       <c r="F105" t="n">
-        <v>78.59353637695312</v>
+        <v>77.96500396728516</v>
       </c>
       <c r="G105" t="n">
         <v>55374400</v>
@@ -2825,7 +2825,7 @@
         <v>79.16000366210938</v>
       </c>
       <c r="F106" t="n">
-        <v>77.09373474121094</v>
+        <v>76.47720336914062</v>
       </c>
       <c r="G106" t="n">
         <v>49570000</v>
@@ -2848,7 +2848,7 @@
         <v>73.33999633789062</v>
       </c>
       <c r="F107" t="n">
-        <v>71.42565155029297</v>
+        <v>70.85444641113281</v>
       </c>
       <c r="G107" t="n">
         <v>115662400</v>
@@ -2871,7 +2871,7 @@
         <v>72.62000274658203</v>
       </c>
       <c r="F108" t="n">
-        <v>70.72444152832031</v>
+        <v>70.15885925292969</v>
       </c>
       <c r="G108" t="n">
         <v>68810100</v>
@@ -2894,7 +2894,7 @@
         <v>75.69000244140625</v>
       </c>
       <c r="F109" t="n">
-        <v>73.71431732177734</v>
+        <v>73.12480163574219</v>
       </c>
       <c r="G109" t="n">
         <v>95341500</v>
@@ -2928,7 +2928,7 @@
         <v>75.73000335693359</v>
       </c>
       <c r="F111" t="n">
-        <v>74.45297241210938</v>
+        <v>73.85756683349609</v>
       </c>
       <c r="G111" t="n">
         <v>45917500</v>
@@ -2951,7 +2951,7 @@
         <v>76.63999938964844</v>
       </c>
       <c r="F112" t="n">
-        <v>75.34762573242188</v>
+        <v>74.74505615234375</v>
       </c>
       <c r="G112" t="n">
         <v>29866500</v>
@@ -2974,7 +2974,7 @@
         <v>80.30000305175781</v>
       </c>
       <c r="F113" t="n">
-        <v>78.94591522216797</v>
+        <v>78.31456756591797</v>
       </c>
       <c r="G113" t="n">
         <v>65442000</v>
@@ -2997,7 +2997,7 @@
         <v>81.37999725341797</v>
       </c>
       <c r="F114" t="n">
-        <v>80.00769805908203</v>
+        <v>79.36785888671875</v>
       </c>
       <c r="G114" t="n">
         <v>63435000</v>
@@ -3020,7 +3020,7 @@
         <v>79.98000335693359</v>
       </c>
       <c r="F115" t="n">
-        <v>78.63130950927734</v>
+        <v>78.00247955322266</v>
       </c>
       <c r="G115" t="n">
         <v>56472600</v>
@@ -3043,7 +3043,7 @@
         <v>80.90000152587891</v>
       </c>
       <c r="F116" t="n">
-        <v>79.53578948974609</v>
+        <v>78.89972686767578</v>
       </c>
       <c r="G116" t="n">
         <v>78100500</v>
@@ -3066,7 +3066,7 @@
         <v>78.55999755859375</v>
       </c>
       <c r="F117" t="n">
-        <v>77.23524475097656</v>
+        <v>76.61757659912109</v>
       </c>
       <c r="G117" t="n">
         <v>67724100</v>
@@ -3089,7 +3089,7 @@
         <v>76.63999938964844</v>
       </c>
       <c r="F118" t="n">
-        <v>75.34762573242188</v>
+        <v>74.74505615234375</v>
       </c>
       <c r="G118" t="n">
         <v>78064800</v>
@@ -3112,7 +3112,7 @@
         <v>76.37000274658203</v>
       </c>
       <c r="F119" t="n">
-        <v>75.08218383789062</v>
+        <v>74.48173522949219</v>
       </c>
       <c r="G119" t="n">
         <v>48957800</v>
@@ -3135,7 +3135,7 @@
         <v>76.31999969482422</v>
       </c>
       <c r="F120" t="n">
-        <v>75.03302764892578</v>
+        <v>74.43296813964844</v>
       </c>
       <c r="G120" t="n">
         <v>53513100</v>
@@ -3158,7 +3158,7 @@
         <v>77.83000183105469</v>
       </c>
       <c r="F121" t="n">
-        <v>76.51756286621094</v>
+        <v>75.90563201904297</v>
       </c>
       <c r="G121" t="n">
         <v>54038300</v>
@@ -3181,7 +3181,7 @@
         <v>78.26000213623047</v>
       </c>
       <c r="F122" t="n">
-        <v>76.9403076171875</v>
+        <v>76.32500457763672</v>
       </c>
       <c r="G122" t="n">
         <v>52335200</v>
@@ -3204,7 +3204,7 @@
         <v>79.11000061035156</v>
       </c>
       <c r="F123" t="n">
-        <v>77.77597808837891</v>
+        <v>77.15398406982422</v>
       </c>
       <c r="G123" t="n">
         <v>63776600</v>
@@ -3227,7 +3227,7 @@
         <v>81.33999633789062</v>
       </c>
       <c r="F124" t="n">
-        <v>80.67970275878906</v>
+        <v>80.03449249267578</v>
       </c>
       <c r="G124" t="n">
         <v>43695900</v>
@@ -3250,7 +3250,7 @@
         <v>83.51999664306641</v>
       </c>
       <c r="F125" t="n">
-        <v>82.84201049804688</v>
+        <v>82.17950439453125</v>
       </c>
       <c r="G125" t="n">
         <v>46350700</v>
@@ -3273,7 +3273,7 @@
         <v>87.68000030517578</v>
       </c>
       <c r="F126" t="n">
-        <v>86.96823883056641</v>
+        <v>86.27273559570312</v>
       </c>
       <c r="G126" t="n">
         <v>59518400</v>
@@ -3296,7 +3296,7 @@
         <v>86.91000366210938</v>
       </c>
       <c r="F127" t="n">
-        <v>86.20449829101562</v>
+        <v>85.51510620117188</v>
       </c>
       <c r="G127" t="n">
         <v>61763900</v>
@@ -3319,7 +3319,7 @@
         <v>84.58999633789062</v>
       </c>
       <c r="F128" t="n">
-        <v>83.9033203125</v>
+        <v>83.23233032226562</v>
       </c>
       <c r="G128" t="n">
         <v>41685600</v>
@@ -3342,7 +3342,7 @@
         <v>88.69000244140625</v>
       </c>
       <c r="F129" t="n">
-        <v>87.97004699707031</v>
+        <v>87.26653289794922</v>
       </c>
       <c r="G129" t="n">
         <v>67370800</v>
@@ -3365,7 +3365,7 @@
         <v>88.38999938964844</v>
       </c>
       <c r="F130" t="n">
-        <v>87.67247772216797</v>
+        <v>86.97134399414062</v>
       </c>
       <c r="G130" t="n">
         <v>53089700</v>
@@ -3388,7 +3388,7 @@
         <v>90.41000366210938</v>
       </c>
       <c r="F131" t="n">
-        <v>89.67608642578125</v>
+        <v>88.95893096923828</v>
       </c>
       <c r="G131" t="n">
         <v>65129200</v>
@@ -3411,7 +3411,7 @@
         <v>93.55000305175781</v>
       </c>
       <c r="F132" t="n">
-        <v>92.79059600830078</v>
+        <v>92.04853057861328</v>
       </c>
       <c r="G132" t="n">
         <v>67178100</v>
@@ -3434,7 +3434,7 @@
         <v>93.08000183105469</v>
       </c>
       <c r="F133" t="n">
-        <v>92.32440948486328</v>
+        <v>91.58607482910156</v>
       </c>
       <c r="G133" t="n">
         <v>56317200</v>
@@ -3457,7 +3457,7 @@
         <v>89.91000366210938</v>
       </c>
       <c r="F134" t="n">
-        <v>89.18014526367188</v>
+        <v>88.46694946289062</v>
       </c>
       <c r="G134" t="n">
         <v>51471100</v>
@@ -3480,7 +3480,7 @@
         <v>87.18000030517578</v>
       </c>
       <c r="F135" t="n">
-        <v>86.47229766845703</v>
+        <v>85.78076171875</v>
       </c>
       <c r="G135" t="n">
         <v>45088900</v>
@@ -3503,7 +3503,7 @@
         <v>84.62000274658203</v>
       </c>
       <c r="F136" t="n">
-        <v>83.93308258056641</v>
+        <v>83.26184844970703</v>
       </c>
       <c r="G136" t="n">
         <v>80514400</v>
@@ -3537,7 +3537,7 @@
         <v>93.12999725341797</v>
       </c>
       <c r="F138" t="n">
-        <v>93.12999725341797</v>
+        <v>92.38521575927734</v>
       </c>
       <c r="G138" t="n">
         <v>63680800</v>
@@ -3560,7 +3560,7 @@
         <v>92.41999816894531</v>
       </c>
       <c r="F139" t="n">
-        <v>92.41999816894531</v>
+        <v>91.68089294433594</v>
       </c>
       <c r="G139" t="n">
         <v>64094600</v>
@@ -3583,7 +3583,7 @@
         <v>92.77999877929688</v>
       </c>
       <c r="F140" t="n">
-        <v>92.77999877929688</v>
+        <v>92.03801727294922</v>
       </c>
       <c r="G140" t="n">
         <v>35331300</v>
@@ -3606,7 +3606,7 @@
         <v>94.95999908447266</v>
       </c>
       <c r="F141" t="n">
-        <v>94.95999908447266</v>
+        <v>94.20058441162109</v>
       </c>
       <c r="G141" t="n">
         <v>39752700</v>
@@ -3629,7 +3629,7 @@
         <v>90.11000061035156</v>
       </c>
       <c r="F142" t="n">
-        <v>90.11000061035156</v>
+        <v>89.38937377929688</v>
       </c>
       <c r="G142" t="n">
         <v>43282800</v>
@@ -3652,7 +3652,7 @@
         <v>89.33999633789062</v>
       </c>
       <c r="F143" t="n">
-        <v>89.33999633789062</v>
+        <v>88.62552642822266</v>
       </c>
       <c r="G143" t="n">
         <v>48593300</v>
@@ -3675,7 +3675,7 @@
         <v>87.41000366210938</v>
       </c>
       <c r="F144" t="n">
-        <v>87.41000366210938</v>
+        <v>86.71096801757812</v>
       </c>
       <c r="G144" t="n">
         <v>39768900</v>
@@ -3698,7 +3698,7 @@
         <v>91.01999664306641</v>
       </c>
       <c r="F145" t="n">
-        <v>91.01999664306641</v>
+        <v>90.29209136962891</v>
       </c>
       <c r="G145" t="n">
         <v>49219200</v>
@@ -3721,7 +3721,7 @@
         <v>92.08000183105469</v>
       </c>
       <c r="F146" t="n">
-        <v>92.08000183105469</v>
+        <v>91.34362030029297</v>
       </c>
       <c r="G146" t="n">
         <v>33427300</v>
@@ -3744,7 +3744,7 @@
         <v>89.26000213623047</v>
       </c>
       <c r="F147" t="n">
-        <v>89.26000213623047</v>
+        <v>88.54617309570312</v>
       </c>
       <c r="G147" t="n">
         <v>28993800</v>
@@ -3767,7 +3767,7 @@
         <v>86.23000335693359</v>
       </c>
       <c r="F148" t="n">
-        <v>86.23000335693359</v>
+        <v>85.5404052734375</v>
       </c>
       <c r="G148" t="n">
         <v>40732300</v>
@@ -3790,10 +3790,90 @@
         <v>87.33999633789062</v>
       </c>
       <c r="F149" t="n">
-        <v>87.33999633789062</v>
+        <v>86.64151763916016</v>
       </c>
       <c r="G149" t="n">
         <v>29955300</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B150" t="n">
+        <v>88.12999725341797</v>
+      </c>
+      <c r="C150" t="n">
+        <v>89.16999816894531</v>
+      </c>
+      <c r="D150" t="n">
+        <v>86.11000061035156</v>
+      </c>
+      <c r="E150" t="n">
+        <v>87.72000122070312</v>
+      </c>
+      <c r="F150" t="n">
+        <v>87.01848602294922</v>
+      </c>
+      <c r="G150" t="n">
+        <v>46268700</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B152" t="n">
+        <v>86.84999847412109</v>
+      </c>
+      <c r="C152" t="n">
+        <v>88.15000152587891</v>
+      </c>
+      <c r="D152" t="n">
+        <v>84.51999664306641</v>
+      </c>
+      <c r="E152" t="n">
+        <v>86.77999877929688</v>
+      </c>
+      <c r="F152" t="n">
+        <v>86.77999877929688</v>
+      </c>
+      <c r="G152" t="n">
+        <v>41761700</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B153" t="n">
+        <v>87.40000152587891</v>
+      </c>
+      <c r="C153" t="n">
+        <v>88</v>
+      </c>
+      <c r="D153" t="n">
+        <v>86.08999633789062</v>
+      </c>
+      <c r="E153" t="n">
+        <v>86.77999877929688</v>
+      </c>
+      <c r="F153" t="n">
+        <v>86.77999877929688</v>
+      </c>
+      <c r="G153" t="n">
+        <v>9038536</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.17667388916016</v>
+        <v>79.17668151855469</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -562,7 +562,7 @@
         <v>82.04198455810547</v>
       </c>
       <c r="F5" t="n">
-        <v>74.83356475830078</v>
+        <v>74.83358001708984</v>
       </c>
       <c r="G5" t="n">
         <v>45975656</v>
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.36358642578125</v>
+        <v>74.36357116699219</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -723,7 +723,7 @@
         <v>73.23473358154297</v>
       </c>
       <c r="F12" t="n">
-        <v>66.80014801025391</v>
+        <v>66.80015563964844</v>
       </c>
       <c r="G12" t="n">
         <v>99266351</v>
@@ -757,7 +757,7 @@
         <v>68.09160614013672</v>
       </c>
       <c r="F14" t="n">
-        <v>62.62200164794922</v>
+        <v>62.62199783325195</v>
       </c>
       <c r="G14" t="n">
         <v>106457307</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>62.94668960571289</v>
+        <v>62.94670104980469</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -849,7 +849,7 @@
         <v>79.63740539550781</v>
       </c>
       <c r="F18" t="n">
-        <v>73.24036407470703</v>
+        <v>73.2403564453125</v>
       </c>
       <c r="G18" t="n">
         <v>55249303</v>
@@ -872,7 +872,7 @@
         <v>77.70037841796875</v>
       </c>
       <c r="F19" t="n">
-        <v>71.45892333984375</v>
+        <v>71.45893096923828</v>
       </c>
       <c r="G19" t="n">
         <v>57325180</v>
@@ -895,7 +895,7 @@
         <v>74.11259460449219</v>
       </c>
       <c r="F20" t="n">
-        <v>68.15934753417969</v>
+        <v>68.15933990478516</v>
       </c>
       <c r="G20" t="n">
         <v>67904950</v>
@@ -941,7 +941,7 @@
         <v>76.12595367431641</v>
       </c>
       <c r="F22" t="n">
-        <v>70.01097869873047</v>
+        <v>70.01095581054688</v>
       </c>
       <c r="G22" t="n">
         <v>51877153</v>
@@ -987,7 +987,7 @@
         <v>77.02290344238281</v>
       </c>
       <c r="F24" t="n">
-        <v>70.83586883544922</v>
+        <v>70.83587646484375</v>
       </c>
       <c r="G24" t="n">
         <v>58673014</v>
@@ -1010,7 +1010,7 @@
         <v>78.49236297607422</v>
       </c>
       <c r="F25" t="n">
-        <v>72.18729400634766</v>
+        <v>72.18728637695312</v>
       </c>
       <c r="G25" t="n">
         <v>51003959</v>
@@ -1067,7 +1067,7 @@
         <v>74.33206176757812</v>
       </c>
       <c r="F28" t="n">
-        <v>68.90457916259766</v>
+        <v>68.90458679199219</v>
       </c>
       <c r="G28" t="n">
         <v>78546553</v>
@@ -1090,7 +1090,7 @@
         <v>71.74618530273438</v>
       </c>
       <c r="F29" t="n">
-        <v>66.50751495361328</v>
+        <v>66.50752258300781</v>
       </c>
       <c r="G29" t="n">
         <v>46899992</v>
@@ -1113,7 +1113,7 @@
         <v>75.1717529296875</v>
       </c>
       <c r="F30" t="n">
-        <v>69.68296051025391</v>
+        <v>69.68295288085938</v>
       </c>
       <c r="G30" t="n">
         <v>33948388</v>
@@ -1136,7 +1136,7 @@
         <v>73.21565246582031</v>
       </c>
       <c r="F31" t="n">
-        <v>67.86967468261719</v>
+        <v>67.86968231201172</v>
       </c>
       <c r="G31" t="n">
         <v>36353548</v>
@@ -1205,7 +1205,7 @@
         <v>76.56488800048828</v>
       </c>
       <c r="F34" t="n">
-        <v>70.97437286376953</v>
+        <v>70.97438049316406</v>
       </c>
       <c r="G34" t="n">
         <v>45294665</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>73.84024047851562</v>
+        <v>73.84023284912109</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1274,7 +1274,7 @@
         <v>81.08778381347656</v>
       </c>
       <c r="F37" t="n">
-        <v>75.16700744628906</v>
+        <v>75.16701507568359</v>
       </c>
       <c r="G37" t="n">
         <v>35482870</v>
@@ -1320,7 +1320,7 @@
         <v>81.33587646484375</v>
       </c>
       <c r="F39" t="n">
-        <v>75.39700317382812</v>
+        <v>75.39699554443359</v>
       </c>
       <c r="G39" t="n">
         <v>48641663</v>
@@ -1343,7 +1343,7 @@
         <v>80.61068725585938</v>
       </c>
       <c r="F40" t="n">
-        <v>74.72475433349609</v>
+        <v>74.72476196289062</v>
       </c>
       <c r="G40" t="n">
         <v>32036731</v>
@@ -1366,7 +1366,7 @@
         <v>81.87976837158203</v>
       </c>
       <c r="F41" t="n">
-        <v>75.90118408203125</v>
+        <v>75.90116882324219</v>
       </c>
       <c r="G41" t="n">
         <v>50181803</v>
@@ -1389,7 +1389,7 @@
         <v>79.13167572021484</v>
       </c>
       <c r="F42" t="n">
-        <v>73.88725280761719</v>
+        <v>73.88724517822266</v>
       </c>
       <c r="G42" t="n">
         <v>40450704</v>
@@ -1412,7 +1412,7 @@
         <v>77.09923553466797</v>
       </c>
       <c r="F43" t="n">
-        <v>71.98952484130859</v>
+        <v>71.98951721191406</v>
       </c>
       <c r="G43" t="n">
         <v>38125403</v>
@@ -1435,7 +1435,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F44" t="n">
-        <v>71.59748077392578</v>
+        <v>71.59749603271484</v>
       </c>
       <c r="G44" t="n">
         <v>44098896</v>
@@ -1458,7 +1458,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F45" t="n">
-        <v>71.12528991699219</v>
+        <v>71.12527465820312</v>
       </c>
       <c r="G45" t="n">
         <v>43623732</v>
@@ -1481,7 +1481,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F46" t="n">
-        <v>71.12528991699219</v>
+        <v>71.12527465820312</v>
       </c>
       <c r="G46" t="n">
         <v>42834380</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.00905609130859</v>
+        <v>67.00904846191406</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1527,7 +1527,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F48" t="n">
-        <v>71.59748077392578</v>
+        <v>71.59749603271484</v>
       </c>
       <c r="G48" t="n">
         <v>46793200</v>
@@ -1550,7 +1550,7 @@
         <v>77.37595367431641</v>
       </c>
       <c r="F49" t="n">
-        <v>72.24789428710938</v>
+        <v>72.24790191650391</v>
       </c>
       <c r="G49" t="n">
         <v>40678643</v>
@@ -1573,7 +1573,7 @@
         <v>76.76526641845703</v>
       </c>
       <c r="F50" t="n">
-        <v>71.67767333984375</v>
+        <v>71.67768096923828</v>
       </c>
       <c r="G50" t="n">
         <v>43143331</v>
@@ -1665,7 +1665,7 @@
         <v>75.88740539550781</v>
       </c>
       <c r="F54" t="n">
-        <v>70.85799407958984</v>
+        <v>70.85800170898438</v>
       </c>
       <c r="G54" t="n">
         <v>77586584</v>
@@ -1688,7 +1688,7 @@
         <v>76.46946716308594</v>
       </c>
       <c r="F55" t="n">
-        <v>71.96533203125</v>
+        <v>71.96534729003906</v>
       </c>
       <c r="G55" t="n">
         <v>29206712</v>
@@ -1711,7 +1711,7 @@
         <v>78.05343627929688</v>
       </c>
       <c r="F56" t="n">
-        <v>73.45600128173828</v>
+        <v>73.45601654052734</v>
       </c>
       <c r="G56" t="n">
         <v>21956754</v>
@@ -1734,7 +1734,7 @@
         <v>79.22709655761719</v>
       </c>
       <c r="F57" t="n">
-        <v>74.56053924560547</v>
+        <v>74.56053161621094</v>
       </c>
       <c r="G57" t="n">
         <v>51991595</v>
@@ -1780,7 +1780,7 @@
         <v>77.27098846435547</v>
       </c>
       <c r="F59" t="n">
-        <v>72.71964263916016</v>
+        <v>72.71965026855469</v>
       </c>
       <c r="G59" t="n">
         <v>38045859</v>
@@ -1803,7 +1803,7 @@
         <v>73.54007720947266</v>
       </c>
       <c r="F60" t="n">
-        <v>69.20849609375</v>
+        <v>69.20848846435547</v>
       </c>
       <c r="G60" t="n">
         <v>57579845</v>
@@ -1826,7 +1826,7 @@
         <v>72.3282470703125</v>
       </c>
       <c r="F61" t="n">
-        <v>68.06803894042969</v>
+        <v>68.06803131103516</v>
       </c>
       <c r="G61" t="n">
         <v>60895507</v>
@@ -1849,7 +1849,7 @@
         <v>71.56488800048828</v>
       </c>
       <c r="F62" t="n">
-        <v>67.34963989257812</v>
+        <v>67.34964752197266</v>
       </c>
       <c r="G62" t="n">
         <v>57443814</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>66.73001098632812</v>
+        <v>66.73001861572266</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1941,7 +1941,7 @@
         <v>71.18320465087891</v>
       </c>
       <c r="F66" t="n">
-        <v>66.99044036865234</v>
+        <v>66.99043273925781</v>
       </c>
       <c r="G66" t="n">
         <v>67107841</v>
@@ -2044,7 +2044,7 @@
         <v>72.81488800048828</v>
       </c>
       <c r="F71" t="n">
-        <v>69.12808227539062</v>
+        <v>69.12808990478516</v>
       </c>
       <c r="G71" t="n">
         <v>52378831</v>
@@ -2067,7 +2067,7 @@
         <v>73.9217529296875</v>
       </c>
       <c r="F72" t="n">
-        <v>70.17890930175781</v>
+        <v>70.17891693115234</v>
       </c>
       <c r="G72" t="n">
         <v>54068103</v>
@@ -2205,7 +2205,7 @@
         <v>72.41412353515625</v>
       </c>
       <c r="F78" t="n">
-        <v>68.74762725830078</v>
+        <v>68.74761962890625</v>
       </c>
       <c r="G78" t="n">
         <v>64400962</v>
@@ -2228,7 +2228,7 @@
         <v>74.11000061035156</v>
       </c>
       <c r="F79" t="n">
-        <v>70.35762023925781</v>
+        <v>70.35762786865234</v>
       </c>
       <c r="G79" t="n">
         <v>56332267</v>
@@ -2285,7 +2285,7 @@
         <v>76.61000061035156</v>
       </c>
       <c r="F82" t="n">
-        <v>72.73104858398438</v>
+        <v>72.73105621337891</v>
       </c>
       <c r="G82" t="n">
         <v>73189100</v>
@@ -3853,29 +3853,6 @@
         <v>41761700</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>44827</v>
-      </c>
-      <c r="B153" t="n">
-        <v>87.40000152587891</v>
-      </c>
-      <c r="C153" t="n">
-        <v>88</v>
-      </c>
-      <c r="D153" t="n">
-        <v>86.08999633789062</v>
-      </c>
-      <c r="E153" t="n">
-        <v>86.77999877929688</v>
-      </c>
-      <c r="F153" t="n">
-        <v>86.77999877929688</v>
-      </c>
-      <c r="G153" t="n">
-        <v>9038536</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.36357116699219</v>
+        <v>74.36360168457031</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -608,7 +608,7 @@
         <v>81.18320465087891</v>
       </c>
       <c r="F7" t="n">
-        <v>74.05024719238281</v>
+        <v>74.05026245117188</v>
       </c>
       <c r="G7" t="n">
         <v>81640353</v>
@@ -654,7 +654,7 @@
         <v>78.56870269775391</v>
       </c>
       <c r="F9" t="n">
-        <v>71.66546630859375</v>
+        <v>71.66545104980469</v>
       </c>
       <c r="G9" t="n">
         <v>41994828</v>
@@ -677,7 +677,7 @@
         <v>73.05343627929688</v>
       </c>
       <c r="F10" t="n">
-        <v>66.63479614257812</v>
+        <v>66.63478851318359</v>
       </c>
       <c r="G10" t="n">
         <v>83826481</v>
@@ -757,7 +757,7 @@
         <v>68.09160614013672</v>
       </c>
       <c r="F14" t="n">
-        <v>62.62199783325195</v>
+        <v>62.62200164794922</v>
       </c>
       <c r="G14" t="n">
         <v>106457307</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>62.94670104980469</v>
+        <v>62.94669342041016</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -826,7 +826,7 @@
         <v>78.71183013916016</v>
       </c>
       <c r="F17" t="n">
-        <v>72.38914489746094</v>
+        <v>72.38913726806641</v>
       </c>
       <c r="G17" t="n">
         <v>50330514</v>
@@ -918,7 +918,7 @@
         <v>72.90076446533203</v>
       </c>
       <c r="F21" t="n">
-        <v>67.04486846923828</v>
+        <v>67.04486083984375</v>
       </c>
       <c r="G21" t="n">
         <v>50060654</v>
@@ -941,7 +941,7 @@
         <v>76.12595367431641</v>
       </c>
       <c r="F22" t="n">
-        <v>70.01095581054688</v>
+        <v>70.01097869873047</v>
       </c>
       <c r="G22" t="n">
         <v>51877153</v>
@@ -964,7 +964,7 @@
         <v>72.87213897705078</v>
       </c>
       <c r="F23" t="n">
-        <v>67.01853179931641</v>
+        <v>67.01853942871094</v>
       </c>
       <c r="G23" t="n">
         <v>49529948</v>
@@ -987,7 +987,7 @@
         <v>77.02290344238281</v>
       </c>
       <c r="F24" t="n">
-        <v>70.83587646484375</v>
+        <v>70.83586883544922</v>
       </c>
       <c r="G24" t="n">
         <v>58673014</v>
@@ -1033,7 +1033,7 @@
         <v>72.80534362792969</v>
       </c>
       <c r="F26" t="n">
-        <v>66.95709228515625</v>
+        <v>66.95710754394531</v>
       </c>
       <c r="G26" t="n">
         <v>59188420</v>
@@ -1067,7 +1067,7 @@
         <v>74.33206176757812</v>
       </c>
       <c r="F28" t="n">
-        <v>68.90458679199219</v>
+        <v>68.90456390380859</v>
       </c>
       <c r="G28" t="n">
         <v>78546553</v>
@@ -1090,7 +1090,7 @@
         <v>71.74618530273438</v>
       </c>
       <c r="F29" t="n">
-        <v>66.50752258300781</v>
+        <v>66.50750732421875</v>
       </c>
       <c r="G29" t="n">
         <v>46899992</v>
@@ -1113,7 +1113,7 @@
         <v>75.1717529296875</v>
       </c>
       <c r="F30" t="n">
-        <v>69.68295288085938</v>
+        <v>69.68296051025391</v>
       </c>
       <c r="G30" t="n">
         <v>33948388</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>70.6470947265625</v>
+        <v>70.64708709716797</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1182,7 +1182,7 @@
         <v>73.56870269775391</v>
       </c>
       <c r="F33" t="n">
-        <v>68.19696044921875</v>
+        <v>68.19695281982422</v>
       </c>
       <c r="G33" t="n">
         <v>47391502</v>
@@ -1205,7 +1205,7 @@
         <v>76.56488800048828</v>
       </c>
       <c r="F34" t="n">
-        <v>70.97438049316406</v>
+        <v>70.974365234375</v>
       </c>
       <c r="G34" t="n">
         <v>45294665</v>
@@ -1228,7 +1228,7 @@
         <v>77.30915832519531</v>
       </c>
       <c r="F35" t="n">
-        <v>71.664306640625</v>
+        <v>71.66429901123047</v>
       </c>
       <c r="G35" t="n">
         <v>38546803</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>73.84023284912109</v>
+        <v>73.84022521972656</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1297,7 +1297,7 @@
         <v>81.72709655761719</v>
       </c>
       <c r="F38" t="n">
-        <v>75.75965118408203</v>
+        <v>75.7596435546875</v>
       </c>
       <c r="G38" t="n">
         <v>38271388</v>
@@ -1366,7 +1366,7 @@
         <v>81.87976837158203</v>
       </c>
       <c r="F41" t="n">
-        <v>75.90116882324219</v>
+        <v>75.90117645263672</v>
       </c>
       <c r="G41" t="n">
         <v>50181803</v>
@@ -1389,7 +1389,7 @@
         <v>79.13167572021484</v>
       </c>
       <c r="F42" t="n">
-        <v>73.88724517822266</v>
+        <v>73.88725280761719</v>
       </c>
       <c r="G42" t="n">
         <v>40450704</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.00904846191406</v>
+        <v>67.00905609130859</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1550,7 +1550,7 @@
         <v>77.37595367431641</v>
       </c>
       <c r="F49" t="n">
-        <v>72.24790191650391</v>
+        <v>72.24788665771484</v>
       </c>
       <c r="G49" t="n">
         <v>40678643</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.00520324707031</v>
+        <v>73.00521087646484</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1665,7 +1665,7 @@
         <v>75.88740539550781</v>
       </c>
       <c r="F54" t="n">
-        <v>70.85800170898438</v>
+        <v>70.85799407958984</v>
       </c>
       <c r="G54" t="n">
         <v>77586584</v>
@@ -1688,7 +1688,7 @@
         <v>76.46946716308594</v>
       </c>
       <c r="F55" t="n">
-        <v>71.96534729003906</v>
+        <v>71.96533966064453</v>
       </c>
       <c r="G55" t="n">
         <v>29206712</v>
@@ -1734,7 +1734,7 @@
         <v>79.22709655761719</v>
       </c>
       <c r="F57" t="n">
-        <v>74.56053161621094</v>
+        <v>74.560546875</v>
       </c>
       <c r="G57" t="n">
         <v>51991595</v>
@@ -1780,7 +1780,7 @@
         <v>77.27098846435547</v>
       </c>
       <c r="F59" t="n">
-        <v>72.71965026855469</v>
+        <v>72.71964263916016</v>
       </c>
       <c r="G59" t="n">
         <v>38045859</v>
@@ -1803,7 +1803,7 @@
         <v>73.54007720947266</v>
       </c>
       <c r="F60" t="n">
-        <v>69.20848846435547</v>
+        <v>69.20848083496094</v>
       </c>
       <c r="G60" t="n">
         <v>57579845</v>
@@ -1826,7 +1826,7 @@
         <v>72.3282470703125</v>
       </c>
       <c r="F61" t="n">
-        <v>68.06803131103516</v>
+        <v>68.06803894042969</v>
       </c>
       <c r="G61" t="n">
         <v>60895507</v>
@@ -1849,7 +1849,7 @@
         <v>71.56488800048828</v>
       </c>
       <c r="F62" t="n">
-        <v>67.34964752197266</v>
+        <v>67.34963226318359</v>
       </c>
       <c r="G62" t="n">
         <v>57443814</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>66.73001861572266</v>
+        <v>66.73003387451172</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1895,7 +1895,7 @@
         <v>69.29389190673828</v>
       </c>
       <c r="F64" t="n">
-        <v>65.21240234375</v>
+        <v>65.21240997314453</v>
       </c>
       <c r="G64" t="n">
         <v>57903573</v>
@@ -1941,7 +1941,7 @@
         <v>71.18320465087891</v>
       </c>
       <c r="F66" t="n">
-        <v>66.99043273925781</v>
+        <v>66.99044036865234</v>
       </c>
       <c r="G66" t="n">
         <v>67107841</v>
@@ -1975,7 +1975,7 @@
         <v>73.95992279052734</v>
       </c>
       <c r="F68" t="n">
-        <v>70.21515655517578</v>
+        <v>70.21514129638672</v>
       </c>
       <c r="G68" t="n">
         <v>123730442</v>
@@ -2021,7 +2021,7 @@
         <v>73.55915832519531</v>
       </c>
       <c r="F70" t="n">
-        <v>69.83467864990234</v>
+        <v>69.83468627929688</v>
       </c>
       <c r="G70" t="n">
         <v>44291520</v>
@@ -2044,7 +2044,7 @@
         <v>72.81488800048828</v>
       </c>
       <c r="F71" t="n">
-        <v>69.12808990478516</v>
+        <v>69.12809753417969</v>
       </c>
       <c r="G71" t="n">
         <v>52378831</v>
@@ -2159,7 +2159,7 @@
         <v>74.70420074462891</v>
       </c>
       <c r="F76" t="n">
-        <v>70.9217529296875</v>
+        <v>70.92174530029297</v>
       </c>
       <c r="G76" t="n">
         <v>55571144</v>
@@ -2182,7 +2182,7 @@
         <v>75.55343627929688</v>
       </c>
       <c r="F77" t="n">
-        <v>71.72798156738281</v>
+        <v>71.72797393798828</v>
       </c>
       <c r="G77" t="n">
         <v>47817619</v>
@@ -2285,7 +2285,7 @@
         <v>76.61000061035156</v>
       </c>
       <c r="F82" t="n">
-        <v>72.73105621337891</v>
+        <v>72.73104858398438</v>
       </c>
       <c r="G82" t="n">
         <v>73189100</v>
@@ -2308,7 +2308,7 @@
         <v>77.19999694824219</v>
       </c>
       <c r="F83" t="n">
-        <v>73.92115783691406</v>
+        <v>73.92115020751953</v>
       </c>
       <c r="G83" t="n">
         <v>90264500</v>
@@ -2331,7 +2331,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>75.26168823242188</v>
+        <v>75.26169586181641</v>
       </c>
       <c r="G84" t="n">
         <v>47184700</v>
@@ -2423,7 +2423,7 @@
         <v>76.87000274658203</v>
       </c>
       <c r="F88" t="n">
-        <v>73.60517883300781</v>
+        <v>73.60517120361328</v>
       </c>
       <c r="G88" t="n">
         <v>48833200</v>
@@ -2584,7 +2584,7 @@
         <v>71.68000030517578</v>
       </c>
       <c r="F95" t="n">
-        <v>68.63559722900391</v>
+        <v>68.63560485839844</v>
       </c>
       <c r="G95" t="n">
         <v>97229400</v>
@@ -2618,7 +2618,7 @@
         <v>73.61000061035156</v>
       </c>
       <c r="F97" t="n">
-        <v>71.11528778076172</v>
+        <v>71.11529541015625</v>
       </c>
       <c r="G97" t="n">
         <v>64542200</v>
@@ -2641,7 +2641,7 @@
         <v>81.40000152587891</v>
       </c>
       <c r="F98" t="n">
-        <v>78.64128112792969</v>
+        <v>78.64128875732422</v>
       </c>
       <c r="G98" t="n">
         <v>155267200</v>
@@ -2687,7 +2687,7 @@
         <v>78.33000183105469</v>
       </c>
       <c r="F100" t="n">
-        <v>75.67533111572266</v>
+        <v>75.67532348632812</v>
       </c>
       <c r="G100" t="n">
         <v>59162000</v>
@@ -2802,7 +2802,7 @@
         <v>80.69999694824219</v>
       </c>
       <c r="F105" t="n">
-        <v>77.96500396728516</v>
+        <v>77.96499633789062</v>
       </c>
       <c r="G105" t="n">
         <v>55374400</v>
@@ -2825,7 +2825,7 @@
         <v>79.16000366210938</v>
       </c>
       <c r="F106" t="n">
-        <v>76.47720336914062</v>
+        <v>76.47719573974609</v>
       </c>
       <c r="G106" t="n">
         <v>49570000</v>
@@ -2848,7 +2848,7 @@
         <v>73.33999633789062</v>
       </c>
       <c r="F107" t="n">
-        <v>70.85444641113281</v>
+        <v>70.85443878173828</v>
       </c>
       <c r="G107" t="n">
         <v>115662400</v>
@@ -2871,7 +2871,7 @@
         <v>72.62000274658203</v>
       </c>
       <c r="F108" t="n">
-        <v>70.15885925292969</v>
+        <v>70.15884399414062</v>
       </c>
       <c r="G108" t="n">
         <v>68810100</v>
@@ -2894,7 +2894,7 @@
         <v>75.69000244140625</v>
       </c>
       <c r="F109" t="n">
-        <v>73.12480163574219</v>
+        <v>73.12479400634766</v>
       </c>
       <c r="G109" t="n">
         <v>95341500</v>
@@ -2928,7 +2928,7 @@
         <v>75.73000335693359</v>
       </c>
       <c r="F111" t="n">
-        <v>73.85756683349609</v>
+        <v>73.85755920410156</v>
       </c>
       <c r="G111" t="n">
         <v>45917500</v>
@@ -2951,7 +2951,7 @@
         <v>76.63999938964844</v>
       </c>
       <c r="F112" t="n">
-        <v>74.74505615234375</v>
+        <v>74.74504852294922</v>
       </c>
       <c r="G112" t="n">
         <v>29866500</v>
@@ -3020,7 +3020,7 @@
         <v>79.98000335693359</v>
       </c>
       <c r="F115" t="n">
-        <v>78.00247955322266</v>
+        <v>78.00247192382812</v>
       </c>
       <c r="G115" t="n">
         <v>56472600</v>
@@ -3066,7 +3066,7 @@
         <v>78.55999755859375</v>
       </c>
       <c r="F117" t="n">
-        <v>76.61757659912109</v>
+        <v>76.61758422851562</v>
       </c>
       <c r="G117" t="n">
         <v>67724100</v>
@@ -3089,7 +3089,7 @@
         <v>76.63999938964844</v>
       </c>
       <c r="F118" t="n">
-        <v>74.74505615234375</v>
+        <v>74.74504852294922</v>
       </c>
       <c r="G118" t="n">
         <v>78064800</v>
@@ -3250,7 +3250,7 @@
         <v>83.51999664306641</v>
       </c>
       <c r="F125" t="n">
-        <v>82.17950439453125</v>
+        <v>82.17949676513672</v>
       </c>
       <c r="G125" t="n">
         <v>46350700</v>
@@ -3273,7 +3273,7 @@
         <v>87.68000030517578</v>
       </c>
       <c r="F126" t="n">
-        <v>86.27273559570312</v>
+        <v>86.27274322509766</v>
       </c>
       <c r="G126" t="n">
         <v>59518400</v>
@@ -3296,7 +3296,7 @@
         <v>86.91000366210938</v>
       </c>
       <c r="F127" t="n">
-        <v>85.51510620117188</v>
+        <v>85.51509857177734</v>
       </c>
       <c r="G127" t="n">
         <v>61763900</v>
@@ -3388,7 +3388,7 @@
         <v>90.41000366210938</v>
       </c>
       <c r="F131" t="n">
-        <v>88.95893096923828</v>
+        <v>88.95892333984375</v>
       </c>
       <c r="G131" t="n">
         <v>65129200</v>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -516,7 +516,7 @@
         <v>85.42938995361328</v>
       </c>
       <c r="F3" t="n">
-        <v>77.92335510253906</v>
+        <v>77.92336273193359</v>
       </c>
       <c r="G3" t="n">
         <v>49515798</v>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.17668151855469</v>
+        <v>79.17667388916016</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -562,7 +562,7 @@
         <v>82.04198455810547</v>
       </c>
       <c r="F5" t="n">
-        <v>74.83358001708984</v>
+        <v>74.83357238769531</v>
       </c>
       <c r="G5" t="n">
         <v>45975656</v>
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.36360168457031</v>
+        <v>74.36357116699219</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -608,7 +608,7 @@
         <v>81.18320465087891</v>
       </c>
       <c r="F7" t="n">
-        <v>74.05026245117188</v>
+        <v>74.05025482177734</v>
       </c>
       <c r="G7" t="n">
         <v>81640353</v>
@@ -654,7 +654,7 @@
         <v>78.56870269775391</v>
       </c>
       <c r="F9" t="n">
-        <v>71.66545104980469</v>
+        <v>71.66545867919922</v>
       </c>
       <c r="G9" t="n">
         <v>41994828</v>
@@ -677,7 +677,7 @@
         <v>73.05343627929688</v>
       </c>
       <c r="F10" t="n">
-        <v>66.63478851318359</v>
+        <v>66.63479614257812</v>
       </c>
       <c r="G10" t="n">
         <v>83826481</v>
@@ -757,7 +757,7 @@
         <v>68.09160614013672</v>
       </c>
       <c r="F14" t="n">
-        <v>62.62200164794922</v>
+        <v>62.62200927734375</v>
       </c>
       <c r="G14" t="n">
         <v>106457307</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>62.94669342041016</v>
+        <v>62.94668960571289</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -849,7 +849,7 @@
         <v>79.63740539550781</v>
       </c>
       <c r="F18" t="n">
-        <v>73.2403564453125</v>
+        <v>73.24034881591797</v>
       </c>
       <c r="G18" t="n">
         <v>55249303</v>
@@ -872,7 +872,7 @@
         <v>77.70037841796875</v>
       </c>
       <c r="F19" t="n">
-        <v>71.45893096923828</v>
+        <v>71.45892333984375</v>
       </c>
       <c r="G19" t="n">
         <v>57325180</v>
@@ -918,7 +918,7 @@
         <v>72.90076446533203</v>
       </c>
       <c r="F21" t="n">
-        <v>67.04486083984375</v>
+        <v>67.04484558105469</v>
       </c>
       <c r="G21" t="n">
         <v>50060654</v>
@@ -941,7 +941,7 @@
         <v>76.12595367431641</v>
       </c>
       <c r="F22" t="n">
-        <v>70.01097869873047</v>
+        <v>70.01096343994141</v>
       </c>
       <c r="G22" t="n">
         <v>51877153</v>
@@ -964,7 +964,7 @@
         <v>72.87213897705078</v>
       </c>
       <c r="F23" t="n">
-        <v>67.01853942871094</v>
+        <v>67.01853179931641</v>
       </c>
       <c r="G23" t="n">
         <v>49529948</v>
@@ -1010,7 +1010,7 @@
         <v>78.49236297607422</v>
       </c>
       <c r="F25" t="n">
-        <v>72.18728637695312</v>
+        <v>72.18729400634766</v>
       </c>
       <c r="G25" t="n">
         <v>51003959</v>
@@ -1033,7 +1033,7 @@
         <v>72.80534362792969</v>
       </c>
       <c r="F26" t="n">
-        <v>66.95710754394531</v>
+        <v>66.95709991455078</v>
       </c>
       <c r="G26" t="n">
         <v>59188420</v>
@@ -1090,7 +1090,7 @@
         <v>71.74618530273438</v>
       </c>
       <c r="F29" t="n">
-        <v>66.50750732421875</v>
+        <v>66.50751495361328</v>
       </c>
       <c r="G29" t="n">
         <v>46899992</v>
@@ -1113,7 +1113,7 @@
         <v>75.1717529296875</v>
       </c>
       <c r="F30" t="n">
-        <v>69.68296051025391</v>
+        <v>69.68294525146484</v>
       </c>
       <c r="G30" t="n">
         <v>33948388</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>70.64708709716797</v>
+        <v>70.6470947265625</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1182,7 +1182,7 @@
         <v>73.56870269775391</v>
       </c>
       <c r="F33" t="n">
-        <v>68.19695281982422</v>
+        <v>68.19696044921875</v>
       </c>
       <c r="G33" t="n">
         <v>47391502</v>
@@ -1228,7 +1228,7 @@
         <v>77.30915832519531</v>
       </c>
       <c r="F35" t="n">
-        <v>71.66429901123047</v>
+        <v>71.66429138183594</v>
       </c>
       <c r="G35" t="n">
         <v>38546803</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>73.84022521972656</v>
+        <v>73.84024047851562</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1274,7 +1274,7 @@
         <v>81.08778381347656</v>
       </c>
       <c r="F37" t="n">
-        <v>75.16701507568359</v>
+        <v>75.16702270507812</v>
       </c>
       <c r="G37" t="n">
         <v>35482870</v>
@@ -1320,7 +1320,7 @@
         <v>81.33587646484375</v>
       </c>
       <c r="F39" t="n">
-        <v>75.39699554443359</v>
+        <v>75.39700317382812</v>
       </c>
       <c r="G39" t="n">
         <v>48641663</v>
@@ -1412,7 +1412,7 @@
         <v>77.09923553466797</v>
       </c>
       <c r="F43" t="n">
-        <v>71.98951721191406</v>
+        <v>71.98952484130859</v>
       </c>
       <c r="G43" t="n">
         <v>38125403</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.00905609130859</v>
+        <v>67.00904846191406</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1550,7 +1550,7 @@
         <v>77.37595367431641</v>
       </c>
       <c r="F49" t="n">
-        <v>72.24788665771484</v>
+        <v>72.24790191650391</v>
       </c>
       <c r="G49" t="n">
         <v>40678643</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.00521087646484</v>
+        <v>73.00520324707031</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1642,7 +1642,7 @@
         <v>79.16030120849609</v>
       </c>
       <c r="F53" t="n">
-        <v>73.91397857666016</v>
+        <v>73.91398620605469</v>
       </c>
       <c r="G53" t="n">
         <v>39990842</v>
@@ -1688,7 +1688,7 @@
         <v>76.46946716308594</v>
       </c>
       <c r="F55" t="n">
-        <v>71.96533966064453</v>
+        <v>71.96533203125</v>
       </c>
       <c r="G55" t="n">
         <v>29206712</v>
@@ -1711,7 +1711,7 @@
         <v>78.05343627929688</v>
       </c>
       <c r="F56" t="n">
-        <v>73.45601654052734</v>
+        <v>73.45600128173828</v>
       </c>
       <c r="G56" t="n">
         <v>21956754</v>
@@ -1757,7 +1757,7 @@
         <v>79.56106567382812</v>
       </c>
       <c r="F58" t="n">
-        <v>74.87483978271484</v>
+        <v>74.87483215332031</v>
       </c>
       <c r="G58" t="n">
         <v>55280533</v>
@@ -1780,7 +1780,7 @@
         <v>77.27098846435547</v>
       </c>
       <c r="F59" t="n">
-        <v>72.71964263916016</v>
+        <v>72.71965026855469</v>
       </c>
       <c r="G59" t="n">
         <v>38045859</v>
@@ -1803,7 +1803,7 @@
         <v>73.54007720947266</v>
       </c>
       <c r="F60" t="n">
-        <v>69.20848083496094</v>
+        <v>69.20849609375</v>
       </c>
       <c r="G60" t="n">
         <v>57579845</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>66.73003387451172</v>
+        <v>66.73001098632812</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1895,7 +1895,7 @@
         <v>69.29389190673828</v>
       </c>
       <c r="F64" t="n">
-        <v>65.21240997314453</v>
+        <v>65.21240234375</v>
       </c>
       <c r="G64" t="n">
         <v>57903573</v>
@@ -1975,7 +1975,7 @@
         <v>73.95992279052734</v>
       </c>
       <c r="F68" t="n">
-        <v>70.21514129638672</v>
+        <v>70.21514892578125</v>
       </c>
       <c r="G68" t="n">
         <v>123730442</v>
@@ -2021,7 +2021,7 @@
         <v>73.55915832519531</v>
       </c>
       <c r="F70" t="n">
-        <v>69.83468627929688</v>
+        <v>69.83467864990234</v>
       </c>
       <c r="G70" t="n">
         <v>44291520</v>
@@ -2044,7 +2044,7 @@
         <v>72.81488800048828</v>
       </c>
       <c r="F71" t="n">
-        <v>69.12809753417969</v>
+        <v>69.12808990478516</v>
       </c>
       <c r="G71" t="n">
         <v>52378831</v>
@@ -2067,7 +2067,7 @@
         <v>73.9217529296875</v>
       </c>
       <c r="F72" t="n">
-        <v>70.17891693115234</v>
+        <v>70.17892456054688</v>
       </c>
       <c r="G72" t="n">
         <v>54068103</v>
@@ -2113,7 +2113,7 @@
         <v>71.08778381347656</v>
       </c>
       <c r="F74" t="n">
-        <v>67.48843383789062</v>
+        <v>67.48844146728516</v>
       </c>
       <c r="G74" t="n">
         <v>77213286</v>
@@ -2182,7 +2182,7 @@
         <v>75.55343627929688</v>
       </c>
       <c r="F77" t="n">
-        <v>71.72797393798828</v>
+        <v>71.72798156738281</v>
       </c>
       <c r="G77" t="n">
         <v>47817619</v>
@@ -2205,7 +2205,7 @@
         <v>72.41412353515625</v>
       </c>
       <c r="F78" t="n">
-        <v>68.74761962890625</v>
+        <v>68.74762725830078</v>
       </c>
       <c r="G78" t="n">
         <v>64400962</v>
@@ -2285,7 +2285,7 @@
         <v>76.61000061035156</v>
       </c>
       <c r="F82" t="n">
-        <v>72.73104858398438</v>
+        <v>72.73105621337891</v>
       </c>
       <c r="G82" t="n">
         <v>73189100</v>
@@ -2331,7 +2331,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F84" t="n">
-        <v>75.26169586181641</v>
+        <v>75.26168823242188</v>
       </c>
       <c r="G84" t="n">
         <v>47184700</v>
@@ -2377,7 +2377,7 @@
         <v>78.01999664306641</v>
       </c>
       <c r="F86" t="n">
-        <v>74.70632171630859</v>
+        <v>74.70633697509766</v>
       </c>
       <c r="G86" t="n">
         <v>39396400</v>
@@ -2400,7 +2400,7 @@
         <v>77.54000091552734</v>
       </c>
       <c r="F87" t="n">
-        <v>74.24671173095703</v>
+        <v>74.24671936035156</v>
       </c>
       <c r="G87" t="n">
         <v>44157200</v>
@@ -2538,7 +2538,7 @@
         <v>77.26000213623047</v>
       </c>
       <c r="F93" t="n">
-        <v>73.97861480712891</v>
+        <v>73.97860717773438</v>
       </c>
       <c r="G93" t="n">
         <v>40665600</v>
@@ -2618,7 +2618,7 @@
         <v>73.61000061035156</v>
       </c>
       <c r="F97" t="n">
-        <v>71.11529541015625</v>
+        <v>71.11528778076172</v>
       </c>
       <c r="G97" t="n">
         <v>64542200</v>
@@ -2641,7 +2641,7 @@
         <v>81.40000152587891</v>
       </c>
       <c r="F98" t="n">
-        <v>78.64128875732422</v>
+        <v>78.64128112792969</v>
       </c>
       <c r="G98" t="n">
         <v>155267200</v>
@@ -2687,7 +2687,7 @@
         <v>78.33000183105469</v>
       </c>
       <c r="F100" t="n">
-        <v>75.67532348632812</v>
+        <v>75.67533111572266</v>
       </c>
       <c r="G100" t="n">
         <v>59162000</v>
@@ -2779,7 +2779,7 @@
         <v>84</v>
       </c>
       <c r="F104" t="n">
-        <v>81.15316772460938</v>
+        <v>81.15317535400391</v>
       </c>
       <c r="G104" t="n">
         <v>52991800</v>
@@ -2825,7 +2825,7 @@
         <v>79.16000366210938</v>
       </c>
       <c r="F106" t="n">
-        <v>76.47719573974609</v>
+        <v>76.47720336914062</v>
       </c>
       <c r="G106" t="n">
         <v>49570000</v>
@@ -2871,7 +2871,7 @@
         <v>72.62000274658203</v>
       </c>
       <c r="F108" t="n">
-        <v>70.15884399414062</v>
+        <v>70.15885162353516</v>
       </c>
       <c r="G108" t="n">
         <v>68810100</v>
@@ -2894,7 +2894,7 @@
         <v>75.69000244140625</v>
       </c>
       <c r="F109" t="n">
-        <v>73.12479400634766</v>
+        <v>73.12480163574219</v>
       </c>
       <c r="G109" t="n">
         <v>95341500</v>
@@ -2928,7 +2928,7 @@
         <v>75.73000335693359</v>
       </c>
       <c r="F111" t="n">
-        <v>73.85755920410156</v>
+        <v>73.85756683349609</v>
       </c>
       <c r="G111" t="n">
         <v>45917500</v>
@@ -2951,7 +2951,7 @@
         <v>76.63999938964844</v>
       </c>
       <c r="F112" t="n">
-        <v>74.74504852294922</v>
+        <v>74.74505615234375</v>
       </c>
       <c r="G112" t="n">
         <v>29866500</v>
@@ -3020,7 +3020,7 @@
         <v>79.98000335693359</v>
       </c>
       <c r="F115" t="n">
-        <v>78.00247192382812</v>
+        <v>78.00247955322266</v>
       </c>
       <c r="G115" t="n">
         <v>56472600</v>
@@ -3066,7 +3066,7 @@
         <v>78.55999755859375</v>
       </c>
       <c r="F117" t="n">
-        <v>76.61758422851562</v>
+        <v>76.61757659912109</v>
       </c>
       <c r="G117" t="n">
         <v>67724100</v>
@@ -3089,7 +3089,7 @@
         <v>76.63999938964844</v>
       </c>
       <c r="F118" t="n">
-        <v>74.74504852294922</v>
+        <v>74.74505615234375</v>
       </c>
       <c r="G118" t="n">
         <v>78064800</v>
@@ -3250,7 +3250,7 @@
         <v>83.51999664306641</v>
       </c>
       <c r="F125" t="n">
-        <v>82.17949676513672</v>
+        <v>82.17950439453125</v>
       </c>
       <c r="G125" t="n">
         <v>46350700</v>
@@ -3273,7 +3273,7 @@
         <v>87.68000030517578</v>
       </c>
       <c r="F126" t="n">
-        <v>86.27274322509766</v>
+        <v>86.27273559570312</v>
       </c>
       <c r="G126" t="n">
         <v>59518400</v>
@@ -3296,7 +3296,7 @@
         <v>86.91000366210938</v>
       </c>
       <c r="F127" t="n">
-        <v>85.51509857177734</v>
+        <v>85.51510620117188</v>
       </c>
       <c r="G127" t="n">
         <v>61763900</v>
@@ -3388,7 +3388,7 @@
         <v>90.41000366210938</v>
       </c>
       <c r="F131" t="n">
-        <v>88.95892333984375</v>
+        <v>88.95893096923828</v>
       </c>
       <c r="G131" t="n">
         <v>65129200</v>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -493,7 +493,7 @@
         <v>87.07061004638672</v>
       </c>
       <c r="F2" t="n">
-        <v>79.42037200927734</v>
+        <v>79.42036437988281</v>
       </c>
       <c r="G2" t="n">
         <v>18865886</v>
@@ -516,7 +516,7 @@
         <v>85.42938995361328</v>
       </c>
       <c r="F3" t="n">
-        <v>77.92336273193359</v>
+        <v>77.92335510253906</v>
       </c>
       <c r="G3" t="n">
         <v>49515798</v>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.17667388916016</v>
+        <v>79.17668151855469</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -562,7 +562,7 @@
         <v>82.04198455810547</v>
       </c>
       <c r="F5" t="n">
-        <v>74.83357238769531</v>
+        <v>74.83358764648438</v>
       </c>
       <c r="G5" t="n">
         <v>45975656</v>
@@ -631,7 +631,7 @@
         <v>78.864501953125</v>
       </c>
       <c r="F8" t="n">
-        <v>71.93527984619141</v>
+        <v>71.93528747558594</v>
       </c>
       <c r="G8" t="n">
         <v>68606796</v>
@@ -654,7 +654,7 @@
         <v>78.56870269775391</v>
       </c>
       <c r="F9" t="n">
-        <v>71.66545867919922</v>
+        <v>71.66545104980469</v>
       </c>
       <c r="G9" t="n">
         <v>41994828</v>
@@ -723,7 +723,7 @@
         <v>73.23473358154297</v>
       </c>
       <c r="F12" t="n">
-        <v>66.80015563964844</v>
+        <v>66.80014038085938</v>
       </c>
       <c r="G12" t="n">
         <v>99266351</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>62.94668960571289</v>
+        <v>62.94669342041016</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -803,7 +803,7 @@
         <v>72.75763702392578</v>
       </c>
       <c r="F16" t="n">
-        <v>66.91323089599609</v>
+        <v>66.91321563720703</v>
       </c>
       <c r="G16" t="n">
         <v>65430832</v>
@@ -826,7 +826,7 @@
         <v>78.71183013916016</v>
       </c>
       <c r="F17" t="n">
-        <v>72.38913726806641</v>
+        <v>72.38912963867188</v>
       </c>
       <c r="G17" t="n">
         <v>50330514</v>
@@ -849,7 +849,7 @@
         <v>79.63740539550781</v>
       </c>
       <c r="F18" t="n">
-        <v>73.24034881591797</v>
+        <v>73.24036407470703</v>
       </c>
       <c r="G18" t="n">
         <v>55249303</v>
@@ -895,7 +895,7 @@
         <v>74.11259460449219</v>
       </c>
       <c r="F20" t="n">
-        <v>68.15933990478516</v>
+        <v>68.15933227539062</v>
       </c>
       <c r="G20" t="n">
         <v>67904950</v>
@@ -918,7 +918,7 @@
         <v>72.90076446533203</v>
       </c>
       <c r="F21" t="n">
-        <v>67.04484558105469</v>
+        <v>67.04485321044922</v>
       </c>
       <c r="G21" t="n">
         <v>50060654</v>
@@ -941,7 +941,7 @@
         <v>76.12595367431641</v>
       </c>
       <c r="F22" t="n">
-        <v>70.01096343994141</v>
+        <v>70.01097106933594</v>
       </c>
       <c r="G22" t="n">
         <v>51877153</v>
@@ -987,7 +987,7 @@
         <v>77.02290344238281</v>
       </c>
       <c r="F24" t="n">
-        <v>70.83586883544922</v>
+        <v>70.83587646484375</v>
       </c>
       <c r="G24" t="n">
         <v>58673014</v>
@@ -1067,7 +1067,7 @@
         <v>74.33206176757812</v>
       </c>
       <c r="F28" t="n">
-        <v>68.90456390380859</v>
+        <v>68.90457916259766</v>
       </c>
       <c r="G28" t="n">
         <v>78546553</v>
@@ -1113,7 +1113,7 @@
         <v>75.1717529296875</v>
       </c>
       <c r="F30" t="n">
-        <v>69.68294525146484</v>
+        <v>69.68296813964844</v>
       </c>
       <c r="G30" t="n">
         <v>33948388</v>
@@ -1136,7 +1136,7 @@
         <v>73.21565246582031</v>
       </c>
       <c r="F31" t="n">
-        <v>67.86968231201172</v>
+        <v>67.86968994140625</v>
       </c>
       <c r="G31" t="n">
         <v>36353548</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>70.6470947265625</v>
+        <v>70.64707946777344</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1182,7 +1182,7 @@
         <v>73.56870269775391</v>
       </c>
       <c r="F33" t="n">
-        <v>68.19696044921875</v>
+        <v>68.19695281982422</v>
       </c>
       <c r="G33" t="n">
         <v>47391502</v>
@@ -1205,7 +1205,7 @@
         <v>76.56488800048828</v>
       </c>
       <c r="F34" t="n">
-        <v>70.974365234375</v>
+        <v>70.97438049316406</v>
       </c>
       <c r="G34" t="n">
         <v>45294665</v>
@@ -1228,7 +1228,7 @@
         <v>77.30915832519531</v>
       </c>
       <c r="F35" t="n">
-        <v>71.66429138183594</v>
+        <v>71.66429901123047</v>
       </c>
       <c r="G35" t="n">
         <v>38546803</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>73.84024047851562</v>
+        <v>73.84023284912109</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1320,7 +1320,7 @@
         <v>81.33587646484375</v>
       </c>
       <c r="F39" t="n">
-        <v>75.39700317382812</v>
+        <v>75.39699554443359</v>
       </c>
       <c r="G39" t="n">
         <v>48641663</v>
@@ -1343,7 +1343,7 @@
         <v>80.61068725585938</v>
       </c>
       <c r="F40" t="n">
-        <v>74.72476196289062</v>
+        <v>74.72475433349609</v>
       </c>
       <c r="G40" t="n">
         <v>32036731</v>
@@ -1458,7 +1458,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F45" t="n">
-        <v>71.12527465820312</v>
+        <v>71.12526702880859</v>
       </c>
       <c r="G45" t="n">
         <v>43623732</v>
@@ -1481,7 +1481,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F46" t="n">
-        <v>71.12527465820312</v>
+        <v>71.12526702880859</v>
       </c>
       <c r="G46" t="n">
         <v>42834380</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.00904846191406</v>
+        <v>67.00905609130859</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1550,7 +1550,7 @@
         <v>77.37595367431641</v>
       </c>
       <c r="F49" t="n">
-        <v>72.24790191650391</v>
+        <v>72.24788665771484</v>
       </c>
       <c r="G49" t="n">
         <v>40678643</v>
@@ -1573,7 +1573,7 @@
         <v>76.76526641845703</v>
       </c>
       <c r="F50" t="n">
-        <v>71.67768096923828</v>
+        <v>71.67768859863281</v>
       </c>
       <c r="G50" t="n">
         <v>43143331</v>
@@ -1596,7 +1596,7 @@
         <v>76.20229339599609</v>
       </c>
       <c r="F51" t="n">
-        <v>71.15201568603516</v>
+        <v>71.15200805664062</v>
       </c>
       <c r="G51" t="n">
         <v>33957506</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.00520324707031</v>
+        <v>73.00519561767578</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1642,7 +1642,7 @@
         <v>79.16030120849609</v>
       </c>
       <c r="F53" t="n">
-        <v>73.91398620605469</v>
+        <v>73.91397857666016</v>
       </c>
       <c r="G53" t="n">
         <v>39990842</v>
@@ -1665,7 +1665,7 @@
         <v>75.88740539550781</v>
       </c>
       <c r="F54" t="n">
-        <v>70.85799407958984</v>
+        <v>70.85800170898438</v>
       </c>
       <c r="G54" t="n">
         <v>77586584</v>
@@ -1711,7 +1711,7 @@
         <v>78.05343627929688</v>
       </c>
       <c r="F56" t="n">
-        <v>73.45600128173828</v>
+        <v>73.45600891113281</v>
       </c>
       <c r="G56" t="n">
         <v>21956754</v>
@@ -1757,7 +1757,7 @@
         <v>79.56106567382812</v>
       </c>
       <c r="F58" t="n">
-        <v>74.87483215332031</v>
+        <v>74.87482452392578</v>
       </c>
       <c r="G58" t="n">
         <v>55280533</v>
@@ -1780,7 +1780,7 @@
         <v>77.27098846435547</v>
       </c>
       <c r="F59" t="n">
-        <v>72.71965026855469</v>
+        <v>72.71964263916016</v>
       </c>
       <c r="G59" t="n">
         <v>38045859</v>
@@ -1803,7 +1803,7 @@
         <v>73.54007720947266</v>
       </c>
       <c r="F60" t="n">
-        <v>69.20849609375</v>
+        <v>69.20848846435547</v>
       </c>
       <c r="G60" t="n">
         <v>57579845</v>
@@ -1849,7 +1849,7 @@
         <v>71.56488800048828</v>
       </c>
       <c r="F62" t="n">
-        <v>67.34963226318359</v>
+        <v>67.34963989257812</v>
       </c>
       <c r="G62" t="n">
         <v>57443814</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>66.73001098632812</v>
+        <v>66.73001861572266</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1895,7 +1895,7 @@
         <v>69.29389190673828</v>
       </c>
       <c r="F64" t="n">
-        <v>65.21240234375</v>
+        <v>65.21240997314453</v>
       </c>
       <c r="G64" t="n">
         <v>57903573</v>
@@ -1975,7 +1975,7 @@
         <v>73.95992279052734</v>
       </c>
       <c r="F68" t="n">
-        <v>70.21514892578125</v>
+        <v>70.21515655517578</v>
       </c>
       <c r="G68" t="n">
         <v>123730442</v>
@@ -1998,7 +1998,7 @@
         <v>73.84542083740234</v>
       </c>
       <c r="F69" t="n">
-        <v>70.1064453125</v>
+        <v>70.10643768310547</v>
       </c>
       <c r="G69" t="n">
         <v>53230225</v>
@@ -2021,7 +2021,7 @@
         <v>73.55915832519531</v>
       </c>
       <c r="F70" t="n">
-        <v>69.83467864990234</v>
+        <v>69.83468627929688</v>
       </c>
       <c r="G70" t="n">
         <v>44291520</v>
@@ -2044,7 +2044,7 @@
         <v>72.81488800048828</v>
       </c>
       <c r="F71" t="n">
-        <v>69.12808990478516</v>
+        <v>69.12809753417969</v>
       </c>
       <c r="G71" t="n">
         <v>52378831</v>
@@ -2067,7 +2067,7 @@
         <v>73.9217529296875</v>
       </c>
       <c r="F72" t="n">
-        <v>70.17892456054688</v>
+        <v>70.17890930175781</v>
       </c>
       <c r="G72" t="n">
         <v>54068103</v>
@@ -2090,7 +2090,7 @@
         <v>74.31298065185547</v>
       </c>
       <c r="F73" t="n">
-        <v>70.55033111572266</v>
+        <v>70.55033874511719</v>
       </c>
       <c r="G73" t="n">
         <v>53292896</v>
@@ -2159,7 +2159,7 @@
         <v>74.70420074462891</v>
       </c>
       <c r="F76" t="n">
-        <v>70.92174530029297</v>
+        <v>70.9217529296875</v>
       </c>
       <c r="G76" t="n">
         <v>55571144</v>
@@ -2182,7 +2182,7 @@
         <v>75.55343627929688</v>
       </c>
       <c r="F77" t="n">
-        <v>71.72798156738281</v>
+        <v>71.72797393798828</v>
       </c>
       <c r="G77" t="n">
         <v>47817619</v>
@@ -2308,7 +2308,7 @@
         <v>77.19999694824219</v>
       </c>
       <c r="F83" t="n">
-        <v>73.92115020751953</v>
+        <v>73.92115783691406</v>
       </c>
       <c r="G83" t="n">
         <v>90264500</v>
@@ -2354,7 +2354,7 @@
         <v>77.98999786376953</v>
       </c>
       <c r="F85" t="n">
-        <v>74.67759704589844</v>
+        <v>74.67760467529297</v>
       </c>
       <c r="G85" t="n">
         <v>29402500</v>
@@ -2377,7 +2377,7 @@
         <v>78.01999664306641</v>
       </c>
       <c r="F86" t="n">
-        <v>74.70633697509766</v>
+        <v>74.70632171630859</v>
       </c>
       <c r="G86" t="n">
         <v>39396400</v>
@@ -2423,7 +2423,7 @@
         <v>76.87000274658203</v>
       </c>
       <c r="F88" t="n">
-        <v>73.60517120361328</v>
+        <v>73.60517883300781</v>
       </c>
       <c r="G88" t="n">
         <v>48833200</v>
@@ -2492,7 +2492,7 @@
         <v>78.68000030517578</v>
       </c>
       <c r="F91" t="n">
-        <v>75.33830261230469</v>
+        <v>75.33829498291016</v>
       </c>
       <c r="G91" t="n">
         <v>42288700</v>
@@ -2538,7 +2538,7 @@
         <v>77.26000213623047</v>
       </c>
       <c r="F93" t="n">
-        <v>73.97860717773438</v>
+        <v>73.97862243652344</v>
       </c>
       <c r="G93" t="n">
         <v>40665600</v>
@@ -2561,7 +2561,7 @@
         <v>73.44999694824219</v>
       </c>
       <c r="F94" t="n">
-        <v>70.33042907714844</v>
+        <v>70.33042144775391</v>
       </c>
       <c r="G94" t="n">
         <v>47935700</v>
@@ -2641,7 +2641,7 @@
         <v>81.40000152587891</v>
       </c>
       <c r="F98" t="n">
-        <v>78.64128112792969</v>
+        <v>78.64128875732422</v>
       </c>
       <c r="G98" t="n">
         <v>155267200</v>
@@ -2733,7 +2733,7 @@
         <v>88.05000305175781</v>
       </c>
       <c r="F102" t="n">
-        <v>85.06591796875</v>
+        <v>85.06591033935547</v>
       </c>
       <c r="G102" t="n">
         <v>74717100</v>
@@ -2779,7 +2779,7 @@
         <v>84</v>
       </c>
       <c r="F104" t="n">
-        <v>81.15317535400391</v>
+        <v>81.15316009521484</v>
       </c>
       <c r="G104" t="n">
         <v>52991800</v>
@@ -2848,7 +2848,7 @@
         <v>73.33999633789062</v>
       </c>
       <c r="F107" t="n">
-        <v>70.85443878173828</v>
+        <v>70.85444641113281</v>
       </c>
       <c r="G107" t="n">
         <v>115662400</v>
@@ -2928,7 +2928,7 @@
         <v>75.73000335693359</v>
       </c>
       <c r="F111" t="n">
-        <v>73.85756683349609</v>
+        <v>73.85755920410156</v>
       </c>
       <c r="G111" t="n">
         <v>45917500</v>
@@ -3043,7 +3043,7 @@
         <v>80.90000152587891</v>
       </c>
       <c r="F116" t="n">
-        <v>78.89972686767578</v>
+        <v>78.89973449707031</v>
       </c>
       <c r="G116" t="n">
         <v>78100500</v>
@@ -3066,7 +3066,7 @@
         <v>78.55999755859375</v>
       </c>
       <c r="F117" t="n">
-        <v>76.61757659912109</v>
+        <v>76.61759185791016</v>
       </c>
       <c r="G117" t="n">
         <v>67724100</v>
@@ -3250,7 +3250,7 @@
         <v>83.51999664306641</v>
       </c>
       <c r="F125" t="n">
-        <v>82.17950439453125</v>
+        <v>82.17949676513672</v>
       </c>
       <c r="G125" t="n">
         <v>46350700</v>
@@ -3273,7 +3273,7 @@
         <v>87.68000030517578</v>
       </c>
       <c r="F126" t="n">
-        <v>86.27273559570312</v>
+        <v>86.27274322509766</v>
       </c>
       <c r="G126" t="n">
         <v>59518400</v>
@@ -3296,7 +3296,7 @@
         <v>86.91000366210938</v>
       </c>
       <c r="F127" t="n">
-        <v>85.51510620117188</v>
+        <v>85.51509857177734</v>
       </c>
       <c r="G127" t="n">
         <v>61763900</v>
@@ -3388,7 +3388,7 @@
         <v>90.41000366210938</v>
       </c>
       <c r="F131" t="n">
-        <v>88.95893096923828</v>
+        <v>88.95892333984375</v>
       </c>
       <c r="G131" t="n">
         <v>65129200</v>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -493,7 +493,7 @@
         <v>87.07061004638672</v>
       </c>
       <c r="F2" t="n">
-        <v>79.42036437988281</v>
+        <v>79.42037200927734</v>
       </c>
       <c r="G2" t="n">
         <v>18865886</v>
@@ -516,7 +516,7 @@
         <v>85.42938995361328</v>
       </c>
       <c r="F3" t="n">
-        <v>77.92335510253906</v>
+        <v>77.92336273193359</v>
       </c>
       <c r="G3" t="n">
         <v>49515798</v>
@@ -539,7 +539,7 @@
         <v>86.80343627929688</v>
       </c>
       <c r="F4" t="n">
-        <v>79.17668151855469</v>
+        <v>79.17667388916016</v>
       </c>
       <c r="G4" t="n">
         <v>45884899</v>
@@ -562,7 +562,7 @@
         <v>82.04198455810547</v>
       </c>
       <c r="F5" t="n">
-        <v>74.83358764648438</v>
+        <v>74.83357238769531</v>
       </c>
       <c r="G5" t="n">
         <v>45975656</v>
@@ -585,7 +585,7 @@
         <v>81.52671813964844</v>
       </c>
       <c r="F6" t="n">
-        <v>74.36357116699219</v>
+        <v>74.36358642578125</v>
       </c>
       <c r="G6" t="n">
         <v>49493162</v>
@@ -608,7 +608,7 @@
         <v>81.18320465087891</v>
       </c>
       <c r="F7" t="n">
-        <v>74.05025482177734</v>
+        <v>74.05024719238281</v>
       </c>
       <c r="G7" t="n">
         <v>81640353</v>
@@ -631,7 +631,7 @@
         <v>78.864501953125</v>
       </c>
       <c r="F8" t="n">
-        <v>71.93528747558594</v>
+        <v>71.93527984619141</v>
       </c>
       <c r="G8" t="n">
         <v>68606796</v>
@@ -654,7 +654,7 @@
         <v>78.56870269775391</v>
       </c>
       <c r="F9" t="n">
-        <v>71.66545104980469</v>
+        <v>71.66547393798828</v>
       </c>
       <c r="G9" t="n">
         <v>41994828</v>
@@ -677,7 +677,7 @@
         <v>73.05343627929688</v>
       </c>
       <c r="F10" t="n">
-        <v>66.63479614257812</v>
+        <v>66.63478088378906</v>
       </c>
       <c r="G10" t="n">
         <v>83826481</v>
@@ -723,7 +723,7 @@
         <v>73.23473358154297</v>
       </c>
       <c r="F12" t="n">
-        <v>66.80014038085938</v>
+        <v>66.80014801025391</v>
       </c>
       <c r="G12" t="n">
         <v>99266351</v>
@@ -780,7 +780,7 @@
         <v>68.44465637207031</v>
       </c>
       <c r="F15" t="n">
-        <v>62.94669342041016</v>
+        <v>62.94668197631836</v>
       </c>
       <c r="G15" t="n">
         <v>87108502</v>
@@ -803,7 +803,7 @@
         <v>72.75763702392578</v>
       </c>
       <c r="F16" t="n">
-        <v>66.91321563720703</v>
+        <v>66.91322326660156</v>
       </c>
       <c r="G16" t="n">
         <v>65430832</v>
@@ -826,7 +826,7 @@
         <v>78.71183013916016</v>
       </c>
       <c r="F17" t="n">
-        <v>72.38912963867188</v>
+        <v>72.38913726806641</v>
       </c>
       <c r="G17" t="n">
         <v>50330514</v>
@@ -872,7 +872,7 @@
         <v>77.70037841796875</v>
       </c>
       <c r="F19" t="n">
-        <v>71.45892333984375</v>
+        <v>71.45893859863281</v>
       </c>
       <c r="G19" t="n">
         <v>57325180</v>
@@ -895,7 +895,7 @@
         <v>74.11259460449219</v>
       </c>
       <c r="F20" t="n">
-        <v>68.15933227539062</v>
+        <v>68.15933990478516</v>
       </c>
       <c r="G20" t="n">
         <v>67904950</v>
@@ -918,7 +918,7 @@
         <v>72.90076446533203</v>
       </c>
       <c r="F21" t="n">
-        <v>67.04485321044922</v>
+        <v>67.04486083984375</v>
       </c>
       <c r="G21" t="n">
         <v>50060654</v>
@@ -941,7 +941,7 @@
         <v>76.12595367431641</v>
       </c>
       <c r="F22" t="n">
-        <v>70.01097106933594</v>
+        <v>70.01096343994141</v>
       </c>
       <c r="G22" t="n">
         <v>51877153</v>
@@ -964,7 +964,7 @@
         <v>72.87213897705078</v>
       </c>
       <c r="F23" t="n">
-        <v>67.01853179931641</v>
+        <v>67.01853942871094</v>
       </c>
       <c r="G23" t="n">
         <v>49529948</v>
@@ -987,7 +987,7 @@
         <v>77.02290344238281</v>
       </c>
       <c r="F24" t="n">
-        <v>70.83587646484375</v>
+        <v>70.83586883544922</v>
       </c>
       <c r="G24" t="n">
         <v>58673014</v>
@@ -1067,7 +1067,7 @@
         <v>74.33206176757812</v>
       </c>
       <c r="F28" t="n">
-        <v>68.90457916259766</v>
+        <v>68.90458679199219</v>
       </c>
       <c r="G28" t="n">
         <v>78546553</v>
@@ -1090,7 +1090,7 @@
         <v>71.74618530273438</v>
       </c>
       <c r="F29" t="n">
-        <v>66.50751495361328</v>
+        <v>66.50750732421875</v>
       </c>
       <c r="G29" t="n">
         <v>46899992</v>
@@ -1113,7 +1113,7 @@
         <v>75.1717529296875</v>
       </c>
       <c r="F30" t="n">
-        <v>69.68296813964844</v>
+        <v>69.68296051025391</v>
       </c>
       <c r="G30" t="n">
         <v>33948388</v>
@@ -1136,7 +1136,7 @@
         <v>73.21565246582031</v>
       </c>
       <c r="F31" t="n">
-        <v>67.86968994140625</v>
+        <v>67.86967468261719</v>
       </c>
       <c r="G31" t="n">
         <v>36353548</v>
@@ -1159,7 +1159,7 @@
         <v>76.21183013916016</v>
       </c>
       <c r="F32" t="n">
-        <v>70.64707946777344</v>
+        <v>70.6470947265625</v>
       </c>
       <c r="G32" t="n">
         <v>38263214</v>
@@ -1205,7 +1205,7 @@
         <v>76.56488800048828</v>
       </c>
       <c r="F34" t="n">
-        <v>70.97438049316406</v>
+        <v>70.974365234375</v>
       </c>
       <c r="G34" t="n">
         <v>45294665</v>
@@ -1251,7 +1251,7 @@
         <v>79.65648651123047</v>
       </c>
       <c r="F36" t="n">
-        <v>73.84023284912109</v>
+        <v>73.84022521972656</v>
       </c>
       <c r="G36" t="n">
         <v>35560526</v>
@@ -1274,7 +1274,7 @@
         <v>81.08778381347656</v>
       </c>
       <c r="F37" t="n">
-        <v>75.16702270507812</v>
+        <v>75.16701507568359</v>
       </c>
       <c r="G37" t="n">
         <v>35482870</v>
@@ -1297,7 +1297,7 @@
         <v>81.72709655761719</v>
       </c>
       <c r="F38" t="n">
-        <v>75.7596435546875</v>
+        <v>75.75965118408203</v>
       </c>
       <c r="G38" t="n">
         <v>38271388</v>
@@ -1320,7 +1320,7 @@
         <v>81.33587646484375</v>
       </c>
       <c r="F39" t="n">
-        <v>75.39699554443359</v>
+        <v>75.39698791503906</v>
       </c>
       <c r="G39" t="n">
         <v>48641663</v>
@@ -1343,7 +1343,7 @@
         <v>80.61068725585938</v>
       </c>
       <c r="F40" t="n">
-        <v>74.72475433349609</v>
+        <v>74.72476196289062</v>
       </c>
       <c r="G40" t="n">
         <v>32036731</v>
@@ -1412,7 +1412,7 @@
         <v>77.09923553466797</v>
       </c>
       <c r="F43" t="n">
-        <v>71.98952484130859</v>
+        <v>71.98950958251953</v>
       </c>
       <c r="G43" t="n">
         <v>38125403</v>
@@ -1435,7 +1435,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F44" t="n">
-        <v>71.59749603271484</v>
+        <v>71.59748077392578</v>
       </c>
       <c r="G44" t="n">
         <v>44098896</v>
@@ -1458,7 +1458,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F45" t="n">
-        <v>71.12526702880859</v>
+        <v>71.12528228759766</v>
       </c>
       <c r="G45" t="n">
         <v>43623732</v>
@@ -1481,7 +1481,7 @@
         <v>76.17366027832031</v>
       </c>
       <c r="F46" t="n">
-        <v>71.12526702880859</v>
+        <v>71.12528228759766</v>
       </c>
       <c r="G46" t="n">
         <v>42834380</v>
@@ -1504,7 +1504,7 @@
         <v>71.76526641845703</v>
       </c>
       <c r="F47" t="n">
-        <v>67.00905609130859</v>
+        <v>67.00904083251953</v>
       </c>
       <c r="G47" t="n">
         <v>50765226</v>
@@ -1527,7 +1527,7 @@
         <v>76.67938995361328</v>
       </c>
       <c r="F48" t="n">
-        <v>71.59749603271484</v>
+        <v>71.59748077392578</v>
       </c>
       <c r="G48" t="n">
         <v>46793200</v>
@@ -1573,7 +1573,7 @@
         <v>76.76526641845703</v>
       </c>
       <c r="F50" t="n">
-        <v>71.67768859863281</v>
+        <v>71.67767333984375</v>
       </c>
       <c r="G50" t="n">
         <v>43143331</v>
@@ -1619,7 +1619,7 @@
         <v>78.18701934814453</v>
       </c>
       <c r="F52" t="n">
-        <v>73.00519561767578</v>
+        <v>73.00521087646484</v>
       </c>
       <c r="G52" t="n">
         <v>47570921</v>
@@ -1688,7 +1688,7 @@
         <v>76.46946716308594</v>
       </c>
       <c r="F55" t="n">
-        <v>71.96533203125</v>
+        <v>71.96533966064453</v>
       </c>
       <c r="G55" t="n">
         <v>29206712</v>
@@ -1711,7 +1711,7 @@
         <v>78.05343627929688</v>
       </c>
       <c r="F56" t="n">
-        <v>73.45600891113281</v>
+        <v>73.45600128173828</v>
       </c>
       <c r="G56" t="n">
         <v>21956754</v>
@@ -1734,7 +1734,7 @@
         <v>79.22709655761719</v>
       </c>
       <c r="F57" t="n">
-        <v>74.560546875</v>
+        <v>74.56053924560547</v>
       </c>
       <c r="G57" t="n">
         <v>51991595</v>
@@ -1757,7 +1757,7 @@
         <v>79.56106567382812</v>
       </c>
       <c r="F58" t="n">
-        <v>74.87482452392578</v>
+        <v>74.87484741210938</v>
       </c>
       <c r="G58" t="n">
         <v>55280533</v>
@@ -1826,7 +1826,7 @@
         <v>72.3282470703125</v>
       </c>
       <c r="F61" t="n">
-        <v>68.06803894042969</v>
+        <v>68.06804656982422</v>
       </c>
       <c r="G61" t="n">
         <v>60895507</v>
@@ -1872,7 +1872,7 @@
         <v>70.90648651123047</v>
       </c>
       <c r="F63" t="n">
-        <v>66.73001861572266</v>
+        <v>66.73002624511719</v>
       </c>
       <c r="G63" t="n">
         <v>46003741</v>
@@ -1975,7 +1975,7 @@
         <v>73.95992279052734</v>
       </c>
       <c r="F68" t="n">
-        <v>70.21515655517578</v>
+        <v>70.21514892578125</v>
       </c>
       <c r="G68" t="n">
         <v>123730442</v>
@@ -1998,7 +1998,7 @@
         <v>73.84542083740234</v>
       </c>
       <c r="F69" t="n">
-        <v>70.10643768310547</v>
+        <v>70.1064453125</v>
       </c>
       <c r="G69" t="n">
         <v>53230225</v>
@@ -2067,7 +2067,7 @@
         <v>73.9217529296875</v>
       </c>
       <c r="F72" t="n">
-        <v>70.17890930175781</v>
+        <v>70.17892456054688</v>
       </c>
       <c r="G72" t="n">
         <v>54068103</v>
@@ -2090,7 +2090,7 @@
         <v>74.31298065185547</v>
       </c>
       <c r="F73" t="n">
-        <v>70.55033874511719</v>
+        <v>70.55033111572266</v>
       </c>
       <c r="G73" t="n">
         <v>53292896</v>
@@ -2113,7 +2113,7 @@
         <v>71.08778381347656</v>
       </c>
       <c r="F74" t="n">
-        <v>67.48844146728516</v>
+        <v>67.48843383789062</v>
       </c>
       <c r="G74" t="n">
         <v>77213286</v>
@@ -2136,7 +2136,7 @@
         <v>74.81870269775391</v>
       </c>
       <c r="F75" t="n">
-        <v>71.03044891357422</v>
+        <v>71.03045654296875</v>
       </c>
       <c r="G75" t="n">
         <v>64866169</v>
@@ -2159,7 +2159,7 @@
         <v>74.70420074462891</v>
       </c>
       <c r="F76" t="n">
-        <v>70.9217529296875</v>
+        <v>70.92174530029297</v>
       </c>
       <c r="G76" t="n">
         <v>55571144</v>
@@ -2182,7 +2182,7 @@
         <v>75.55343627929688</v>
       </c>
       <c r="F77" t="n">
-        <v>71.72797393798828</v>
+        <v>71.72798156738281</v>
       </c>
       <c r="G77" t="n">
         <v>47817619</v>
@@ -2262,7 +2262,7 @@
         <v>76.26999664306641</v>
       </c>
       <c r="F81" t="n">
-        <v>72.40826416015625</v>
+        <v>72.40825653076172</v>
       </c>
       <c r="G81" t="n">
         <v>73875900</v>
@@ -2308,7 +2308,7 @@
         <v>77.19999694824219</v>
       </c>
       <c r="F83" t="n">
-        <v>73.92115783691406</v>
+        <v>73.92115020751953</v>
       </c>
       <c r="G83" t="n">
         <v>90264500</v>
@@ -2354,7 +2354,7 @@
         <v>77.98999786376953</v>
       </c>
       <c r="F85" t="n">
-        <v>74.67760467529297</v>
+        <v>74.67759704589844</v>
       </c>
       <c r="G85" t="n">
         <v>29402500</v>
@@ -2377,7 +2377,7 @@
         <v>78.01999664306641</v>
       </c>
       <c r="F86" t="n">
-        <v>74.70632171630859</v>
+        <v>74.70633697509766</v>
       </c>
       <c r="G86" t="n">
         <v>39396400</v>
@@ -2423,7 +2423,7 @@
         <v>76.87000274658203</v>
       </c>
       <c r="F88" t="n">
-        <v>73.60517883300781</v>
+        <v>73.60517120361328</v>
       </c>
       <c r="G88" t="n">
         <v>48833200</v>
@@ -2538,7 +2538,7 @@
         <v>77.26000213623047</v>
       </c>
       <c r="F93" t="n">
-        <v>73.97862243652344</v>
+        <v>73.97860717773438</v>
       </c>
       <c r="G93" t="n">
         <v>40665600</v>
@@ -2664,7 +2664,7 @@
         <v>80.62999725341797</v>
       </c>
       <c r="F99" t="n">
-        <v>77.89737701416016</v>
+        <v>77.89738464355469</v>
       </c>
       <c r="G99" t="n">
         <v>126450700</v>
@@ -2710,7 +2710,7 @@
         <v>81.15000152587891</v>
       </c>
       <c r="F101" t="n">
-        <v>78.39975738525391</v>
+        <v>78.39976501464844</v>
       </c>
       <c r="G101" t="n">
         <v>57555300</v>
@@ -2733,7 +2733,7 @@
         <v>88.05000305175781</v>
       </c>
       <c r="F102" t="n">
-        <v>85.06591033935547</v>
+        <v>85.06591796875</v>
       </c>
       <c r="G102" t="n">
         <v>74717100</v>
@@ -2756,7 +2756,7 @@
         <v>81.61000061035156</v>
       </c>
       <c r="F103" t="n">
-        <v>78.84416961669922</v>
+        <v>78.84416198730469</v>
       </c>
       <c r="G103" t="n">
         <v>93642900</v>
@@ -2779,7 +2779,7 @@
         <v>84</v>
       </c>
       <c r="F104" t="n">
-        <v>81.15316009521484</v>
+        <v>81.15316772460938</v>
       </c>
       <c r="G104" t="n">
         <v>52991800</v>
@@ -2802,7 +2802,7 @@
         <v>80.69999694824219</v>
       </c>
       <c r="F105" t="n">
-        <v>77.96499633789062</v>
+        <v>77.96500396728516</v>
       </c>
       <c r="G105" t="n">
         <v>55374400</v>
@@ -2848,7 +2848,7 @@
         <v>73.33999633789062</v>
       </c>
       <c r="F107" t="n">
-        <v>70.85444641113281</v>
+        <v>70.85443878173828</v>
       </c>
       <c r="G107" t="n">
         <v>115662400</v>
@@ -2928,7 +2928,7 @@
         <v>75.73000335693359</v>
       </c>
       <c r="F111" t="n">
-        <v>73.85755920410156</v>
+        <v>73.85756683349609</v>
       </c>
       <c r="G111" t="n">
         <v>45917500</v>
@@ -3135,7 +3135,7 @@
         <v>76.31999969482422</v>
       </c>
       <c r="F120" t="n">
-        <v>74.43296813964844</v>
+        <v>74.43297576904297</v>
       </c>
       <c r="G120" t="n">
         <v>53513100</v>
@@ -3158,7 +3158,7 @@
         <v>77.83000183105469</v>
       </c>
       <c r="F121" t="n">
-        <v>75.90563201904297</v>
+        <v>75.9056396484375</v>
       </c>
       <c r="G121" t="n">
         <v>54038300</v>

--- a/Excel reports/mrk_raw_dataset.xlsx
+++ b/Excel reports/mrk_raw_dataset.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -431,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,3380 +471,3628 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>43829</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>86.75572204589844</v>
+        <v>91.08</v>
       </c>
       <c r="C2" t="n">
-        <v>87.91984558105469</v>
+        <v>92.14</v>
       </c>
       <c r="D2" t="n">
-        <v>86.23091888427734</v>
+        <v>90.36499999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>87.07061004638672</v>
+        <v>91.25</v>
       </c>
       <c r="F2" t="n">
-        <v>79.42037200927734</v>
+        <v>79.4224</v>
       </c>
       <c r="G2" t="n">
-        <v>18865886</v>
+        <v>13510415</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43836</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>87.05152893066406</v>
+        <v>91.23</v>
       </c>
       <c r="C3" t="n">
-        <v>87.53816986083984</v>
+        <v>91.735</v>
       </c>
       <c r="D3" t="n">
-        <v>84.36068725585938</v>
+        <v>88.41</v>
       </c>
       <c r="E3" t="n">
-        <v>85.42938995361328</v>
+        <v>89.53</v>
       </c>
       <c r="F3" t="n">
-        <v>77.92336273193359</v>
+        <v>77.9254</v>
       </c>
       <c r="G3" t="n">
-        <v>49515798</v>
+        <v>47256926</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>43843</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>85.41984558105469</v>
+        <v>89.52</v>
       </c>
       <c r="C4" t="n">
-        <v>87.84351348876953</v>
+        <v>92.05540000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>84.79962158203125</v>
+        <v>88.87</v>
       </c>
       <c r="E4" t="n">
-        <v>86.80343627929688</v>
+        <v>90.97</v>
       </c>
       <c r="F4" t="n">
-        <v>79.17667388916016</v>
+        <v>79.17870000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>45884899</v>
+        <v>43785406</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>43850</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2020-01-21</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>86.56488800048828</v>
+        <v>90.72</v>
       </c>
       <c r="C5" t="n">
-        <v>86.80343627929688</v>
+        <v>90.97</v>
       </c>
       <c r="D5" t="n">
-        <v>81.66030120849609</v>
+        <v>85.58</v>
       </c>
       <c r="E5" t="n">
-        <v>82.04198455810547</v>
+        <v>85.98</v>
       </c>
       <c r="F5" t="n">
-        <v>74.83357238769531</v>
+        <v>74.8355</v>
       </c>
       <c r="G5" t="n">
-        <v>45975656</v>
+        <v>43870859</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>43857</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2020-01-27</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>81.20229339599609</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>84.12213897705078</v>
+        <v>88.16</v>
       </c>
       <c r="D6" t="n">
-        <v>80.83015441894531</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>81.52671813964844</v>
+        <v>85.44</v>
       </c>
       <c r="F6" t="n">
-        <v>74.36358642578125</v>
+        <v>74.3655</v>
       </c>
       <c r="G6" t="n">
-        <v>49493162</v>
+        <v>47226440</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>43864</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2020-02-03</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>82.09923553466797</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>85.114501953125</v>
+        <v>89.2</v>
       </c>
       <c r="D7" t="n">
-        <v>80.15267181396484</v>
+        <v>84</v>
       </c>
       <c r="E7" t="n">
-        <v>81.18320465087891</v>
+        <v>85.08</v>
       </c>
       <c r="F7" t="n">
-        <v>74.05024719238281</v>
+        <v>74.0522</v>
       </c>
       <c r="G7" t="n">
-        <v>81640353</v>
+        <v>77903757</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>43871</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2020-02-10</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>81.18320465087891</v>
+        <v>85.08</v>
       </c>
       <c r="C8" t="n">
-        <v>82.06106567382812</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>77.71946716308594</v>
+        <v>81.45</v>
       </c>
       <c r="E8" t="n">
-        <v>78.864501953125</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>71.93527984619141</v>
+        <v>71.9372</v>
       </c>
       <c r="G8" t="n">
-        <v>68606796</v>
+        <v>65464696</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>43878</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>79.08396911621094</v>
+        <v>82.88</v>
       </c>
       <c r="C9" t="n">
-        <v>79.30343627929688</v>
+        <v>83.11</v>
       </c>
       <c r="D9" t="n">
-        <v>77.83396911621094</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>78.56870269775391</v>
+        <v>82.34</v>
       </c>
       <c r="F9" t="n">
-        <v>71.66547393798828</v>
+        <v>71.6673</v>
       </c>
       <c r="G9" t="n">
-        <v>41994828</v>
+        <v>40073408</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>43885</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>76.91793823242188</v>
+        <v>80.61</v>
       </c>
       <c r="C10" t="n">
-        <v>78.8072509765625</v>
+        <v>82.5881</v>
       </c>
       <c r="D10" t="n">
-        <v>70.78244018554688</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>73.05343627929688</v>
+        <v>76.56</v>
       </c>
       <c r="F10" t="n">
-        <v>66.63478088378906</v>
+        <v>66.6365</v>
       </c>
       <c r="G10" t="n">
-        <v>83826481</v>
+        <v>80003796</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>43892</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>73.59732818603516</v>
+        <v>77.13</v>
       </c>
       <c r="C11" t="n">
-        <v>79.26526641845703</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>73.54962158203125</v>
+        <v>77.08</v>
       </c>
       <c r="E11" t="n">
-        <v>78.43511199951172</v>
+        <v>82.2</v>
       </c>
       <c r="F11" t="n">
-        <v>71.54361724853516</v>
+        <v>71.5455</v>
       </c>
       <c r="G11" t="n">
-        <v>85685737</v>
+        <v>81761637</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>43899</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>74.42748260498047</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
-        <v>78.41603088378906</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>68.95037841796875</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>73.23473358154297</v>
+        <v>76.75</v>
       </c>
       <c r="F12" t="n">
-        <v>66.80014801025391</v>
+        <v>67.35339999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>99266351</v>
+        <v>94723176</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>43903</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70.77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="D13" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>71.36</v>
+      </c>
+      <c r="F13" t="n">
+        <v>62.6233</v>
+      </c>
+      <c r="G13" t="n">
+        <v>101581578</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>43906</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>67.52862548828125</v>
+        <v>70.27</v>
       </c>
       <c r="C14" t="n">
-        <v>72.60496520996094</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>64.04579925537109</v>
+        <v>65.25</v>
       </c>
       <c r="E14" t="n">
-        <v>68.09160614013672</v>
+        <v>71.73</v>
       </c>
       <c r="F14" t="n">
-        <v>62.62200927734375</v>
+        <v>62.9481</v>
       </c>
       <c r="G14" t="n">
-        <v>106457307</v>
+        <v>83121917</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>43913</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>67.05152893066406</v>
+        <v>73.62</v>
       </c>
       <c r="C15" t="n">
-        <v>70.78244018554688</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>62.26145172119141</v>
+        <v>72.88</v>
       </c>
       <c r="E15" t="n">
-        <v>68.44465637207031</v>
+        <v>76.25</v>
       </c>
       <c r="F15" t="n">
-        <v>62.94668197631836</v>
+        <v>66.91459999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>87108502</v>
+        <v>62435918</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>43920</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>70.24809265136719</v>
+        <v>78.33</v>
       </c>
       <c r="C16" t="n">
-        <v>74.04579925537109</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>69.54198455810547</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>72.75763702392578</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>66.91322326660156</v>
+        <v>72.39060000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>65430832</v>
+        <v>48025868</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>43927</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>74.74236297607422</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>79.47518920898438</v>
+        <v>84.16</v>
       </c>
       <c r="D17" t="n">
-        <v>74.33206176757812</v>
+        <v>79.83</v>
       </c>
       <c r="E17" t="n">
-        <v>78.71183013916016</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>72.38913726806641</v>
+        <v>73.2419</v>
       </c>
       <c r="G17" t="n">
-        <v>50330514</v>
+        <v>52718794</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>43934</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>78.07251739501953</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>80.30534362792969</v>
+        <v>84.13</v>
       </c>
       <c r="D18" t="n">
-        <v>76.17366027832031</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>79.63740539550781</v>
+        <v>81.43000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>73.24036407470703</v>
+        <v>71.46040000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>55249303</v>
+        <v>54700231</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>43941</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>79.02671813964844</v>
+        <v>81.23</v>
       </c>
       <c r="C19" t="n">
-        <v>80.27671813964844</v>
+        <v>84.67</v>
       </c>
       <c r="D19" t="n">
-        <v>74.62786102294922</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>77.70037841796875</v>
+        <v>77.67</v>
       </c>
       <c r="F19" t="n">
-        <v>71.45893859863281</v>
+        <v>68.16079999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>57325180</v>
+        <v>64795166</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>43948</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>77.50954437255859</v>
+        <v>78.02</v>
       </c>
       <c r="C20" t="n">
-        <v>80.79198455810547</v>
+        <v>78.80249999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>73.40648651123047</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>74.11259460449219</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>68.15933990478516</v>
+        <v>67.0463</v>
       </c>
       <c r="G20" t="n">
-        <v>67904950</v>
+        <v>47768970</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>43955</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
       </c>
       <c r="B21" t="n">
-        <v>74.44656372070312</v>
+        <v>76.03</v>
       </c>
       <c r="C21" t="n">
-        <v>75.19084167480469</v>
+        <v>80.55</v>
       </c>
       <c r="D21" t="n">
-        <v>71.97518920898438</v>
+        <v>75.92</v>
       </c>
       <c r="E21" t="n">
-        <v>72.90076446533203</v>
+        <v>79.78</v>
       </c>
       <c r="F21" t="n">
-        <v>67.04486083984375</v>
+        <v>70.0125</v>
       </c>
       <c r="G21" t="n">
-        <v>50060654</v>
+        <v>49501097</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>43962</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>72.54770660400391</v>
+        <v>81</v>
       </c>
       <c r="C22" t="n">
-        <v>76.86068725585938</v>
+        <v>81</v>
       </c>
       <c r="D22" t="n">
-        <v>72.4427490234375</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>76.12595367431641</v>
+        <v>76.37</v>
       </c>
       <c r="F22" t="n">
-        <v>70.01096343994141</v>
+        <v>67.01990000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>51877153</v>
+        <v>47261486</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>43969</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>77.29007720947266</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>77.29007720947266</v>
+        <v>80.94</v>
       </c>
       <c r="D23" t="n">
-        <v>72.58587646484375</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
-        <v>72.87213897705078</v>
+        <v>80.72</v>
       </c>
       <c r="F23" t="n">
-        <v>67.01853942871094</v>
+        <v>70.8374</v>
       </c>
       <c r="G23" t="n">
-        <v>49529948</v>
+        <v>55997161</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>43976</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>74.67557525634766</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>77.23282623291016</v>
+        <v>83.13</v>
       </c>
       <c r="D24" t="n">
-        <v>72.51908111572266</v>
+        <v>78.82899999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>77.02290344238281</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>70.83586883544922</v>
+        <v>72.1888</v>
       </c>
       <c r="G24" t="n">
-        <v>58673014</v>
+        <v>48677736</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>43983</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>76.50763702392578</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>79.32251739501953</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>75.21946716308594</v>
+        <v>75.47</v>
       </c>
       <c r="E25" t="n">
-        <v>78.49236297607422</v>
+        <v>76.3</v>
       </c>
       <c r="F25" t="n">
-        <v>72.18729400634766</v>
+        <v>67.49039999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>51003959</v>
+        <v>56477441</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>43990</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>77.43320465087891</v>
+        <v>74.91</v>
       </c>
       <c r="C26" t="n">
-        <v>79.68511199951172</v>
+        <v>77.98</v>
       </c>
       <c r="D26" t="n">
-        <v>72.01335906982422</v>
+        <v>73.572</v>
       </c>
       <c r="E26" t="n">
-        <v>72.80534362792969</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>66.95709991455078</v>
+        <v>68.9057</v>
       </c>
       <c r="G26" t="n">
-        <v>59188420</v>
+        <v>74937029</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>43994</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>77.37</v>
+      </c>
+      <c r="C27" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>75.19</v>
+      </c>
+      <c r="F27" t="n">
+        <v>66.5086</v>
+      </c>
+      <c r="G27" t="n">
+        <v>44752384</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>43997</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>71.47901153564453</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>74.40839385986328</v>
+        <v>79.31</v>
       </c>
       <c r="D28" t="n">
-        <v>70.20037841796875</v>
+        <v>75.52</v>
       </c>
       <c r="E28" t="n">
-        <v>74.33206176757812</v>
+        <v>78.78</v>
       </c>
       <c r="F28" t="n">
-        <v>68.90458679199219</v>
+        <v>69.6841</v>
       </c>
       <c r="G28" t="n">
-        <v>78546553</v>
+        <v>32393526</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44004</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
       </c>
       <c r="B29" t="n">
-        <v>73.82633972167969</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>75.01908111572266</v>
+        <v>80.02200000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>71.56488800048828</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>71.74618530273438</v>
+        <v>76.73</v>
       </c>
       <c r="F29" t="n">
-        <v>66.50750732421875</v>
+        <v>67.8707</v>
       </c>
       <c r="G29" t="n">
-        <v>46899992</v>
+        <v>34684487</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44011</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-13</t>
+        </is>
       </c>
       <c r="B30" t="n">
-        <v>72.42366027832031</v>
+        <v>77</v>
       </c>
       <c r="C30" t="n">
-        <v>75.67748260498047</v>
+        <v>80.25</v>
       </c>
       <c r="D30" t="n">
-        <v>72.06106567382812</v>
+        <v>76.73</v>
       </c>
       <c r="E30" t="n">
-        <v>75.1717529296875</v>
+        <v>79.87</v>
       </c>
       <c r="F30" t="n">
-        <v>69.68296051025391</v>
+        <v>70.6482</v>
       </c>
       <c r="G30" t="n">
-        <v>33948388</v>
+        <v>36512026</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44018</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
       </c>
       <c r="B31" t="n">
-        <v>75.61068725585938</v>
+        <v>79.87</v>
       </c>
       <c r="C31" t="n">
-        <v>76.35496520996094</v>
+        <v>80.2</v>
       </c>
       <c r="D31" t="n">
-        <v>72.5572509765625</v>
+        <v>76.36</v>
       </c>
       <c r="E31" t="n">
-        <v>73.21565246582031</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>67.86967468261719</v>
+        <v>68.19799999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>36353548</v>
+        <v>45221144</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44025</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
       </c>
       <c r="B32" t="n">
-        <v>73.47328186035156</v>
+        <v>76.41</v>
       </c>
       <c r="C32" t="n">
-        <v>76.57442474365234</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>73.21565246582031</v>
+        <v>76.31</v>
       </c>
       <c r="E32" t="n">
-        <v>76.21183013916016</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>70.6470947265625</v>
+        <v>70.9755</v>
       </c>
       <c r="G32" t="n">
-        <v>38263214</v>
+        <v>43219089</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44032</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-03</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>76.21183013916016</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>76.52671813964844</v>
+        <v>83.8</v>
       </c>
       <c r="D33" t="n">
-        <v>72.86259460449219</v>
+        <v>80.03</v>
       </c>
       <c r="E33" t="n">
-        <v>73.56870269775391</v>
+        <v>81.02</v>
       </c>
       <c r="F33" t="n">
-        <v>68.19695281982422</v>
+        <v>71.66549999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>47391502</v>
+        <v>36787258</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44039</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
       </c>
       <c r="B34" t="n">
-        <v>72.91030120849609</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>77.93893432617188</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>72.81488800048828</v>
+        <v>80.3</v>
       </c>
       <c r="E34" t="n">
-        <v>76.56488800048828</v>
+        <v>83.48</v>
       </c>
       <c r="F34" t="n">
-        <v>70.974365234375</v>
+        <v>73.84139999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>45294665</v>
+        <v>33933148</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44046</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>78.38740539550781</v>
+        <v>84.28</v>
       </c>
       <c r="C35" t="n">
-        <v>79.96183013916016</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>76.364501953125</v>
+        <v>83.77</v>
       </c>
       <c r="E35" t="n">
-        <v>77.30915832519531</v>
+        <v>84.98</v>
       </c>
       <c r="F35" t="n">
-        <v>71.66429901123047</v>
+        <v>75.1682</v>
       </c>
       <c r="G35" t="n">
-        <v>38546803</v>
+        <v>33858101</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44053</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
       </c>
       <c r="B36" t="n">
-        <v>77.29962158203125</v>
+        <v>85.2</v>
       </c>
       <c r="C36" t="n">
-        <v>80.56298065185547</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>76.62213897705078</v>
+        <v>84.48</v>
       </c>
       <c r="E36" t="n">
-        <v>79.65648651123047</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>73.84022521972656</v>
+        <v>75.76090000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>35560526</v>
+        <v>36518787</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44060</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
       </c>
       <c r="B37" t="n">
-        <v>80.41984558105469</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>81.78434753417969</v>
+        <v>87.8</v>
       </c>
       <c r="D37" t="n">
-        <v>79.93320465087891</v>
+        <v>83.92</v>
       </c>
       <c r="E37" t="n">
-        <v>81.08778381347656</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>75.16701507568359</v>
+        <v>75.3982</v>
       </c>
       <c r="G37" t="n">
-        <v>35482870</v>
+        <v>46415044</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44067</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
       </c>
       <c r="B38" t="n">
-        <v>81.29770660400391</v>
+        <v>85.94</v>
       </c>
       <c r="C38" t="n">
-        <v>82.33778381347656</v>
+        <v>85.94</v>
       </c>
       <c r="D38" t="n">
-        <v>80.61068725585938</v>
+        <v>83</v>
       </c>
       <c r="E38" t="n">
-        <v>81.72709655761719</v>
+        <v>84.48</v>
       </c>
       <c r="F38" t="n">
-        <v>75.75965118408203</v>
+        <v>74.726</v>
       </c>
       <c r="G38" t="n">
-        <v>38271388</v>
+        <v>30569392</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44074</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>81.67938995361328</v>
+        <v>84.2</v>
       </c>
       <c r="C39" t="n">
-        <v>83.77862548828125</v>
+        <v>86.3</v>
       </c>
       <c r="D39" t="n">
-        <v>80.07633972167969</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>81.33587646484375</v>
+        <v>85.81</v>
       </c>
       <c r="F39" t="n">
-        <v>75.39698791503906</v>
+        <v>76.4541</v>
       </c>
       <c r="G39" t="n">
-        <v>48641663</v>
+        <v>47883593</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44081</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-21</t>
+        </is>
       </c>
       <c r="B40" t="n">
-        <v>82.00381469726562</v>
+        <v>84.92</v>
       </c>
       <c r="C40" t="n">
-        <v>82.00381469726562</v>
+        <v>85.34</v>
       </c>
       <c r="D40" t="n">
-        <v>79.19847106933594</v>
+        <v>81.8</v>
       </c>
       <c r="E40" t="n">
-        <v>80.61068725585938</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>74.72476196289062</v>
+        <v>73.88809999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>32036731</v>
+        <v>38598796</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44088</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
       </c>
       <c r="B41" t="n">
-        <v>80.34351348876953</v>
+        <v>83.2</v>
       </c>
       <c r="C41" t="n">
-        <v>82.34732818603516</v>
+        <v>83.7</v>
       </c>
       <c r="D41" t="n">
-        <v>79.81870269775391</v>
+        <v>80.45</v>
       </c>
       <c r="E41" t="n">
-        <v>81.87976837158203</v>
+        <v>80.8</v>
       </c>
       <c r="F41" t="n">
-        <v>75.90117645263672</v>
+        <v>71.9903</v>
       </c>
       <c r="G41" t="n">
-        <v>50181803</v>
+        <v>36379362</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44095</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-05</t>
+        </is>
       </c>
       <c r="B42" t="n">
-        <v>81.03053283691406</v>
+        <v>81.23</v>
       </c>
       <c r="C42" t="n">
-        <v>81.43129730224609</v>
+        <v>81.83499999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>78.05343627929688</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>79.13167572021484</v>
+        <v>80.36</v>
       </c>
       <c r="F42" t="n">
-        <v>73.88725280761719</v>
+        <v>71.59829999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>40450704</v>
+        <v>42079826</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44102</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-12</t>
+        </is>
       </c>
       <c r="B43" t="n">
-        <v>79.38931274414062</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>79.86640930175781</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>76.76526641845703</v>
+        <v>78.78</v>
       </c>
       <c r="E43" t="n">
-        <v>77.09923553466797</v>
+        <v>79.83</v>
       </c>
       <c r="F43" t="n">
-        <v>71.98950958251953</v>
+        <v>71.12609999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>38125403</v>
+        <v>41628686</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44109</v>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
       </c>
       <c r="B44" t="n">
-        <v>77.50954437255859</v>
+        <v>80.12</v>
       </c>
       <c r="C44" t="n">
-        <v>78.08206176757812</v>
+        <v>80.62</v>
       </c>
       <c r="D44" t="n">
-        <v>75.86832427978516</v>
+        <v>78.03</v>
       </c>
       <c r="E44" t="n">
-        <v>76.67938995361328</v>
+        <v>79.83</v>
       </c>
       <c r="F44" t="n">
-        <v>71.59748077392578</v>
+        <v>71.12609999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>44098896</v>
+        <v>40872608</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44116</v>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2020-10-26</t>
+        </is>
       </c>
       <c r="B45" t="n">
-        <v>76.82251739501953</v>
+        <v>79.33</v>
       </c>
       <c r="C45" t="n">
-        <v>77.22328186035156</v>
+        <v>80.23</v>
       </c>
       <c r="D45" t="n">
-        <v>75.1717529296875</v>
+        <v>73.94</v>
       </c>
       <c r="E45" t="n">
-        <v>76.17366027832031</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>71.12528228759766</v>
+        <v>67.0099</v>
       </c>
       <c r="G45" t="n">
-        <v>43623732</v>
+        <v>48440650</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44123</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-02</t>
+        </is>
       </c>
       <c r="B46" t="n">
-        <v>76.45037841796875</v>
+        <v>76.45</v>
       </c>
       <c r="C46" t="n">
-        <v>76.92748260498047</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>74.45610809326172</v>
+        <v>75.64</v>
       </c>
       <c r="E46" t="n">
-        <v>76.17366027832031</v>
+        <v>80.36</v>
       </c>
       <c r="F46" t="n">
-        <v>71.12528228759766</v>
+        <v>71.59829999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>42834380</v>
+        <v>44650346</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44130</v>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-09</t>
+        </is>
       </c>
       <c r="B47" t="n">
-        <v>75.69656372070312</v>
+        <v>84.78</v>
       </c>
       <c r="C47" t="n">
-        <v>76.55534362792969</v>
+        <v>85.17</v>
       </c>
       <c r="D47" t="n">
-        <v>70.55343627929688</v>
+        <v>79.03</v>
       </c>
       <c r="E47" t="n">
-        <v>71.76526641845703</v>
+        <v>81.09</v>
       </c>
       <c r="F47" t="n">
-        <v>67.00904083251953</v>
+        <v>72.2488</v>
       </c>
       <c r="G47" t="n">
-        <v>50765226</v>
+        <v>38818735</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44137</v>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-16</t>
+        </is>
       </c>
       <c r="B48" t="n">
-        <v>72.94847106933594</v>
+        <v>81.23</v>
       </c>
       <c r="C48" t="n">
-        <v>79.10305023193359</v>
+        <v>81.97</v>
       </c>
       <c r="D48" t="n">
-        <v>72.17557525634766</v>
+        <v>79.33</v>
       </c>
       <c r="E48" t="n">
-        <v>76.67938995361328</v>
+        <v>80.45</v>
       </c>
       <c r="F48" t="n">
-        <v>71.59748077392578</v>
+        <v>71.6785</v>
       </c>
       <c r="G48" t="n">
-        <v>46793200</v>
+        <v>41168634</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44144</v>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-23</t>
+        </is>
       </c>
       <c r="B49" t="n">
-        <v>80.89694976806641</v>
+        <v>80.61</v>
       </c>
       <c r="C49" t="n">
-        <v>81.26908111572266</v>
+        <v>81.16</v>
       </c>
       <c r="D49" t="n">
-        <v>75.41030120849609</v>
+        <v>79.38</v>
       </c>
       <c r="E49" t="n">
-        <v>77.37595367431641</v>
+        <v>79.86</v>
       </c>
       <c r="F49" t="n">
-        <v>72.24788665771484</v>
+        <v>71.1528</v>
       </c>
       <c r="G49" t="n">
-        <v>40678643</v>
+        <v>32403677</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44151</v>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
       </c>
       <c r="B50" t="n">
-        <v>77.50954437255859</v>
+        <v>80</v>
       </c>
       <c r="C50" t="n">
-        <v>78.21565246582031</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>75.69656372070312</v>
+        <v>79.41</v>
       </c>
       <c r="E50" t="n">
-        <v>76.76526641845703</v>
+        <v>81.94</v>
       </c>
       <c r="F50" t="n">
-        <v>71.67767333984375</v>
+        <v>73.006</v>
       </c>
       <c r="G50" t="n">
-        <v>43143331</v>
+        <v>45392702</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44158</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
       </c>
       <c r="B51" t="n">
-        <v>76.91793823242188</v>
+        <v>82.06</v>
       </c>
       <c r="C51" t="n">
-        <v>77.4427490234375</v>
+        <v>83.94</v>
       </c>
       <c r="D51" t="n">
-        <v>75.74427795410156</v>
+        <v>82.05</v>
       </c>
       <c r="E51" t="n">
-        <v>76.20229339599609</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>71.15200805664062</v>
+        <v>73.9148</v>
       </c>
       <c r="G51" t="n">
-        <v>33957506</v>
+        <v>38159135</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44165</v>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
       </c>
       <c r="B52" t="n">
-        <v>76.33587646484375</v>
+        <v>82.63</v>
       </c>
       <c r="C52" t="n">
-        <v>78.95037841796875</v>
+        <v>83.08</v>
       </c>
       <c r="D52" t="n">
-        <v>75.77290344238281</v>
+        <v>78.45</v>
       </c>
       <c r="E52" t="n">
-        <v>78.18701934814453</v>
+        <v>79.53</v>
       </c>
       <c r="F52" t="n">
-        <v>73.00521087646484</v>
+        <v>71.41800000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>47570921</v>
+        <v>74033788</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44172</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-21</t>
+        </is>
       </c>
       <c r="B53" t="n">
-        <v>78.30152893066406</v>
+        <v>78.8</v>
       </c>
       <c r="C53" t="n">
-        <v>80.09542083740234</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>78.29198455810547</v>
+        <v>77.735</v>
       </c>
       <c r="E53" t="n">
-        <v>79.16030120849609</v>
+        <v>80.14</v>
       </c>
       <c r="F53" t="n">
-        <v>73.91397857666016</v>
+        <v>71.9658</v>
       </c>
       <c r="G53" t="n">
-        <v>39990842</v>
+        <v>27872849</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44179</v>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-28</t>
+        </is>
       </c>
       <c r="B54" t="n">
-        <v>78.84542083740234</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>79.27481079101562</v>
+        <v>81.94</v>
       </c>
       <c r="D54" t="n">
-        <v>74.85687255859375</v>
+        <v>80.13</v>
       </c>
       <c r="E54" t="n">
-        <v>75.88740539550781</v>
+        <v>81.8</v>
       </c>
       <c r="F54" t="n">
-        <v>70.85800170898438</v>
+        <v>73.4564</v>
       </c>
       <c r="G54" t="n">
-        <v>77586584</v>
+        <v>20951057</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44186</v>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2021-01-04</t>
+        </is>
       </c>
       <c r="B55" t="n">
-        <v>75.19084167480469</v>
+        <v>82</v>
       </c>
       <c r="C55" t="n">
-        <v>76.74618530273438</v>
+        <v>84.37</v>
       </c>
       <c r="D55" t="n">
-        <v>74.17938995361328</v>
+        <v>79.88</v>
       </c>
       <c r="E55" t="n">
-        <v>76.46946716308594</v>
+        <v>83.03</v>
       </c>
       <c r="F55" t="n">
-        <v>71.96533966064453</v>
+        <v>74.56100000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>29206712</v>
+        <v>49610349</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44193</v>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
       </c>
       <c r="B56" t="n">
-        <v>76.95610809326172</v>
+        <v>83.5</v>
       </c>
       <c r="C56" t="n">
-        <v>78.18701934814453</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>76.45992279052734</v>
+        <v>81.5643</v>
       </c>
       <c r="E56" t="n">
-        <v>78.05343627929688</v>
+        <v>83.38</v>
       </c>
       <c r="F56" t="n">
-        <v>73.45600128173828</v>
+        <v>74.8753</v>
       </c>
       <c r="G56" t="n">
-        <v>21956754</v>
+        <v>52749729</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44200</v>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
       </c>
       <c r="B57" t="n">
-        <v>78.24427795410156</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>80.50572204589844</v>
+        <v>83.895</v>
       </c>
       <c r="D57" t="n">
-        <v>76.22137451171875</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>79.22709655761719</v>
+        <v>80.98</v>
       </c>
       <c r="F57" t="n">
-        <v>74.56053924560547</v>
+        <v>72.7201</v>
       </c>
       <c r="G57" t="n">
-        <v>51991595</v>
+        <v>36305021</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44207</v>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
       </c>
       <c r="B58" t="n">
-        <v>79.67557525634766</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>81.67938995361328</v>
+        <v>81.19</v>
       </c>
       <c r="D58" t="n">
-        <v>77.82442474365234</v>
+        <v>76.39</v>
       </c>
       <c r="E58" t="n">
-        <v>79.56106567382812</v>
+        <v>77.06999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>74.87484741210938</v>
+        <v>69.2089</v>
       </c>
       <c r="G58" t="n">
-        <v>55280533</v>
+        <v>54942587</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44214</v>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
       </c>
       <c r="B59" t="n">
-        <v>79.74236297607422</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>80.0572509765625</v>
+        <v>78.92</v>
       </c>
       <c r="D59" t="n">
-        <v>77.06106567382812</v>
+        <v>75.41</v>
       </c>
       <c r="E59" t="n">
-        <v>77.27098846435547</v>
+        <v>75.8</v>
       </c>
       <c r="F59" t="n">
-        <v>72.71964263916016</v>
+        <v>68.0684</v>
       </c>
       <c r="G59" t="n">
-        <v>38045859</v>
+        <v>58106481</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44221</v>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
       </c>
       <c r="B60" t="n">
-        <v>77.01335906982422</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>77.47137451171875</v>
+        <v>76.19</v>
       </c>
       <c r="D60" t="n">
-        <v>72.89122009277344</v>
+        <v>74.23</v>
       </c>
       <c r="E60" t="n">
-        <v>73.54007720947266</v>
+        <v>75</v>
       </c>
       <c r="F60" t="n">
-        <v>69.20848846435547</v>
+        <v>67.3501</v>
       </c>
       <c r="G60" t="n">
-        <v>57579845</v>
+        <v>54812794</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44228</v>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2021-02-16</t>
+        </is>
       </c>
       <c r="B61" t="n">
-        <v>74.41793823242188</v>
+        <v>75.37</v>
       </c>
       <c r="C61" t="n">
-        <v>75.30534362792969</v>
+        <v>76.06</v>
       </c>
       <c r="D61" t="n">
-        <v>71.95610809326172</v>
+        <v>74.045</v>
       </c>
       <c r="E61" t="n">
-        <v>72.3282470703125</v>
+        <v>74.31</v>
       </c>
       <c r="F61" t="n">
-        <v>68.06804656982422</v>
+        <v>66.7304</v>
       </c>
       <c r="G61" t="n">
-        <v>60895507</v>
+        <v>43911937</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44235</v>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
       </c>
       <c r="B62" t="n">
-        <v>72.37595367431641</v>
+        <v>74.5</v>
       </c>
       <c r="C62" t="n">
-        <v>72.70037841796875</v>
+        <v>75.959</v>
       </c>
       <c r="D62" t="n">
-        <v>70.83015441894531</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>71.56488800048828</v>
+        <v>72.62</v>
       </c>
       <c r="F62" t="n">
-        <v>67.34963989257812</v>
+        <v>65.2128</v>
       </c>
       <c r="G62" t="n">
-        <v>57443814</v>
+        <v>55251466</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44242</v>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
       </c>
       <c r="B63" t="n">
-        <v>71.91793823242188</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>72.57633972167969</v>
+        <v>73.727</v>
       </c>
       <c r="D63" t="n">
-        <v>70.65839385986328</v>
+        <v>71.715</v>
       </c>
       <c r="E63" t="n">
-        <v>70.90648651123047</v>
+        <v>73.13</v>
       </c>
       <c r="F63" t="n">
-        <v>66.73002624511719</v>
+        <v>65.6708</v>
       </c>
       <c r="G63" t="n">
-        <v>46003741</v>
+        <v>67562620</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44249</v>
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-08</t>
+        </is>
       </c>
       <c r="B64" t="n">
-        <v>71.08778381347656</v>
+        <v>74.37</v>
       </c>
       <c r="C64" t="n">
-        <v>72.48091888427734</v>
+        <v>75.56</v>
       </c>
       <c r="D64" t="n">
-        <v>69.21755981445312</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>69.29389190673828</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>65.21240997314453</v>
+        <v>67.57899999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>57903573</v>
+        <v>64034130</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>44256</v>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
       </c>
       <c r="B65" t="n">
-        <v>69.85687255859375</v>
+        <v>75.5</v>
       </c>
       <c r="C65" t="n">
-        <v>70.35305023193359</v>
+        <v>78.25</v>
       </c>
       <c r="D65" t="n">
-        <v>68.43511199951172</v>
+        <v>75.08</v>
       </c>
       <c r="E65" t="n">
-        <v>69.78053283691406</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>65.67038726806641</v>
+        <v>70.21510000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>70798478</v>
+        <v>118071133</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>44263</v>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-22</t>
+        </is>
       </c>
       <c r="B66" t="n">
-        <v>70.96373748779297</v>
+        <v>75.8</v>
       </c>
       <c r="C66" t="n">
-        <v>72.09923553466797</v>
+        <v>78</v>
       </c>
       <c r="D66" t="n">
-        <v>70.03816986083984</v>
+        <v>75.31</v>
       </c>
       <c r="E66" t="n">
-        <v>71.18320465087891</v>
+        <v>77.39</v>
       </c>
       <c r="F66" t="n">
-        <v>66.99044036865234</v>
+        <v>70.10639999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>67107841</v>
+        <v>50792130</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>44267</v>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-29</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>78.545</v>
+      </c>
+      <c r="D67" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="E67" t="n">
+        <v>77.09</v>
+      </c>
+      <c r="F67" t="n">
+        <v>69.8347</v>
+      </c>
+      <c r="G67" t="n">
+        <v>42262844</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44270</v>
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-05</t>
+        </is>
       </c>
       <c r="B68" t="n">
-        <v>72.04198455810547</v>
+        <v>77.52</v>
       </c>
       <c r="C68" t="n">
-        <v>74.66603088378906</v>
+        <v>77.91</v>
       </c>
       <c r="D68" t="n">
-        <v>71.64122009277344</v>
+        <v>75.28</v>
       </c>
       <c r="E68" t="n">
-        <v>73.95992279052734</v>
+        <v>76.31</v>
       </c>
       <c r="F68" t="n">
-        <v>70.21514892578125</v>
+        <v>69.1281</v>
       </c>
       <c r="G68" t="n">
-        <v>123730442</v>
+        <v>49979769</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44277</v>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
       </c>
       <c r="B69" t="n">
-        <v>72.3282470703125</v>
+        <v>76.37</v>
       </c>
       <c r="C69" t="n">
-        <v>74.42748260498047</v>
+        <v>77.75</v>
       </c>
       <c r="D69" t="n">
-        <v>71.86068725585938</v>
+        <v>75.87</v>
       </c>
       <c r="E69" t="n">
-        <v>73.84542083740234</v>
+        <v>77.47</v>
       </c>
       <c r="F69" t="n">
-        <v>70.1064453125</v>
+        <v>70.179</v>
       </c>
       <c r="G69" t="n">
-        <v>53230225</v>
+        <v>51591735</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44284</v>
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
       </c>
       <c r="B70" t="n">
-        <v>73.77862548828125</v>
+        <v>77.7</v>
       </c>
       <c r="C70" t="n">
-        <v>74.95229339599609</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>73.12976837158203</v>
+        <v>76.97</v>
       </c>
       <c r="E70" t="n">
-        <v>73.55915832519531</v>
+        <v>77.88</v>
       </c>
       <c r="F70" t="n">
-        <v>69.83468627929688</v>
+        <v>70.5504</v>
       </c>
       <c r="G70" t="n">
-        <v>44291520</v>
+        <v>50852958</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44291</v>
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
       </c>
       <c r="B71" t="n">
-        <v>73.96946716308594</v>
+        <v>77.86</v>
       </c>
       <c r="C71" t="n">
-        <v>74.34160614013672</v>
+        <v>78.02500000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>71.83206176757812</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>72.81488800048828</v>
+        <v>74.5</v>
       </c>
       <c r="F71" t="n">
-        <v>69.12809753417969</v>
+        <v>67.4885</v>
       </c>
       <c r="G71" t="n">
-        <v>52378831</v>
+        <v>73676743</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44298</v>
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
       </c>
       <c r="B72" t="n">
-        <v>72.87213897705078</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>74.18893432617188</v>
+        <v>78.66</v>
       </c>
       <c r="D72" t="n">
-        <v>72.39503479003906</v>
+        <v>74.22</v>
       </c>
       <c r="E72" t="n">
-        <v>73.9217529296875</v>
+        <v>78.41</v>
       </c>
       <c r="F72" t="n">
-        <v>70.17892456054688</v>
+        <v>71.0304</v>
       </c>
       <c r="G72" t="n">
-        <v>54068103</v>
+        <v>61895200</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44305</v>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2021-05-10</t>
+        </is>
       </c>
       <c r="B73" t="n">
-        <v>74.14122009277344</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>75.84923553466797</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>73.44465637207031</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>74.31298065185547</v>
+        <v>78.29000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>70.55033111572266</v>
+        <v>70.9217</v>
       </c>
       <c r="G73" t="n">
-        <v>53292896</v>
+        <v>53027564</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44312</v>
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2021-05-17</t>
+        </is>
       </c>
       <c r="B74" t="n">
-        <v>74.29389190673828</v>
+        <v>78.67</v>
       </c>
       <c r="C74" t="n">
-        <v>74.45610809326172</v>
+        <v>80.34</v>
       </c>
       <c r="D74" t="n">
-        <v>69.51335906982422</v>
+        <v>77.95</v>
       </c>
       <c r="E74" t="n">
-        <v>71.08778381347656</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>67.48843383789062</v>
+        <v>71.72799999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>77213286</v>
+        <v>45627462</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44319</v>
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2021-05-24</t>
+        </is>
       </c>
       <c r="B75" t="n">
-        <v>70.85877990722656</v>
+        <v>79.53</v>
       </c>
       <c r="C75" t="n">
-        <v>75.0572509765625</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>70.82061004638672</v>
+        <v>75.8</v>
       </c>
       <c r="E75" t="n">
-        <v>74.81870269775391</v>
+        <v>75.89</v>
       </c>
       <c r="F75" t="n">
-        <v>71.03045654296875</v>
+        <v>68.74760000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>64866169</v>
+        <v>61454352</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>44326</v>
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2021-06-01</t>
+        </is>
       </c>
       <c r="B76" t="n">
-        <v>75.20992279052734</v>
+        <v>76.06</v>
       </c>
       <c r="C76" t="n">
-        <v>75.55343627929688</v>
+        <v>76.14</v>
       </c>
       <c r="D76" t="n">
-        <v>73.61640930175781</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>74.70420074462891</v>
+        <v>74.11</v>
       </c>
       <c r="F76" t="n">
-        <v>70.92174530029297</v>
+        <v>70.35760000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>55571144</v>
+        <v>55066883</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>44333</v>
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
       </c>
       <c r="B77" t="n">
-        <v>75.06679534912109</v>
+        <v>74.14</v>
       </c>
       <c r="C77" t="n">
-        <v>76.66030120849609</v>
+        <v>76.86</v>
       </c>
       <c r="D77" t="n">
-        <v>74.37976837158203</v>
+        <v>72.075</v>
       </c>
       <c r="E77" t="n">
-        <v>75.55343627929688</v>
+        <v>76.27</v>
       </c>
       <c r="F77" t="n">
-        <v>71.72798156738281</v>
+        <v>72.4083</v>
       </c>
       <c r="G77" t="n">
-        <v>47817619</v>
+        <v>73875819</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>44340</v>
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
       </c>
       <c r="B78" t="n">
-        <v>75.88740539550781</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>76.00190734863281</v>
+        <v>77.55</v>
       </c>
       <c r="D78" t="n">
-        <v>72.3282470703125</v>
+        <v>74.72</v>
       </c>
       <c r="E78" t="n">
-        <v>72.41412353515625</v>
+        <v>76.61</v>
       </c>
       <c r="F78" t="n">
-        <v>68.74762725830078</v>
+        <v>73.3562</v>
       </c>
       <c r="G78" t="n">
-        <v>64400962</v>
+        <v>73189404</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>44347</v>
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
       </c>
       <c r="B79" t="n">
-        <v>72.57633972167969</v>
+        <v>76.89</v>
       </c>
       <c r="C79" t="n">
-        <v>74.48000335693359</v>
+        <v>77.97</v>
       </c>
       <c r="D79" t="n">
-        <v>71.59351348876953</v>
+        <v>75.55</v>
       </c>
       <c r="E79" t="n">
-        <v>74.11000061035156</v>
+        <v>77.2</v>
       </c>
       <c r="F79" t="n">
-        <v>70.35762786865234</v>
+        <v>73.9212</v>
       </c>
       <c r="G79" t="n">
-        <v>56332267</v>
+        <v>90264767</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>44350</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78.77</v>
+      </c>
+      <c r="D80" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="E80" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F80" t="n">
+        <v>75.2617</v>
+      </c>
+      <c r="G80" t="n">
+        <v>47185953</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>44354</v>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-06</t>
+        </is>
       </c>
       <c r="B81" t="n">
-        <v>74.13999938964844</v>
+        <v>78.14</v>
       </c>
       <c r="C81" t="n">
-        <v>76.86000061035156</v>
+        <v>78.69</v>
       </c>
       <c r="D81" t="n">
-        <v>72.08000183105469</v>
+        <v>77.30500000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>76.26999664306641</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>72.40825653076172</v>
+        <v>74.6776</v>
       </c>
       <c r="G81" t="n">
-        <v>73875900</v>
+        <v>29403069</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>44361</v>
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
       </c>
       <c r="B82" t="n">
-        <v>75.73999786376953</v>
+        <v>77.55</v>
       </c>
       <c r="C82" t="n">
-        <v>77.55000305175781</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>74.72000122070312</v>
+        <v>76.88</v>
       </c>
       <c r="E82" t="n">
-        <v>76.61000061035156</v>
+        <v>78.02</v>
       </c>
       <c r="F82" t="n">
-        <v>72.73105621337891</v>
+        <v>74.7063</v>
       </c>
       <c r="G82" t="n">
-        <v>73189100</v>
+        <v>39397112</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>44368</v>
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-19</t>
+        </is>
       </c>
       <c r="B83" t="n">
-        <v>76.88999938964844</v>
+        <v>77.81</v>
       </c>
       <c r="C83" t="n">
-        <v>77.97000122070312</v>
+        <v>78.33839999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>75.55000305175781</v>
+        <v>75.64</v>
       </c>
       <c r="E83" t="n">
-        <v>77.19999694824219</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>73.92115020751953</v>
+        <v>74.2467</v>
       </c>
       <c r="G83" t="n">
-        <v>90264500</v>
+        <v>44157172</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>44375</v>
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2021-07-26</t>
+        </is>
       </c>
       <c r="B84" t="n">
-        <v>77.25</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>78.76999664306641</v>
+        <v>78.66500000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>76.79000091552734</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>78.59999847412109</v>
+        <v>76.87</v>
       </c>
       <c r="F84" t="n">
-        <v>75.26168823242188</v>
+        <v>73.6052</v>
       </c>
       <c r="G84" t="n">
-        <v>47184700</v>
+        <v>48833149</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>44382</v>
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-02</t>
+        </is>
       </c>
       <c r="B85" t="n">
-        <v>78.13999938964844</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>78.69000244140625</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>77.30999755859375</v>
+        <v>74.9314</v>
       </c>
       <c r="E85" t="n">
-        <v>77.98999786376953</v>
+        <v>75.44</v>
       </c>
       <c r="F85" t="n">
-        <v>74.67759704589844</v>
+        <v>72.2359</v>
       </c>
       <c r="G85" t="n">
-        <v>29402500</v>
+        <v>47301532</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>44389</v>
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-09</t>
+        </is>
       </c>
       <c r="B86" t="n">
-        <v>77.55000305175781</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>78.43000030517578</v>
+        <v>76.77</v>
       </c>
       <c r="D86" t="n">
-        <v>76.87999725341797</v>
+        <v>74.815</v>
       </c>
       <c r="E86" t="n">
-        <v>78.01999664306641</v>
+        <v>76.72</v>
       </c>
       <c r="F86" t="n">
-        <v>74.70633697509766</v>
+        <v>73.4615</v>
       </c>
       <c r="G86" t="n">
-        <v>39396400</v>
+        <v>38951507</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>44396</v>
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
       </c>
       <c r="B87" t="n">
-        <v>77.80999755859375</v>
+        <v>76.73</v>
       </c>
       <c r="C87" t="n">
-        <v>78.33999633789062</v>
+        <v>79.2</v>
       </c>
       <c r="D87" t="n">
-        <v>75.63999938964844</v>
+        <v>76.63500000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>77.54000091552734</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>74.24671936035156</v>
+        <v>75.3383</v>
       </c>
       <c r="G87" t="n">
-        <v>44157200</v>
+        <v>42292743</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>44403</v>
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
       </c>
       <c r="B88" t="n">
-        <v>77.45999908447266</v>
+        <v>79.11</v>
       </c>
       <c r="C88" t="n">
-        <v>78.66999816894531</v>
+        <v>79.23</v>
       </c>
       <c r="D88" t="n">
-        <v>76.73999786376953</v>
+        <v>76.16500000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>76.87000274658203</v>
+        <v>76.3</v>
       </c>
       <c r="F88" t="n">
-        <v>73.60517120361328</v>
+        <v>73.0594</v>
       </c>
       <c r="G88" t="n">
-        <v>48833200</v>
+        <v>34886890</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>44410</v>
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
       </c>
       <c r="B89" t="n">
-        <v>76.93000030517578</v>
+        <v>76.3</v>
       </c>
       <c r="C89" t="n">
-        <v>77.26000213623047</v>
+        <v>77.38</v>
       </c>
       <c r="D89" t="n">
-        <v>74.93000030517578</v>
+        <v>75.83499999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>75.44000244140625</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>72.23590850830078</v>
+        <v>73.9786</v>
       </c>
       <c r="G89" t="n">
-        <v>47301500</v>
+        <v>40667134</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>44417</v>
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2021-09-07</t>
+        </is>
       </c>
       <c r="B90" t="n">
-        <v>75.84999847412109</v>
+        <v>76.59</v>
       </c>
       <c r="C90" t="n">
-        <v>76.76999664306641</v>
+        <v>76.87</v>
       </c>
       <c r="D90" t="n">
-        <v>74.81999969482422</v>
+        <v>73.12</v>
       </c>
       <c r="E90" t="n">
-        <v>76.72000122070312</v>
+        <v>73.45</v>
       </c>
       <c r="F90" t="n">
-        <v>73.4615478515625</v>
+        <v>70.3304</v>
       </c>
       <c r="G90" t="n">
-        <v>38949800</v>
+        <v>47937408</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>44424</v>
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2021-09-13</t>
+        </is>
       </c>
       <c r="B91" t="n">
-        <v>76.73000335693359</v>
+        <v>73.77</v>
       </c>
       <c r="C91" t="n">
-        <v>79.19999694824219</v>
+        <v>73.83</v>
       </c>
       <c r="D91" t="n">
-        <v>76.63999938964844</v>
+        <v>70.89</v>
       </c>
       <c r="E91" t="n">
-        <v>78.68000030517578</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>75.33829498291016</v>
+        <v>69.25069999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>42288700</v>
+        <v>97242518</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>44431</v>
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
       </c>
       <c r="B92" t="n">
-        <v>79.11000061035156</v>
+        <v>71.16</v>
       </c>
       <c r="C92" t="n">
-        <v>79.23000335693359</v>
+        <v>74.63</v>
       </c>
       <c r="D92" t="n">
-        <v>76.16999816894531</v>
+        <v>71.12</v>
       </c>
       <c r="E92" t="n">
-        <v>76.30000305175781</v>
+        <v>73.61</v>
       </c>
       <c r="F92" t="n">
-        <v>73.05938720703125</v>
+        <v>71.1153</v>
       </c>
       <c r="G92" t="n">
-        <v>34886900</v>
+        <v>64542155</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>44438</v>
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2021-09-27</t>
+        </is>
       </c>
       <c r="B93" t="n">
-        <v>76.30000305175781</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>77.37999725341797</v>
+        <v>84.34</v>
       </c>
       <c r="D93" t="n">
-        <v>75.83000183105469</v>
+        <v>72.66</v>
       </c>
       <c r="E93" t="n">
-        <v>77.26000213623047</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>73.97860717773438</v>
+        <v>78.6413</v>
       </c>
       <c r="G93" t="n">
-        <v>40665600</v>
+        <v>155269787</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>44445</v>
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2021-10-04</t>
+        </is>
       </c>
       <c r="B94" t="n">
-        <v>76.58999633789062</v>
+        <v>84.17</v>
       </c>
       <c r="C94" t="n">
-        <v>76.87000274658203</v>
+        <v>84.56</v>
       </c>
       <c r="D94" t="n">
-        <v>73.12000274658203</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>73.44999694824219</v>
+        <v>80.63</v>
       </c>
       <c r="F94" t="n">
-        <v>70.33042144775391</v>
+        <v>77.8974</v>
       </c>
       <c r="G94" t="n">
-        <v>47935700</v>
+        <v>126450628</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>44452</v>
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
       </c>
       <c r="B95" t="n">
-        <v>73.76999664306641</v>
+        <v>81.63500000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>73.83000183105469</v>
+        <v>81.63500000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>70.88999938964844</v>
+        <v>77.98</v>
       </c>
       <c r="E95" t="n">
-        <v>71.68000030517578</v>
+        <v>78.33</v>
       </c>
       <c r="F95" t="n">
-        <v>68.63560485839844</v>
+        <v>75.67529999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>97229400</v>
+        <v>59166337</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>44453</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2021-10-18</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>78.73999999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="D96" t="n">
+        <v>77.11</v>
+      </c>
+      <c r="E96" t="n">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="F96" t="n">
+        <v>78.3998</v>
+      </c>
+      <c r="G96" t="n">
+        <v>57555330</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>44459</v>
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2021-10-25</t>
+        </is>
       </c>
       <c r="B97" t="n">
-        <v>71.16000366210938</v>
+        <v>81.03</v>
       </c>
       <c r="C97" t="n">
-        <v>74.62999725341797</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>71.12000274658203</v>
+        <v>79.95</v>
       </c>
       <c r="E97" t="n">
-        <v>73.61000061035156</v>
+        <v>88.05</v>
       </c>
       <c r="F97" t="n">
-        <v>71.11528778076172</v>
+        <v>85.0659</v>
       </c>
       <c r="G97" t="n">
-        <v>64542200</v>
+        <v>74717080</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>44466</v>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2021-11-01</t>
+        </is>
       </c>
       <c r="B98" t="n">
-        <v>73.51000213623047</v>
+        <v>88.05</v>
       </c>
       <c r="C98" t="n">
-        <v>84.33999633789062</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>72.66000366210938</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>81.40000152587891</v>
+        <v>81.61</v>
       </c>
       <c r="F98" t="n">
-        <v>78.64128875732422</v>
+        <v>78.8442</v>
       </c>
       <c r="G98" t="n">
-        <v>155267200</v>
+        <v>93642961</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>44473</v>
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2021-11-08</t>
+        </is>
       </c>
       <c r="B99" t="n">
-        <v>84.16999816894531</v>
+        <v>80.41</v>
       </c>
       <c r="C99" t="n">
-        <v>84.55999755859375</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>80.15000152587891</v>
+        <v>79.881</v>
       </c>
       <c r="E99" t="n">
-        <v>80.62999725341797</v>
+        <v>84</v>
       </c>
       <c r="F99" t="n">
-        <v>77.89738464355469</v>
+        <v>81.1532</v>
       </c>
       <c r="G99" t="n">
-        <v>126450700</v>
+        <v>52991840</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>44480</v>
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2021-11-15</t>
+        </is>
       </c>
       <c r="B100" t="n">
-        <v>81.63999938964844</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>81.63999938964844</v>
+        <v>84.69</v>
       </c>
       <c r="D100" t="n">
-        <v>77.98000335693359</v>
+        <v>80.62</v>
       </c>
       <c r="E100" t="n">
-        <v>78.33000183105469</v>
+        <v>80.7</v>
       </c>
       <c r="F100" t="n">
-        <v>75.67533111572266</v>
+        <v>77.965</v>
       </c>
       <c r="G100" t="n">
-        <v>59162000</v>
+        <v>55379427</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>44487</v>
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2021-11-22</t>
+        </is>
       </c>
       <c r="B101" t="n">
-        <v>78.73999786376953</v>
+        <v>81</v>
       </c>
       <c r="C101" t="n">
-        <v>81.48000335693359</v>
+        <v>83.59</v>
       </c>
       <c r="D101" t="n">
-        <v>77.11000061035156</v>
+        <v>77.11</v>
       </c>
       <c r="E101" t="n">
-        <v>81.15000152587891</v>
+        <v>79.16</v>
       </c>
       <c r="F101" t="n">
-        <v>78.39976501464844</v>
+        <v>76.4772</v>
       </c>
       <c r="G101" t="n">
-        <v>57555300</v>
+        <v>49575120</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>44494</v>
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2021-11-29</t>
+        </is>
       </c>
       <c r="B102" t="n">
-        <v>81.02999877929688</v>
+        <v>76.42</v>
       </c>
       <c r="C102" t="n">
-        <v>88.45999908447266</v>
+        <v>77.5</v>
       </c>
       <c r="D102" t="n">
-        <v>79.94999694824219</v>
+        <v>72.66</v>
       </c>
       <c r="E102" t="n">
-        <v>88.05000305175781</v>
+        <v>73.34</v>
       </c>
       <c r="F102" t="n">
-        <v>85.06591796875</v>
+        <v>70.8544</v>
       </c>
       <c r="G102" t="n">
-        <v>74717100</v>
+        <v>115668745</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>44501</v>
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
       </c>
       <c r="B103" t="n">
-        <v>88.05000305175781</v>
+        <v>73.3</v>
       </c>
       <c r="C103" t="n">
-        <v>91.40000152587891</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>81.34999847412109</v>
+        <v>71.5</v>
       </c>
       <c r="E103" t="n">
-        <v>81.61000061035156</v>
+        <v>72.62</v>
       </c>
       <c r="F103" t="n">
-        <v>78.84416198730469</v>
+        <v>70.1588</v>
       </c>
       <c r="G103" t="n">
-        <v>93642900</v>
+        <v>68810090</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>44508</v>
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
       </c>
       <c r="B104" t="n">
-        <v>80.41000366210938</v>
+        <v>72.37</v>
       </c>
       <c r="C104" t="n">
-        <v>84.26000213623047</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>79.87999725341797</v>
+        <v>71.97</v>
       </c>
       <c r="E104" t="n">
-        <v>84</v>
+        <v>75.69</v>
       </c>
       <c r="F104" t="n">
-        <v>81.15316772460938</v>
+        <v>73.8185</v>
       </c>
       <c r="G104" t="n">
-        <v>52991800</v>
+        <v>95435377</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>44515</v>
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
       </c>
       <c r="B105" t="n">
-        <v>84.15000152587891</v>
+        <v>75.7</v>
       </c>
       <c r="C105" t="n">
-        <v>84.69000244140625</v>
+        <v>76.55970000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>80.62000274658203</v>
+        <v>74.88500000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>80.69999694824219</v>
+        <v>75.73</v>
       </c>
       <c r="F105" t="n">
-        <v>77.96500396728516</v>
+        <v>73.85760000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>55374400</v>
+        <v>45917480</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>44522</v>
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
       </c>
       <c r="B106" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C106" t="n">
-        <v>83.58999633789062</v>
+        <v>77.61</v>
       </c>
       <c r="D106" t="n">
-        <v>77.11000061035156</v>
+        <v>75.77</v>
       </c>
       <c r="E106" t="n">
-        <v>79.16000366210938</v>
+        <v>77.14</v>
       </c>
       <c r="F106" t="n">
-        <v>76.47720336914062</v>
+        <v>75.23269999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>49570000</v>
+        <v>23852738</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>44529</v>
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
       </c>
       <c r="B107" t="n">
-        <v>76.41999816894531</v>
+        <v>76.58</v>
       </c>
       <c r="C107" t="n">
-        <v>77.5</v>
+        <v>80.53</v>
       </c>
       <c r="D107" t="n">
-        <v>72.66000366210938</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>73.33999633789062</v>
+        <v>80.3</v>
       </c>
       <c r="F107" t="n">
-        <v>70.85443878173828</v>
+        <v>78.3146</v>
       </c>
       <c r="G107" t="n">
-        <v>115662400</v>
+        <v>65444194</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>44536</v>
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
       </c>
       <c r="B108" t="n">
-        <v>73.30000305175781</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>73.84999847412109</v>
+        <v>82.56</v>
       </c>
       <c r="D108" t="n">
-        <v>71.5</v>
+        <v>79.67</v>
       </c>
       <c r="E108" t="n">
-        <v>72.62000274658203</v>
+        <v>81.38</v>
       </c>
       <c r="F108" t="n">
-        <v>70.15885162353516</v>
+        <v>79.36790000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>68810100</v>
+        <v>63435058</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>44543</v>
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
       </c>
       <c r="B109" t="n">
-        <v>72.37000274658203</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>77.73999786376953</v>
+        <v>82.16</v>
       </c>
       <c r="D109" t="n">
-        <v>71.97000122070312</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>75.69000244140625</v>
+        <v>79.98</v>
       </c>
       <c r="F109" t="n">
-        <v>73.12480163574219</v>
+        <v>78.0025</v>
       </c>
       <c r="G109" t="n">
-        <v>95341500</v>
+        <v>56473891</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>44544</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2022-01-24</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="C110" t="n">
+        <v>81.595</v>
+      </c>
+      <c r="D110" t="n">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>78.8997</v>
+      </c>
+      <c r="G110" t="n">
+        <v>78107279</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>44550</v>
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
       </c>
       <c r="B111" t="n">
-        <v>75.69999694824219</v>
+        <v>81.02</v>
       </c>
       <c r="C111" t="n">
-        <v>76.55999755859375</v>
+        <v>82.295</v>
       </c>
       <c r="D111" t="n">
-        <v>74.88999938964844</v>
+        <v>78.2</v>
       </c>
       <c r="E111" t="n">
-        <v>75.73000335693359</v>
+        <v>78.56</v>
       </c>
       <c r="F111" t="n">
-        <v>73.85756683349609</v>
+        <v>76.6176</v>
       </c>
       <c r="G111" t="n">
-        <v>45917500</v>
+        <v>67724123</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>44557</v>
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
       </c>
       <c r="B112" t="n">
-        <v>76</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>77.61000061035156</v>
+        <v>78.92</v>
       </c>
       <c r="D112" t="n">
-        <v>75.76999664306641</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>76.63999938964844</v>
+        <v>76.64</v>
       </c>
       <c r="F112" t="n">
-        <v>74.74505615234375</v>
+        <v>74.74509999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>29866500</v>
+        <v>78064718</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>44564</v>
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
       </c>
       <c r="B113" t="n">
-        <v>76.58000183105469</v>
+        <v>76.63</v>
       </c>
       <c r="C113" t="n">
-        <v>80.52999877929688</v>
+        <v>78.19</v>
       </c>
       <c r="D113" t="n">
-        <v>75.34999847412109</v>
+        <v>75.11</v>
       </c>
       <c r="E113" t="n">
-        <v>80.30000305175781</v>
+        <v>76.37</v>
       </c>
       <c r="F113" t="n">
-        <v>78.31456756591797</v>
+        <v>74.4817</v>
       </c>
       <c r="G113" t="n">
-        <v>65442000</v>
+        <v>48958505</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>44571</v>
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
       </c>
       <c r="B114" t="n">
-        <v>80.54000091552734</v>
+        <v>76.45999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>82.55999755859375</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>79.66999816894531</v>
+        <v>72.875</v>
       </c>
       <c r="E114" t="n">
-        <v>81.37999725341797</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>79.36785888671875</v>
+        <v>74.43300000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>63435000</v>
+        <v>53513077</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>44578</v>
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
       </c>
       <c r="B115" t="n">
-        <v>81.09999847412109</v>
+        <v>75.83</v>
       </c>
       <c r="C115" t="n">
-        <v>82.16000366210938</v>
+        <v>77.86</v>
       </c>
       <c r="D115" t="n">
-        <v>79.23999786376953</v>
+        <v>74.78</v>
       </c>
       <c r="E115" t="n">
-        <v>79.98000335693359</v>
+        <v>77.83</v>
       </c>
       <c r="F115" t="n">
-        <v>78.00247955322266</v>
+        <v>75.90560000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>56472600</v>
+        <v>54039675</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>44585</v>
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2022-03-07</t>
+        </is>
       </c>
       <c r="B116" t="n">
-        <v>79.76999664306641</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>81.59999847412109</v>
+        <v>79.625</v>
       </c>
       <c r="D116" t="n">
-        <v>76.65000152587891</v>
+        <v>76.08</v>
       </c>
       <c r="E116" t="n">
-        <v>80.90000152587891</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>78.89973449707031</v>
+        <v>76.325</v>
       </c>
       <c r="G116" t="n">
-        <v>78100500</v>
+        <v>52335165</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>44592</v>
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
       </c>
       <c r="B117" t="n">
-        <v>81.01999664306641</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>82.30000305175781</v>
+        <v>79.735</v>
       </c>
       <c r="D117" t="n">
-        <v>78.19999694824219</v>
+        <v>77.31</v>
       </c>
       <c r="E117" t="n">
-        <v>78.55999755859375</v>
+        <v>79.11</v>
       </c>
       <c r="F117" t="n">
-        <v>76.61759185791016</v>
+        <v>77.8403</v>
       </c>
       <c r="G117" t="n">
-        <v>67724100</v>
+        <v>63776558</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>44599</v>
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
       </c>
       <c r="B118" t="n">
-        <v>78.79000091552734</v>
+        <v>79.67</v>
       </c>
       <c r="C118" t="n">
-        <v>78.91999816894531</v>
+        <v>81.38</v>
       </c>
       <c r="D118" t="n">
-        <v>75.81999969482422</v>
+        <v>78.765</v>
       </c>
       <c r="E118" t="n">
-        <v>76.63999938964844</v>
+        <v>81.34</v>
       </c>
       <c r="F118" t="n">
-        <v>74.74505615234375</v>
+        <v>80.03449999999999</v>
       </c>
       <c r="G118" t="n">
-        <v>78064800</v>
+        <v>43696489</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>44606</v>
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
       </c>
       <c r="B119" t="n">
-        <v>76.62999725341797</v>
+        <v>81.37</v>
       </c>
       <c r="C119" t="n">
-        <v>78.19000244140625</v>
+        <v>83.58</v>
       </c>
       <c r="D119" t="n">
-        <v>75.11000061035156</v>
+        <v>80.73</v>
       </c>
       <c r="E119" t="n">
-        <v>76.37000274658203</v>
+        <v>83.52</v>
       </c>
       <c r="F119" t="n">
-        <v>74.48173522949219</v>
+        <v>82.1795</v>
       </c>
       <c r="G119" t="n">
-        <v>48957800</v>
+        <v>46350790</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>44613</v>
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
       </c>
       <c r="B120" t="n">
-        <v>76.45999908447266</v>
+        <v>83.5</v>
       </c>
       <c r="C120" t="n">
-        <v>77.29000091552734</v>
+        <v>87.83499999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>72.87999725341797</v>
+        <v>82.73</v>
       </c>
       <c r="E120" t="n">
-        <v>76.31999969482422</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>74.43297576904297</v>
+        <v>86.2727</v>
       </c>
       <c r="G120" t="n">
-        <v>53513100</v>
+        <v>59518823</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>44620</v>
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
       </c>
       <c r="B121" t="n">
-        <v>75.83000183105469</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>77.86000061035156</v>
+        <v>89.48</v>
       </c>
       <c r="D121" t="n">
-        <v>74.77999877929688</v>
+        <v>84.83</v>
       </c>
       <c r="E121" t="n">
-        <v>77.83000183105469</v>
+        <v>86.91</v>
       </c>
       <c r="F121" t="n">
-        <v>75.9056396484375</v>
+        <v>85.5151</v>
       </c>
       <c r="G121" t="n">
-        <v>54038300</v>
+        <v>61763877</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>44627</v>
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
       </c>
       <c r="B122" t="n">
-        <v>77.01000213623047</v>
+        <v>86.42</v>
       </c>
       <c r="C122" t="n">
-        <v>79.62999725341797</v>
+        <v>87.4502</v>
       </c>
       <c r="D122" t="n">
-        <v>76.08000183105469</v>
+        <v>84.5</v>
       </c>
       <c r="E122" t="n">
-        <v>78.26000213623047</v>
+        <v>84.59</v>
       </c>
       <c r="F122" t="n">
-        <v>76.32500457763672</v>
+        <v>83.2323</v>
       </c>
       <c r="G122" t="n">
-        <v>52335200</v>
+        <v>41685780</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>44634</v>
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
       </c>
       <c r="B123" t="n">
-        <v>77.90000152587891</v>
+        <v>84.59</v>
       </c>
       <c r="C123" t="n">
-        <v>79.73999786376953</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>77.30999755859375</v>
+        <v>83.53</v>
       </c>
       <c r="E123" t="n">
-        <v>79.11000061035156</v>
+        <v>88.69</v>
       </c>
       <c r="F123" t="n">
-        <v>77.15398406982422</v>
+        <v>87.26649999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>63776600</v>
+        <v>67376418</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>44641</v>
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
       </c>
       <c r="B124" t="n">
-        <v>79.66999816894531</v>
+        <v>88.72</v>
       </c>
       <c r="C124" t="n">
-        <v>81.37999725341797</v>
+        <v>88.92</v>
       </c>
       <c r="D124" t="n">
-        <v>78.76999664306641</v>
+        <v>86.36</v>
       </c>
       <c r="E124" t="n">
-        <v>81.33999633789062</v>
+        <v>88.39</v>
       </c>
       <c r="F124" t="n">
-        <v>80.03449249267578</v>
+        <v>86.9713</v>
       </c>
       <c r="G124" t="n">
-        <v>43695900</v>
+        <v>53089832</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>44648</v>
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-09</t>
+        </is>
       </c>
       <c r="B125" t="n">
-        <v>81.37000274658203</v>
+        <v>87.5</v>
       </c>
       <c r="C125" t="n">
-        <v>83.58000183105469</v>
+        <v>91.05</v>
       </c>
       <c r="D125" t="n">
-        <v>80.73000335693359</v>
+        <v>86.91</v>
       </c>
       <c r="E125" t="n">
-        <v>83.51999664306641</v>
+        <v>90.41</v>
       </c>
       <c r="F125" t="n">
-        <v>82.17949676513672</v>
+        <v>88.9589</v>
       </c>
       <c r="G125" t="n">
-        <v>46350700</v>
+        <v>65129141</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>44655</v>
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-16</t>
+        </is>
       </c>
       <c r="B126" t="n">
-        <v>83.5</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>87.83999633789062</v>
+        <v>94.56</v>
       </c>
       <c r="D126" t="n">
-        <v>82.73000335693359</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>87.68000030517578</v>
+        <v>93.55</v>
       </c>
       <c r="F126" t="n">
-        <v>86.27274322509766</v>
+        <v>92.0485</v>
       </c>
       <c r="G126" t="n">
-        <v>59518400</v>
+        <v>67178110</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>44662</v>
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
       </c>
       <c r="B127" t="n">
-        <v>88.31999969482422</v>
+        <v>93.59</v>
       </c>
       <c r="C127" t="n">
-        <v>89.48000335693359</v>
+        <v>94.92</v>
       </c>
       <c r="D127" t="n">
-        <v>84.83000183105469</v>
+        <v>91</v>
       </c>
       <c r="E127" t="n">
-        <v>86.91000366210938</v>
+        <v>93.08</v>
       </c>
       <c r="F127" t="n">
-        <v>85.51509857177734</v>
+        <v>91.5861</v>
       </c>
       <c r="G127" t="n">
-        <v>61763900</v>
+        <v>56317148</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>44669</v>
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="B128" t="n">
-        <v>86.41999816894531</v>
+        <v>91.91</v>
       </c>
       <c r="C128" t="n">
-        <v>87.44999694824219</v>
+        <v>92.62</v>
       </c>
       <c r="D128" t="n">
-        <v>84.5</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>84.58999633789062</v>
+        <v>89.91</v>
       </c>
       <c r="F128" t="n">
-        <v>83.23233032226562</v>
+        <v>88.4669</v>
       </c>
       <c r="G128" t="n">
-        <v>41685600</v>
+        <v>51471233</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>44676</v>
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
       </c>
       <c r="B129" t="n">
-        <v>84.58999633789062</v>
+        <v>90.17</v>
       </c>
       <c r="C129" t="n">
-        <v>90.01000213623047</v>
+        <v>90.81999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>83.52999877929688</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>88.69000244140625</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>87.26653289794922</v>
+        <v>85.7808</v>
       </c>
       <c r="G129" t="n">
-        <v>67370800</v>
+        <v>45089788</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>44683</v>
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
+        </is>
       </c>
       <c r="B130" t="n">
-        <v>88.72000122070312</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>88.91999816894531</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>86.36000061035156</v>
+        <v>83.05</v>
       </c>
       <c r="E130" t="n">
-        <v>88.38999938964844</v>
+        <v>84.62</v>
       </c>
       <c r="F130" t="n">
-        <v>86.97134399414062</v>
+        <v>83.94329999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>53089700</v>
+        <v>80514459</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>44690</v>
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
       </c>
       <c r="B131" t="n">
-        <v>87.5</v>
+        <v>86.05</v>
       </c>
       <c r="C131" t="n">
-        <v>91.05000305175781</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>86.91000366210938</v>
+        <v>85.27</v>
       </c>
       <c r="E131" t="n">
-        <v>90.41000366210938</v>
+        <v>93.13</v>
       </c>
       <c r="F131" t="n">
-        <v>88.95892333984375</v>
+        <v>92.3852</v>
       </c>
       <c r="G131" t="n">
-        <v>65129200</v>
+        <v>63683317</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>44697</v>
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
       </c>
       <c r="B132" t="n">
-        <v>90.79000091552734</v>
+        <v>93.2</v>
       </c>
       <c r="C132" t="n">
-        <v>94.55999755859375</v>
+        <v>95.72</v>
       </c>
       <c r="D132" t="n">
-        <v>90.68000030517578</v>
+        <v>90.38500000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>93.55000305175781</v>
+        <v>92.42</v>
       </c>
       <c r="F132" t="n">
-        <v>92.04853057861328</v>
+        <v>91.68089999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>67178100</v>
+        <v>64095290</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>44704</v>
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
       </c>
       <c r="B133" t="n">
-        <v>93.58999633789062</v>
+        <v>92.44</v>
       </c>
       <c r="C133" t="n">
-        <v>94.91999816894531</v>
+        <v>94.5099</v>
       </c>
       <c r="D133" t="n">
-        <v>91</v>
+        <v>90.53</v>
       </c>
       <c r="E133" t="n">
-        <v>93.08000183105469</v>
+        <v>92.78</v>
       </c>
       <c r="F133" t="n">
-        <v>91.58607482910156</v>
+        <v>92.038</v>
       </c>
       <c r="G133" t="n">
-        <v>56317200</v>
+        <v>35333244</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>44711</v>
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
       </c>
       <c r="B134" t="n">
-        <v>91.91000366210938</v>
+        <v>92.88</v>
       </c>
       <c r="C134" t="n">
-        <v>92.62000274658203</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>88.73999786376953</v>
+        <v>92.06</v>
       </c>
       <c r="E134" t="n">
-        <v>89.91000366210938</v>
+        <v>94.95999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>88.46694946289062</v>
+        <v>94.20059999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>51471100</v>
+        <v>39754027</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>44718</v>
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
       </c>
       <c r="B135" t="n">
-        <v>90.16999816894531</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>90.81999969482422</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>86.70999908447266</v>
+        <v>88.91</v>
       </c>
       <c r="E135" t="n">
-        <v>87.18000030517578</v>
+        <v>90.11</v>
       </c>
       <c r="F135" t="n">
-        <v>85.78076171875</v>
+        <v>89.38939999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>45088900</v>
+        <v>43283229</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>44725</v>
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
       </c>
       <c r="B136" t="n">
-        <v>85.70999908447266</v>
+        <v>90.2</v>
       </c>
       <c r="C136" t="n">
-        <v>86.51000213623047</v>
+        <v>91.95</v>
       </c>
       <c r="D136" t="n">
-        <v>83.05000305175781</v>
+        <v>87.42</v>
       </c>
       <c r="E136" t="n">
-        <v>84.62000274658203</v>
+        <v>89.34</v>
       </c>
       <c r="F136" t="n">
-        <v>83.26184844970703</v>
+        <v>88.6255</v>
       </c>
       <c r="G136" t="n">
-        <v>80514400</v>
+        <v>48593316</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>44726</v>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>89.34</v>
+      </c>
+      <c r="C137" t="n">
+        <v>90.015</v>
+      </c>
+      <c r="D137" t="n">
+        <v>86.02</v>
+      </c>
+      <c r="E137" t="n">
+        <v>87.41</v>
+      </c>
+      <c r="F137" t="n">
+        <v>86.711</v>
+      </c>
+      <c r="G137" t="n">
+        <v>39768933</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>44732</v>
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
       </c>
       <c r="B138" t="n">
-        <v>86.05000305175781</v>
+        <v>87.3</v>
       </c>
       <c r="C138" t="n">
-        <v>93.79000091552734</v>
+        <v>91.03</v>
       </c>
       <c r="D138" t="n">
-        <v>85.26999664306641</v>
+        <v>86.81</v>
       </c>
       <c r="E138" t="n">
-        <v>93.12999725341797</v>
+        <v>91.02</v>
       </c>
       <c r="F138" t="n">
-        <v>92.38521575927734</v>
+        <v>90.2921</v>
       </c>
       <c r="G138" t="n">
-        <v>63680800</v>
+        <v>49221364</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>44739</v>
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
       </c>
       <c r="B139" t="n">
-        <v>93.19999694824219</v>
+        <v>90.825</v>
       </c>
       <c r="C139" t="n">
-        <v>95.72000122070312</v>
+        <v>93.02</v>
       </c>
       <c r="D139" t="n">
-        <v>90.38999938964844</v>
+        <v>89.87</v>
       </c>
       <c r="E139" t="n">
-        <v>92.41999816894531</v>
+        <v>92.08</v>
       </c>
       <c r="F139" t="n">
-        <v>91.68089294433594</v>
+        <v>91.3436</v>
       </c>
       <c r="G139" t="n">
-        <v>64094600</v>
+        <v>33427724</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>44746</v>
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
       </c>
       <c r="B140" t="n">
-        <v>92.44000244140625</v>
+        <v>91.80500000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>94.51000213623047</v>
+        <v>92.22</v>
       </c>
       <c r="D140" t="n">
-        <v>90.52999877929688</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>92.77999877929688</v>
+        <v>89.26000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>92.03801727294922</v>
+        <v>88.5462</v>
       </c>
       <c r="G140" t="n">
-        <v>35331300</v>
+        <v>28994208</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>44753</v>
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
       </c>
       <c r="B141" t="n">
-        <v>92.87999725341797</v>
+        <v>88.83</v>
       </c>
       <c r="C141" t="n">
-        <v>95.34999847412109</v>
+        <v>89</v>
       </c>
       <c r="D141" t="n">
-        <v>92.05999755859375</v>
+        <v>85.16</v>
       </c>
       <c r="E141" t="n">
-        <v>94.95999908447266</v>
+        <v>86.23</v>
       </c>
       <c r="F141" t="n">
-        <v>94.20058441162109</v>
+        <v>85.54040000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>39752700</v>
+        <v>40732336</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>44760</v>
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
       </c>
       <c r="B142" t="n">
-        <v>94.90000152587891</v>
+        <v>86.58</v>
       </c>
       <c r="C142" t="n">
-        <v>95.09999847412109</v>
+        <v>88.17</v>
       </c>
       <c r="D142" t="n">
-        <v>88.91000366210938</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>90.11000061035156</v>
+        <v>87.34</v>
       </c>
       <c r="F142" t="n">
-        <v>89.38937377929688</v>
+        <v>86.64149999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>43282800</v>
+        <v>29956627</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>44767</v>
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
       </c>
       <c r="B143" t="n">
-        <v>90.19999694824219</v>
+        <v>88.13</v>
       </c>
       <c r="C143" t="n">
-        <v>91.94999694824219</v>
+        <v>89.16500000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>87.41999816894531</v>
+        <v>86.11</v>
       </c>
       <c r="E143" t="n">
-        <v>89.33999633789062</v>
+        <v>87.72</v>
       </c>
       <c r="F143" t="n">
-        <v>88.62552642822266</v>
+        <v>87.72</v>
       </c>
       <c r="G143" t="n">
-        <v>48593300</v>
+        <v>46269541</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>44774</v>
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
       </c>
       <c r="B144" t="n">
-        <v>89.33999633789062</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>90.01999664306641</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>86.01999664306641</v>
+        <v>84.52</v>
       </c>
       <c r="E144" t="n">
-        <v>87.41000366210938</v>
+        <v>86.78</v>
       </c>
       <c r="F144" t="n">
-        <v>86.71096801757812</v>
+        <v>86.78</v>
       </c>
       <c r="G144" t="n">
-        <v>39768900</v>
+        <v>41762460</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>44781</v>
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
       </c>
       <c r="B145" t="n">
-        <v>87.30000305175781</v>
+        <v>86.12</v>
       </c>
       <c r="C145" t="n">
-        <v>91.02999877929688</v>
+        <v>87.63</v>
       </c>
       <c r="D145" t="n">
-        <v>86.80999755859375</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>91.01999664306641</v>
+        <v>86.12</v>
       </c>
       <c r="F145" t="n">
-        <v>90.29209136962891</v>
+        <v>86.12</v>
       </c>
       <c r="G145" t="n">
-        <v>49219200</v>
+        <v>37850368</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>44788</v>
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
       </c>
       <c r="B146" t="n">
-        <v>90.83000183105469</v>
+        <v>86.72</v>
       </c>
       <c r="C146" t="n">
-        <v>93.01999664306641</v>
+        <v>88.78</v>
       </c>
       <c r="D146" t="n">
-        <v>89.87000274658203</v>
+        <v>86.02</v>
       </c>
       <c r="E146" t="n">
-        <v>92.08000183105469</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>91.34362030029297</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>33427300</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>44795</v>
-      </c>
-      <c r="B147" t="n">
-        <v>91.80999755859375</v>
-      </c>
-      <c r="C147" t="n">
-        <v>92.22000122070312</v>
-      </c>
-      <c r="D147" t="n">
-        <v>89.06999969482422</v>
-      </c>
-      <c r="E147" t="n">
-        <v>89.26000213623047</v>
-      </c>
-      <c r="F147" t="n">
-        <v>88.54617309570312</v>
-      </c>
-      <c r="G147" t="n">
-        <v>28993800</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
-        <v>44802</v>
-      </c>
-      <c r="B148" t="n">
-        <v>88.83000183105469</v>
-      </c>
-      <c r="C148" t="n">
-        <v>89</v>
-      </c>
-      <c r="D148" t="n">
-        <v>85.16000366210938</v>
-      </c>
-      <c r="E148" t="n">
-        <v>86.23000335693359</v>
-      </c>
-      <c r="F148" t="n">
-        <v>85.5404052734375</v>
-      </c>
-      <c r="G148" t="n">
-        <v>40732300</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
-        <v>44809</v>
-      </c>
-      <c r="B149" t="n">
-        <v>86.58000183105469</v>
-      </c>
-      <c r="C149" t="n">
-        <v>88.16999816894531</v>
-      </c>
-      <c r="D149" t="n">
-        <v>85.06999969482422</v>
-      </c>
-      <c r="E149" t="n">
-        <v>87.33999633789062</v>
-      </c>
-      <c r="F149" t="n">
-        <v>86.64151763916016</v>
-      </c>
-      <c r="G149" t="n">
-        <v>29955300</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>44816</v>
-      </c>
-      <c r="B150" t="n">
-        <v>88.12999725341797</v>
-      </c>
-      <c r="C150" t="n">
-        <v>89.16999816894531</v>
-      </c>
-      <c r="D150" t="n">
-        <v>86.11000061035156</v>
-      </c>
-      <c r="E150" t="n">
-        <v>87.72000122070312</v>
-      </c>
-      <c r="F150" t="n">
-        <v>87.01848602294922</v>
-      </c>
-      <c r="G150" t="n">
-        <v>46268700</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>44818</v>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>44823</v>
-      </c>
-      <c r="B152" t="n">
-        <v>86.84999847412109</v>
-      </c>
-      <c r="C152" t="n">
-        <v>88.15000152587891</v>
-      </c>
-      <c r="D152" t="n">
-        <v>84.51999664306641</v>
-      </c>
-      <c r="E152" t="n">
-        <v>86.77999877929688</v>
-      </c>
-      <c r="F152" t="n">
-        <v>86.77999877929688</v>
-      </c>
-      <c r="G152" t="n">
-        <v>41761700</v>
+        <v>39518587</v>
       </c>
     </row>
   </sheetData>
